--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -664,10 +664,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -676,44 +676,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="68">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="64">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1512,11 +1475,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214735488"/>
-        <c:axId val="214737280"/>
+        <c:axId val="199000832"/>
+        <c:axId val="199003136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214735488"/>
+        <c:axId val="199000832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1489,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214737280"/>
+        <c:crossAx val="199003136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1534,7 +1497,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214737280"/>
+        <c:axId val="199003136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1545,13 +1508,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214735488"/>
+        <c:crossAx val="199000832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1754,11 +1718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114640000"/>
-        <c:axId val="114641536"/>
+        <c:axId val="215041920"/>
+        <c:axId val="215043456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114640000"/>
+        <c:axId val="215041920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114641536"/>
+        <c:crossAx val="215043456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1776,7 +1740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114641536"/>
+        <c:axId val="215043456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1787,7 +1751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114640000"/>
+        <c:crossAx val="215041920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2032,11 +1996,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214842752"/>
-        <c:axId val="214860928"/>
+        <c:axId val="214507904"/>
+        <c:axId val="214509440"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214842752"/>
+        <c:axId val="214507904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2010,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214860928"/>
+        <c:crossAx val="214509440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2054,7 +2018,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214860928"/>
+        <c:axId val="214509440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2065,7 +2029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214842752"/>
+        <c:crossAx val="214507904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,11 +2238,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215164800"/>
-        <c:axId val="215166336"/>
+        <c:axId val="214559360"/>
+        <c:axId val="214561152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215164800"/>
+        <c:axId val="214559360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2252,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215166336"/>
+        <c:crossAx val="214561152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2260,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215166336"/>
+        <c:axId val="214561152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215164800"/>
+        <c:crossAx val="214559360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2576,11 +2540,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="114660864"/>
-        <c:axId val="114662400"/>
+        <c:axId val="116286208"/>
+        <c:axId val="116287744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="114660864"/>
+        <c:axId val="116286208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114662400"/>
+        <c:crossAx val="116287744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2598,7 +2562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="114662400"/>
+        <c:axId val="116287744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2609,14 +2573,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="114660864"/>
+        <c:crossAx val="116286208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2843,11 +2806,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214901120"/>
-        <c:axId val="214902656"/>
+        <c:axId val="202120192"/>
+        <c:axId val="202126080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214901120"/>
+        <c:axId val="202120192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +2820,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214902656"/>
+        <c:crossAx val="202126080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2865,7 +2828,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214902656"/>
+        <c:axId val="202126080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,14 +2839,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214901120"/>
+        <c:crossAx val="202120192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3122,11 +3084,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="142610432"/>
-        <c:axId val="142611968"/>
+        <c:axId val="202143232"/>
+        <c:axId val="202144768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="142610432"/>
+        <c:axId val="202143232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,7 +3098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142611968"/>
+        <c:crossAx val="202144768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3144,7 +3106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="142611968"/>
+        <c:axId val="202144768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3155,7 +3117,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="142610432"/>
+        <c:crossAx val="202143232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3713,7 +3675,7 @@
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3733,18 +3695,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8556,58 +8518,58 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C127:C1048576 C46:C117">
-    <cfRule type="cellIs" dxfId="67" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="32" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="63" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="20" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="21" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="22" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="23" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="59" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="16" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="17" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="19" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="55" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="14" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8648,16 +8610,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8708,7 +8670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -9334,16 +9296,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9878,16 +9840,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C13">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10698,16 +10660,16 @@
     <sortCondition ref="F2"/>
   </sortState>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11459,58 +11421,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C20">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12511,30 +12473,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C25">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13256,16 +13218,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C18">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13301,8 +13263,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13351,7 +13313,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>59</v>
@@ -13383,7 +13345,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>62</v>
@@ -13415,7 +13377,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>46</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>63</v>
@@ -13447,7 +13409,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>64</v>
@@ -13479,7 +13441,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="B7" s="11" t="s">
         <v>65</v>
@@ -13511,7 +13473,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>69</v>
@@ -13543,7 +13505,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>66</v>
@@ -13575,7 +13537,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>67</v>
@@ -13607,7 +13569,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>68</v>
@@ -13639,7 +13601,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>53</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>70</v>
@@ -13671,7 +13633,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>71</v>
@@ -13703,7 +13665,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>74</v>
@@ -13735,7 +13697,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>76</v>
@@ -13767,7 +13729,7 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>72</v>
@@ -13799,7 +13761,7 @@
     </row>
     <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>73</v>
@@ -13831,7 +13793,7 @@
     </row>
     <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>75</v>
@@ -13863,7 +13825,7 @@
     </row>
     <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>77</v>
@@ -13895,7 +13857,7 @@
     </row>
     <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>78</v>
@@ -13927,7 +13889,7 @@
     </row>
     <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>83</v>
@@ -13959,7 +13921,7 @@
     </row>
     <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>80</v>
@@ -13991,7 +13953,7 @@
     </row>
     <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>81</v>
@@ -14023,7 +13985,7 @@
     </row>
     <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>79</v>
@@ -14055,7 +14017,7 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>82</v>
@@ -14158,7 +14120,7 @@
       <c r="M28" s="3">
         <v>1</v>
       </c>
-      <c r="N28" s="26">
+      <c r="N28" s="25">
         <v>12</v>
       </c>
     </row>
@@ -14197,7 +14159,7 @@
       <c r="M29" s="3">
         <v>1</v>
       </c>
-      <c r="N29" s="26">
+      <c r="N29" s="25">
         <v>9</v>
       </c>
     </row>
@@ -14207,16 +14169,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="240" windowWidth="18195" windowHeight="8325" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Quyet Nguyen" sheetId="6" r:id="rId6"/>
     <sheet name="Tung Nguyen" sheetId="7" r:id="rId7"/>
     <sheet name="Dang Nguyen" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Dang Nguyen'!$A$2:$J$2</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1094" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="149">
   <si>
     <t>No.</t>
   </si>
@@ -466,6 +467,21 @@
   </si>
   <si>
     <t>Asking some information are questioning.</t>
+  </si>
+  <si>
+    <t>Síp</t>
+  </si>
+  <si>
+    <t>Tan</t>
+  </si>
+  <si>
+    <t>Tung</t>
+  </si>
+  <si>
+    <t>Loc</t>
+  </si>
+  <si>
+    <t>Dang</t>
   </si>
 </sst>
 </file>
@@ -1475,11 +1491,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="199000832"/>
-        <c:axId val="199003136"/>
+        <c:axId val="136677248"/>
+        <c:axId val="136678784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="199000832"/>
+        <c:axId val="136677248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,7 +1505,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199003136"/>
+        <c:crossAx val="136678784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1497,7 +1513,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="199003136"/>
+        <c:axId val="136678784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1508,7 +1524,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="199000832"/>
+        <c:crossAx val="136677248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1616,7 +1632,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>9</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>4</c:v>
@@ -1695,7 +1711,7 @@
                   <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.5</c:v>
+                  <c:v>11.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2</c:v>
@@ -1718,11 +1734,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="215041920"/>
-        <c:axId val="215043456"/>
+        <c:axId val="165926784"/>
+        <c:axId val="165928320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="215041920"/>
+        <c:axId val="165926784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1732,7 +1748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215043456"/>
+        <c:crossAx val="165928320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1740,7 +1756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="215043456"/>
+        <c:axId val="165928320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,13 +1767,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215041920"/>
+        <c:crossAx val="165926784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1996,11 +2013,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214507904"/>
-        <c:axId val="214509440"/>
+        <c:axId val="165945728"/>
+        <c:axId val="165947264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214507904"/>
+        <c:axId val="165945728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2010,7 +2027,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214509440"/>
+        <c:crossAx val="165947264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2018,7 +2035,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214509440"/>
+        <c:axId val="165947264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2029,7 +2046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214507904"/>
+        <c:crossAx val="165945728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2238,11 +2255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="214559360"/>
-        <c:axId val="214561152"/>
+        <c:axId val="165996800"/>
+        <c:axId val="165998592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="214559360"/>
+        <c:axId val="165996800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2252,7 +2269,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214561152"/>
+        <c:crossAx val="165998592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2260,7 +2277,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="214561152"/>
+        <c:axId val="165998592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2271,7 +2288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="214559360"/>
+        <c:crossAx val="165996800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2540,11 +2557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="116286208"/>
-        <c:axId val="116287744"/>
+        <c:axId val="166150912"/>
+        <c:axId val="166152448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="116286208"/>
+        <c:axId val="166150912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,7 +2571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116287744"/>
+        <c:crossAx val="166152448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2562,7 +2579,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="116287744"/>
+        <c:axId val="166152448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="116286208"/>
+        <c:crossAx val="166150912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2806,11 +2823,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202120192"/>
-        <c:axId val="202126080"/>
+        <c:axId val="166174080"/>
+        <c:axId val="166192256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202120192"/>
+        <c:axId val="166174080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2820,7 +2837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202126080"/>
+        <c:crossAx val="166192256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2828,7 +2845,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202126080"/>
+        <c:axId val="166192256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2839,7 +2856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202120192"/>
+        <c:crossAx val="166174080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3084,11 +3101,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="202143232"/>
-        <c:axId val="202144768"/>
+        <c:axId val="151902080"/>
+        <c:axId val="151903616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="202143232"/>
+        <c:axId val="151902080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3098,7 +3115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202144768"/>
+        <c:crossAx val="151903616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3106,7 +3123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="202144768"/>
+        <c:axId val="151903616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3117,14 +3134,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202143232"/>
+        <c:crossAx val="151902080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8670,8 +8686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9342,8 +9358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:K17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9674,13 +9690,13 @@
         <v>40902</v>
       </c>
       <c r="H11" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J11" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9796,7 +9812,7 @@
         <v>7</v>
       </c>
       <c r="I16" s="4">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J16" s="4">
         <v>4</v>
@@ -9825,7 +9841,7 @@
         <v>7</v>
       </c>
       <c r="I17" s="4">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="J17" s="4">
         <v>2</v>
@@ -9885,8 +9901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N25"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:N25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10705,8 +10721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22:K24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11520,8 +11536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12547,8 +12563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:M22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13263,8 +13279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14208,4 +14224,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6">
+        <v>16.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,14 +25,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$180</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tan Tran'!$A$2:$J$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="171">
   <si>
     <t>No.</t>
   </si>
@@ -482,6 +482,74 @@
   </si>
   <si>
     <t>Dang</t>
+  </si>
+  <si>
+    <t>Documenting the report</t>
+  </si>
+  <si>
+    <t>Update Plan for Architecture Phase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research about the CoOp &amp; Scenario </t>
+  </si>
+  <si>
+    <t>Update Process, Assumption &amp; Milestone for 
+Architecture</t>
+  </si>
+  <si>
+    <t>Research the forms provided by customer</t>
+  </si>
+  <si>
+    <t>Training entity framework and WCF</t>
+  </si>
+  <si>
+    <t>Discover Architecture Driver</t>
+  </si>
+  <si>
+    <t>Training for interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing Use case + Description </t>
+  </si>
+  <si>
+    <t>Training design interface</t>
+  </si>
+  <si>
+    <t>Program "Recruitment Job" Interface</t>
+  </si>
+  <si>
+    <t>Review Architecture Driver</t>
+  </si>
+  <si>
+    <t>Research tactic for performance and modify</t>
+  </si>
+  <si>
+    <t>Design dynamic view</t>
+  </si>
+  <si>
+    <t>Update Design decision, design rationale</t>
+  </si>
+  <si>
+    <t>Make the interface for "Union Task Management"</t>
+  </si>
+  <si>
+    <t>Update Static, Dynamic, and Behavior Diagram</t>
+  </si>
+  <si>
+    <t>Research about N-Tier</t>
+  </si>
+  <si>
+    <t>Review SRS</t>
+  </si>
+  <si>
+    <t>Document Architecture Driver</t>
+  </si>
+  <si>
+    <t>Document Architecture Design</t>
+  </si>
+  <si>
+    <t>Make the interface for "Family Relationship
+Management"</t>
   </si>
 </sst>
 </file>
@@ -638,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -686,6 +754,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1491,11 +1567,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136677248"/>
-        <c:axId val="136678784"/>
+        <c:axId val="99702272"/>
+        <c:axId val="99703808"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136677248"/>
+        <c:axId val="99702272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1505,7 +1581,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136678784"/>
+        <c:crossAx val="99703808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1513,7 +1589,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136678784"/>
+        <c:axId val="99703808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1524,7 +1600,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136677248"/>
+        <c:crossAx val="99702272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1571,7 +1647,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tuong Nguyen'!$C$16</c:f>
+              <c:f>'Tuong Nguyen'!$C$37</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1612,7 +1688,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tuong Nguyen'!$D$16:$K$16</c:f>
+              <c:f>'Tuong Nguyen'!$D$37:$K$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1650,7 +1726,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tuong Nguyen'!$C$17</c:f>
+              <c:f>'Tuong Nguyen'!$C$38</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1691,7 +1767,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tuong Nguyen'!$D$17:$K$17</c:f>
+              <c:f>'Tuong Nguyen'!$D$38:$K$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1734,11 +1810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165926784"/>
-        <c:axId val="165928320"/>
+        <c:axId val="100098048"/>
+        <c:axId val="100099584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165926784"/>
+        <c:axId val="100098048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1748,7 +1824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165928320"/>
+        <c:crossAx val="100099584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1756,7 +1832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165928320"/>
+        <c:axId val="100099584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1767,7 +1843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165926784"/>
+        <c:crossAx val="100098048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2013,11 +2089,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165945728"/>
-        <c:axId val="165947264"/>
+        <c:axId val="74144000"/>
+        <c:axId val="99774464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165945728"/>
+        <c:axId val="74144000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2027,7 +2103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165947264"/>
+        <c:crossAx val="99774464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2035,7 +2111,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165947264"/>
+        <c:axId val="99774464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2046,7 +2122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165945728"/>
+        <c:crossAx val="74144000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2255,11 +2331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="165996800"/>
-        <c:axId val="165998592"/>
+        <c:axId val="99959552"/>
+        <c:axId val="99961088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="165996800"/>
+        <c:axId val="99959552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2269,7 +2345,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165998592"/>
+        <c:crossAx val="99961088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2277,7 +2353,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="165998592"/>
+        <c:axId val="99961088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2364,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="165996800"/>
+        <c:crossAx val="99959552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2557,11 +2633,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166150912"/>
-        <c:axId val="166152448"/>
+        <c:axId val="100186752"/>
+        <c:axId val="100188544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166150912"/>
+        <c:axId val="100186752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2571,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166152448"/>
+        <c:crossAx val="100188544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2579,7 +2655,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166152448"/>
+        <c:axId val="100188544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2590,7 +2666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166150912"/>
+        <c:crossAx val="100186752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2823,11 +2899,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="166174080"/>
-        <c:axId val="166192256"/>
+        <c:axId val="100482048"/>
+        <c:axId val="100483840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="166174080"/>
+        <c:axId val="100482048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2837,7 +2913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166192256"/>
+        <c:crossAx val="100483840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2845,7 +2921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="166192256"/>
+        <c:axId val="100483840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2856,7 +2932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="166174080"/>
+        <c:crossAx val="100482048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3101,11 +3177,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151902080"/>
-        <c:axId val="151903616"/>
+        <c:axId val="1275392"/>
+        <c:axId val="1276928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151902080"/>
+        <c:axId val="1275392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3115,7 +3191,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151903616"/>
+        <c:crossAx val="1276928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3123,7 +3199,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151903616"/>
+        <c:axId val="1276928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,7 +3210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151902080"/>
+        <c:crossAx val="1275392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3202,7 +3278,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8686,7 +8762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -9356,10 +9432,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K17"/>
+  <dimension ref="A2:K38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9573,7 +9649,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>39</v>
+        <v>159</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -9585,16 +9661,16 @@
         <v>32</v>
       </c>
       <c r="F8" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G8" s="14">
-        <v>40886</v>
+        <v>40888</v>
       </c>
       <c r="H8" s="3">
         <v>2</v>
       </c>
       <c r="I8" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
         <v>100</v>
@@ -9604,11 +9680,11 @@
       <c r="A9" s="3">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
+      <c r="B9" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>25</v>
@@ -9617,10 +9693,10 @@
         <v>32</v>
       </c>
       <c r="F9" s="18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="14">
-        <v>40886</v>
+        <v>40896</v>
       </c>
       <c r="H9" s="3">
         <v>5</v>
@@ -9629,15 +9705,18 @@
         <v>3.5</v>
       </c>
       <c r="J9" s="4">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="K9" s="17">
+        <v>40812</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="B10" s="24" t="s">
-        <v>14</v>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
@@ -9649,22 +9728,19 @@
         <v>32</v>
       </c>
       <c r="F10" s="18">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G10" s="14">
-        <v>40896</v>
+        <v>40889</v>
       </c>
       <c r="H10" s="3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3">
-        <v>3.5</v>
+        <v>11</v>
       </c>
       <c r="J10" s="4">
         <v>100</v>
-      </c>
-      <c r="K10" s="17">
-        <v>40812</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9672,10 +9748,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>25</v>
@@ -9684,16 +9760,16 @@
         <v>32</v>
       </c>
       <c r="F11" s="18">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G11" s="14">
-        <v>40902</v>
+        <v>40908</v>
       </c>
       <c r="H11" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I11" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>100</v>
@@ -9704,10 +9780,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>25</v>
@@ -9716,19 +9792,19 @@
         <v>32</v>
       </c>
       <c r="F12" s="18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="14">
-        <v>40908</v>
+        <v>40916</v>
       </c>
       <c r="H12" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="J12" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9736,10 +9812,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>37</v>
+        <v>149</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
@@ -9748,114 +9824,769 @@
         <v>32</v>
       </c>
       <c r="F13" s="18">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14">
+        <v>40824</v>
+      </c>
+      <c r="H13" s="3">
+        <v>2</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="18">
+        <v>4</v>
+      </c>
+      <c r="G14" s="14">
+        <v>40839</v>
+      </c>
+      <c r="H14" s="3">
+        <v>2</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="18">
+        <v>3</v>
+      </c>
+      <c r="G15" s="14">
+        <v>40831</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="18">
+        <v>4</v>
+      </c>
+      <c r="G16" s="14">
+        <v>40839</v>
+      </c>
+      <c r="H16" s="3">
+        <v>2</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
-      <c r="G13" s="14">
-        <v>40916</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="B17" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="18">
+        <v>5</v>
+      </c>
+      <c r="G17" s="14">
+        <v>40842</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="18">
+        <v>4</v>
+      </c>
+      <c r="G18" s="14">
+        <v>40837</v>
+      </c>
+      <c r="H18" s="3">
+        <v>4</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="18">
         <v>6</v>
       </c>
-      <c r="I13" s="3">
+      <c r="G19" s="14">
+        <v>40850</v>
+      </c>
+      <c r="H19" s="3">
+        <v>10</v>
+      </c>
+      <c r="I19" s="3">
+        <v>14.5</v>
+      </c>
+      <c r="J19" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="18">
+        <v>6</v>
+      </c>
+      <c r="G20" s="14">
+        <v>40852</v>
+      </c>
+      <c r="H20" s="3">
+        <v>3</v>
+      </c>
+      <c r="I20" s="3">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="18">
+        <v>7</v>
+      </c>
+      <c r="G21" s="14">
+        <v>40856</v>
+      </c>
+      <c r="H21" s="3">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3">
+        <v>9.5</v>
+      </c>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="18">
+        <v>9</v>
+      </c>
+      <c r="G22" s="14">
+        <v>40873</v>
+      </c>
+      <c r="H22" s="3">
+        <v>4</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F23" s="18">
+        <v>11</v>
+      </c>
+      <c r="G23" s="14">
+        <v>40886</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F24" s="18">
+        <v>12</v>
+      </c>
+      <c r="G24" s="14">
+        <v>40893</v>
+      </c>
+      <c r="H24" s="3">
+        <v>5</v>
+      </c>
+      <c r="I24" s="3">
+        <v>4</v>
+      </c>
+      <c r="J24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="18">
+        <v>12</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40888</v>
+      </c>
+      <c r="H25" s="3">
+        <v>4</v>
+      </c>
+      <c r="I25" s="3">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F26" s="18">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14">
+        <v>40893</v>
+      </c>
+      <c r="H26" s="3">
+        <v>5</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6.5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F27" s="18">
+        <v>12</v>
+      </c>
+      <c r="G27" s="14">
+        <v>40894</v>
+      </c>
+      <c r="H27" s="3">
+        <v>3</v>
+      </c>
+      <c r="I27" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J27" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F28" s="18">
+        <v>13</v>
+      </c>
+      <c r="G28" s="14">
+        <v>40895</v>
+      </c>
+      <c r="H28" s="3">
+        <v>2</v>
+      </c>
+      <c r="I28" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J28" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29" s="18">
+        <v>13</v>
+      </c>
+      <c r="G29" s="14">
+        <v>40896</v>
+      </c>
+      <c r="H29" s="3">
+        <v>3</v>
+      </c>
+      <c r="I29" s="3">
+        <v>2</v>
+      </c>
+      <c r="J29" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F30" s="18">
+        <v>13</v>
+      </c>
+      <c r="G30" s="14">
+        <v>40896</v>
+      </c>
+      <c r="H30" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="I30" s="3">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="18">
+        <v>13</v>
+      </c>
+      <c r="G31" s="14">
+        <v>40896</v>
+      </c>
+      <c r="H31" s="3">
+        <v>1</v>
+      </c>
+      <c r="I31" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J31" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F32" s="18">
+        <v>7</v>
+      </c>
+      <c r="G32" s="14">
+        <v>40856</v>
+      </c>
+      <c r="H32" s="3">
+        <v>11</v>
+      </c>
+      <c r="I32" s="3">
+        <v>13</v>
+      </c>
+      <c r="J32" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="18">
+        <v>13</v>
+      </c>
+      <c r="G33" s="14">
+        <v>40898</v>
+      </c>
+      <c r="H33" s="3">
+        <v>35</v>
+      </c>
+      <c r="I33" s="3">
+        <v>31</v>
+      </c>
+      <c r="J33" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="27"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="28"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="28"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="22">
+        <v>3</v>
+      </c>
+      <c r="E36" s="22">
+        <v>5</v>
+      </c>
+      <c r="F36" s="22">
+        <v>6</v>
+      </c>
+      <c r="G36" s="22">
+        <v>9</v>
+      </c>
+      <c r="H36" s="22">
+        <v>11</v>
+      </c>
+      <c r="I36" s="22">
+        <v>13</v>
+      </c>
+      <c r="J36" s="22">
+        <v>14</v>
+      </c>
+      <c r="K36" s="22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="4">
+        <v>8</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>9</v>
+      </c>
+      <c r="G37" s="4">
+        <v>6</v>
+      </c>
+      <c r="H37" s="4">
+        <v>7</v>
+      </c>
+      <c r="I37" s="4">
+        <v>12</v>
+      </c>
+      <c r="J37" s="4">
+        <v>4</v>
+      </c>
+      <c r="K37" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="4">
+        <v>6.5</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2</v>
+      </c>
+      <c r="F38" s="4">
+        <v>8</v>
+      </c>
+      <c r="G38" s="4">
         <v>5.5</v>
       </c>
-      <c r="J13" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C15" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D15" s="22">
-        <v>3</v>
-      </c>
-      <c r="E15" s="22">
-        <v>5</v>
-      </c>
-      <c r="F15" s="22">
-        <v>6</v>
-      </c>
-      <c r="G15" s="22">
-        <v>9</v>
-      </c>
-      <c r="H15" s="22">
-        <v>11</v>
-      </c>
-      <c r="I15" s="22">
-        <v>13</v>
-      </c>
-      <c r="J15" s="22">
-        <v>14</v>
-      </c>
-      <c r="K15" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C16" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1</v>
-      </c>
-      <c r="F16" s="4">
-        <v>9</v>
-      </c>
-      <c r="G16" s="4">
-        <v>6</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="H38" s="4">
         <v>7</v>
       </c>
-      <c r="I16" s="4">
-        <v>12</v>
-      </c>
-      <c r="J16" s="4">
-        <v>4</v>
-      </c>
-      <c r="K16" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="3:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C17" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4">
-        <v>6.5</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="I38" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="J38" s="4">
         <v>2</v>
       </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="4">
+      <c r="K38" s="4">
         <v>5.5</v>
       </c>
-      <c r="H17" s="4">
-        <v>7</v>
-      </c>
-      <c r="I17" s="4">
-        <v>11.5</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>5.5</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J13"/>
+  <autoFilter ref="A2:J12"/>
   <sortState ref="A3:K13">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C13">
+  <conditionalFormatting sqref="C2:C34">
     <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -9869,8 +10600,8 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J13">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="J3:J34">
+    <cfRule type="colorScale" priority="307">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9882,13 +10613,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C34">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E35">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -706,7 +706,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -751,9 +751,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,6 +759,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1567,11 +1568,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99702272"/>
-        <c:axId val="99703808"/>
+        <c:axId val="136170112"/>
+        <c:axId val="136606080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99702272"/>
+        <c:axId val="136170112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,7 +1582,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99703808"/>
+        <c:crossAx val="136606080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1589,7 +1590,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99703808"/>
+        <c:axId val="136606080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,7 +1601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99702272"/>
+        <c:crossAx val="136170112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1656,64 +1657,46 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>15</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tuong Nguyen'!$D$37:$K$37</c:f>
+              <c:f>'Tuong Nguyen'!$D$37:$O$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
@@ -1735,64 +1718,46 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>14</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>15</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tuong Nguyen'!$D$38:$K$38</c:f>
+              <c:f>'Tuong Nguyen'!$D$38:$O$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7</c:v>
+                  <c:v>24.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>11.5</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2</c:v>
+                  <c:v>8.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>5.5</c:v>
                 </c:pt>
               </c:numCache>
@@ -1810,11 +1775,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100098048"/>
-        <c:axId val="100099584"/>
+        <c:axId val="136639616"/>
+        <c:axId val="136641152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100098048"/>
+        <c:axId val="136639616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1824,7 +1789,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100099584"/>
+        <c:crossAx val="136641152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1832,7 +1797,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100099584"/>
+        <c:axId val="136641152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1843,7 +1808,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100098048"/>
+        <c:crossAx val="136639616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2089,11 +2054,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="74144000"/>
-        <c:axId val="99774464"/>
+        <c:axId val="136719744"/>
+        <c:axId val="136725632"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="74144000"/>
+        <c:axId val="136719744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2103,7 +2068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99774464"/>
+        <c:crossAx val="136725632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2111,7 +2076,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99774464"/>
+        <c:axId val="136725632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2122,7 +2087,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74144000"/>
+        <c:crossAx val="136719744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2331,11 +2296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99959552"/>
-        <c:axId val="99961088"/>
+        <c:axId val="136910720"/>
+        <c:axId val="136912256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99959552"/>
+        <c:axId val="136910720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2345,7 +2310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99961088"/>
+        <c:crossAx val="136912256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2353,7 +2318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99961088"/>
+        <c:axId val="136912256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2364,7 +2329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99959552"/>
+        <c:crossAx val="136910720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2633,11 +2598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100186752"/>
-        <c:axId val="100188544"/>
+        <c:axId val="136998912"/>
+        <c:axId val="137000448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100186752"/>
+        <c:axId val="136998912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100188544"/>
+        <c:crossAx val="137000448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2655,7 +2620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100188544"/>
+        <c:axId val="137000448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2666,7 +2631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100186752"/>
+        <c:crossAx val="136998912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2899,11 +2864,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100482048"/>
-        <c:axId val="100483840"/>
+        <c:axId val="137040256"/>
+        <c:axId val="137041792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100482048"/>
+        <c:axId val="137040256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,7 +2878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100483840"/>
+        <c:crossAx val="137041792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2921,7 +2886,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100483840"/>
+        <c:axId val="137041792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2932,7 +2897,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100482048"/>
+        <c:crossAx val="137040256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3177,11 +3142,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1275392"/>
-        <c:axId val="1276928"/>
+        <c:axId val="137097984"/>
+        <c:axId val="137099520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1275392"/>
+        <c:axId val="137097984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3191,7 +3156,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1276928"/>
+        <c:crossAx val="137099520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3199,7 +3164,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1276928"/>
+        <c:axId val="137099520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1275392"/>
+        <c:crossAx val="137097984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3273,13 +3238,13 @@
       <xdr:col>10</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>23812</xdr:rowOff>
+      <xdr:rowOff>23813</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>352425</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3787,18 +3752,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8763,7 +8728,7 @@
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9432,10 +9397,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K38"/>
+  <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9452,7 +9417,7 @@
     <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -9484,15 +9449,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>149</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>25</v>
@@ -9501,62 +9466,62 @@
         <v>32</v>
       </c>
       <c r="F3" s="18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G3" s="14">
-        <v>40826</v>
+        <v>40824</v>
       </c>
       <c r="H3" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="J3" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>131</v>
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F4" s="18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G4" s="14">
-        <v>40841</v>
+        <v>40826</v>
       </c>
       <c r="H4" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I4" s="3">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="J4" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>34</v>
+        <v>151</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
@@ -9565,27 +9530,27 @@
         <v>32</v>
       </c>
       <c r="F5" s="18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G5" s="14">
-        <v>40851</v>
+        <v>40831</v>
       </c>
       <c r="H5" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
-        <v>5</v>
+        <v>1.5</v>
       </c>
       <c r="J5" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>35</v>
+        <v>150</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -9597,10 +9562,10 @@
         <v>32</v>
       </c>
       <c r="F6" s="18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G6" s="14">
-        <v>40850</v>
+        <v>40839</v>
       </c>
       <c r="H6" s="3">
         <v>2</v>
@@ -9612,15 +9577,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>152</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>25</v>
@@ -9629,161 +9594,158 @@
         <v>32</v>
       </c>
       <c r="F7" s="18">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G7" s="14">
-        <v>40871</v>
+        <v>40839</v>
       </c>
       <c r="H7" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I7" s="3">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F8" s="18">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G8" s="14">
-        <v>40888</v>
+        <v>40837</v>
       </c>
       <c r="H8" s="3">
+        <v>4</v>
+      </c>
+      <c r="I8" s="3">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="24" t="s">
-        <v>14</v>
+      <c r="B9" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F9" s="18">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G9" s="14">
-        <v>40896</v>
+        <v>40841</v>
       </c>
       <c r="H9" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J9" s="4">
         <v>100</v>
       </c>
-      <c r="K9" s="17">
-        <v>40812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F10" s="18">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" s="14">
-        <v>40889</v>
+        <v>40842</v>
       </c>
       <c r="H10" s="3">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J10" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
+        <v>3</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="D11" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F11" s="18">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" s="14">
-        <v>40908</v>
+        <v>40851</v>
       </c>
       <c r="H11" s="3">
+        <v>7</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>4</v>
       </c>
-      <c r="I11" s="3">
-        <v>2</v>
-      </c>
-      <c r="J11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
       <c r="B12" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>25</v>
@@ -9792,30 +9754,30 @@
         <v>32</v>
       </c>
       <c r="F12" s="18">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G12" s="14">
-        <v>40916</v>
+        <v>40850</v>
       </c>
       <c r="H12" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>25</v>
@@ -9824,59 +9786,59 @@
         <v>32</v>
       </c>
       <c r="F13" s="18">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G13" s="14">
-        <v>40824</v>
+        <v>40850</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" s="3">
-        <v>2</v>
+        <v>14.5</v>
       </c>
       <c r="J13" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F14" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G14" s="14">
-        <v>40839</v>
+        <v>40852</v>
       </c>
       <c r="H14" s="3">
+        <v>3</v>
+      </c>
+      <c r="I14" s="3">
         <v>2</v>
       </c>
-      <c r="I14" s="3">
-        <v>3</v>
-      </c>
       <c r="J14" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -9888,30 +9850,30 @@
         <v>32</v>
       </c>
       <c r="F15" s="18">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G15" s="14">
-        <v>40831</v>
+        <v>40856</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I15" s="3">
-        <v>1.5</v>
+        <v>9.5</v>
       </c>
       <c r="J15" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>152</v>
+        <v>30</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>168</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>25</v>
@@ -9920,62 +9882,62 @@
         <v>32</v>
       </c>
       <c r="F16" s="18">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G16" s="14">
-        <v>40839</v>
+        <v>40856</v>
       </c>
       <c r="H16" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="I16" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="J16" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>153</v>
+        <v>38</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F17" s="18">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G17" s="14">
-        <v>40842</v>
+        <v>40871</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>1</v>
+        <v>5.5</v>
       </c>
       <c r="J17" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>25</v>
@@ -9984,10 +9946,10 @@
         <v>32</v>
       </c>
       <c r="F18" s="18">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G18" s="14">
-        <v>40837</v>
+        <v>40873</v>
       </c>
       <c r="H18" s="3">
         <v>4</v>
@@ -9999,12 +9961,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>155</v>
+        <v>40</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -10016,94 +9978,94 @@
         <v>32</v>
       </c>
       <c r="F19" s="18">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G19" s="14">
-        <v>40850</v>
+        <v>40908</v>
       </c>
       <c r="H19" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I19" s="3">
-        <v>14.5</v>
+        <v>2</v>
       </c>
       <c r="J19" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F20" s="18">
+        <v>11</v>
+      </c>
+      <c r="G20" s="14">
+        <v>40886</v>
+      </c>
+      <c r="H20" s="3">
+        <v>2</v>
+      </c>
+      <c r="I20" s="3">
+        <v>3.5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>6</v>
       </c>
-      <c r="G20" s="14">
-        <v>40852</v>
-      </c>
-      <c r="H20" s="3">
-        <v>3</v>
-      </c>
-      <c r="I20" s="3">
-        <v>2</v>
-      </c>
-      <c r="J20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F21" s="18">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G21" s="14">
-        <v>40856</v>
+        <v>40888</v>
       </c>
       <c r="H21" s="3">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="I21" s="3">
-        <v>9.5</v>
+        <v>2</v>
       </c>
       <c r="J21" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>25</v>
@@ -10112,30 +10074,30 @@
         <v>32</v>
       </c>
       <c r="F22" s="18">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G22" s="14">
-        <v>40873</v>
+        <v>40889</v>
       </c>
       <c r="H22" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I22" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J22" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>25</v>
@@ -10144,30 +10106,30 @@
         <v>32</v>
       </c>
       <c r="F23" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G23" s="14">
-        <v>40886</v>
+        <v>40893</v>
       </c>
       <c r="H23" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I23" s="3">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>25</v>
@@ -10179,27 +10141,27 @@
         <v>12</v>
       </c>
       <c r="G24" s="14">
-        <v>40893</v>
+        <v>40888</v>
       </c>
       <c r="H24" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I24" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>25</v>
@@ -10211,30 +10173,30 @@
         <v>12</v>
       </c>
       <c r="G25" s="14">
-        <v>40888</v>
+        <v>40893</v>
       </c>
       <c r="H25" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I25" s="3">
-        <v>3</v>
+        <v>6.5</v>
       </c>
       <c r="J25" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>163</v>
+        <v>25</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>170</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>32</v>
@@ -10243,51 +10205,54 @@
         <v>12</v>
       </c>
       <c r="G26" s="14">
-        <v>40893</v>
+        <v>40894</v>
       </c>
       <c r="H26" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
-        <v>6.5</v>
+        <v>2.5</v>
       </c>
       <c r="J26" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
+        <v>7</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>28</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F27" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="14">
-        <v>40894</v>
+        <v>40896</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I27" s="3">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J27" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K27" s="17">
+        <v>40812</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -10319,7 +10284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -10351,7 +10316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -10383,7 +10348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -10415,12 +10380,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
@@ -10432,27 +10397,27 @@
         <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="G32" s="14">
-        <v>40856</v>
+        <v>40898</v>
       </c>
       <c r="H32" s="3">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="I32" s="3">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="J32" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>169</v>
+        <v>37</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>20</v>
@@ -10464,126 +10429,166 @@
         <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G33" s="14">
-        <v>40898</v>
+        <v>40916</v>
       </c>
       <c r="H33" s="3">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="I33" s="3">
-        <v>31</v>
+        <v>5.5</v>
       </c>
       <c r="J33" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="28"/>
-      <c r="E34" s="28"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="28"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="28"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+    </row>
+    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E35" s="27"/>
+    </row>
+    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C36" s="21" t="s">
         <v>134</v>
       </c>
       <c r="D36" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36" s="22">
+        <v>3</v>
+      </c>
+      <c r="F36" s="22">
+        <v>4</v>
+      </c>
+      <c r="G36" s="22">
         <v>5</v>
       </c>
-      <c r="F36" s="22">
+      <c r="H36" s="22">
         <v>6</v>
       </c>
-      <c r="G36" s="22">
+      <c r="I36" s="22">
+        <v>7</v>
+      </c>
+      <c r="J36" s="22">
         <v>9</v>
       </c>
-      <c r="H36" s="22">
+      <c r="K36" s="22">
+        <v>10</v>
+      </c>
+      <c r="L36" s="22">
         <v>11</v>
       </c>
-      <c r="I36" s="22">
+      <c r="M36" s="22">
+        <v>12</v>
+      </c>
+      <c r="N36" s="22">
         <v>13</v>
       </c>
-      <c r="J36" s="22">
-        <v>14</v>
-      </c>
-      <c r="K36" s="22">
+      <c r="O36" s="22">
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C37" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="4">
+        <v>2</v>
+      </c>
+      <c r="E37" s="4">
+        <v>9</v>
+      </c>
+      <c r="F37" s="4">
         <v>8</v>
       </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>9</v>
-      </c>
       <c r="G37" s="4">
+        <v>2</v>
+      </c>
+      <c r="H37" s="4">
+        <v>22</v>
+      </c>
+      <c r="I37" s="4">
+        <v>22</v>
+      </c>
+      <c r="J37" s="4">
+        <v>10</v>
+      </c>
+      <c r="K37" s="4">
+        <v>4</v>
+      </c>
+      <c r="L37" s="20">
+        <v>2</v>
+      </c>
+      <c r="M37" s="20">
+        <f>SUM(H21:H26)</f>
+        <v>26</v>
+      </c>
+      <c r="N37" s="20">
+        <f>SUM(H27:H32)</f>
+        <v>47.5</v>
+      </c>
+      <c r="O37" s="31">
         <v>6</v>
       </c>
-      <c r="H37" s="4">
-        <v>7</v>
-      </c>
-      <c r="I37" s="4">
-        <v>12</v>
-      </c>
-      <c r="J37" s="4">
-        <v>4</v>
-      </c>
-      <c r="K37" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C38" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D38" s="4">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="E38" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F38" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G38" s="4">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="H38" s="4">
-        <v>7</v>
+        <v>24.5</v>
       </c>
       <c r="I38" s="4">
-        <v>11.5</v>
+        <v>22.5</v>
       </c>
       <c r="J38" s="4">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="K38" s="4">
+        <v>3</v>
+      </c>
+      <c r="L38" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="M38" s="20">
+        <f>SUM(I21:I26)</f>
+        <v>29</v>
+      </c>
+      <c r="N38" s="20">
+        <f>SUM(I27:I32)</f>
+        <v>40.5</v>
+      </c>
+      <c r="O38" s="31">
         <v>5.5</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J12"/>
-  <sortState ref="A3:K13">
+  <sortState ref="A3:K33">
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C34">

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1179" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="174">
   <si>
     <t>No.</t>
   </si>
@@ -550,6 +550,15 @@
   <si>
     <t>Make the interface for "Family Relationship
 Management"</t>
+  </si>
+  <si>
+    <t>Update Concept of Operation (mục 7 và quá trình diễn biến lương</t>
+  </si>
+  <si>
+    <t>Update Testcase (System test Specification)</t>
+  </si>
+  <si>
+    <t>Write Test Case (System test Specification)</t>
   </si>
 </sst>
 </file>
@@ -706,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -759,10 +768,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1568,11 +1583,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136170112"/>
-        <c:axId val="136606080"/>
+        <c:axId val="112405504"/>
+        <c:axId val="112415872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136170112"/>
+        <c:axId val="112405504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1582,7 +1597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136606080"/>
+        <c:crossAx val="112415872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1590,7 +1605,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136606080"/>
+        <c:axId val="112415872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,14 +1616,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136170112"/>
+        <c:crossAx val="112405504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1775,11 +1789,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136639616"/>
-        <c:axId val="136641152"/>
+        <c:axId val="147347328"/>
+        <c:axId val="147348864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136639616"/>
+        <c:axId val="147347328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1789,7 +1803,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136641152"/>
+        <c:crossAx val="147348864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1797,7 +1811,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136641152"/>
+        <c:axId val="147348864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1808,7 +1822,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136639616"/>
+        <c:crossAx val="147347328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2054,11 +2068,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136719744"/>
-        <c:axId val="136725632"/>
+        <c:axId val="147513728"/>
+        <c:axId val="147515264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136719744"/>
+        <c:axId val="147513728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,7 +2082,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136725632"/>
+        <c:crossAx val="147515264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2076,7 +2090,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136725632"/>
+        <c:axId val="147515264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2087,7 +2101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136719744"/>
+        <c:crossAx val="147513728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2296,11 +2310,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136910720"/>
-        <c:axId val="136912256"/>
+        <c:axId val="154304896"/>
+        <c:axId val="154306432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136910720"/>
+        <c:axId val="154304896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2310,7 +2324,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136912256"/>
+        <c:crossAx val="154306432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2318,7 +2332,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="136912256"/>
+        <c:axId val="154306432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2329,7 +2343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136910720"/>
+        <c:crossAx val="154304896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2598,11 +2612,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="136998912"/>
-        <c:axId val="137000448"/>
+        <c:axId val="154056960"/>
+        <c:axId val="154058752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="136998912"/>
+        <c:axId val="154056960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2612,7 +2626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137000448"/>
+        <c:crossAx val="154058752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2620,7 +2634,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137000448"/>
+        <c:axId val="154058752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2645,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="136998912"/>
+        <c:crossAx val="154056960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2677,7 +2691,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tung Nguyen'!$C$21</c:f>
+              <c:f>'Tung Nguyen'!$C$23</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2724,7 +2738,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tung Nguyen'!$D$21:$M$21</c:f>
+              <c:f>'Tung Nguyen'!$D$23:$M$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2768,7 +2782,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tung Nguyen'!$C$22</c:f>
+              <c:f>'Tung Nguyen'!$C$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2815,7 +2829,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tung Nguyen'!$D$22:$M$22</c:f>
+              <c:f>'Tung Nguyen'!$D$24:$M$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2864,11 +2878,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137040256"/>
-        <c:axId val="137041792"/>
+        <c:axId val="154070016"/>
+        <c:axId val="154116864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137040256"/>
+        <c:axId val="154070016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,7 +2892,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137041792"/>
+        <c:crossAx val="154116864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2886,7 +2900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137041792"/>
+        <c:axId val="154116864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2897,13 +2911,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137040256"/>
+        <c:crossAx val="154070016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3142,11 +3157,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137097984"/>
-        <c:axId val="137099520"/>
+        <c:axId val="154256896"/>
+        <c:axId val="154258432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137097984"/>
+        <c:axId val="154256896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3156,7 +3171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137099520"/>
+        <c:crossAx val="154258432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3164,7 +3179,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137099520"/>
+        <c:axId val="154258432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3175,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137097984"/>
+        <c:crossAx val="154256896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3383,7 +3398,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3752,18 +3767,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9399,7 +9414,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C7" workbookViewId="0">
       <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
@@ -10185,7 +10200,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -10217,7 +10232,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>7</v>
       </c>
@@ -10539,7 +10554,7 @@
         <f>SUM(H27:H32)</f>
         <v>47.5</v>
       </c>
-      <c r="O37" s="31">
+      <c r="O37" s="30">
         <v>6</v>
       </c>
     </row>
@@ -10582,7 +10597,7 @@
         <f>SUM(I27:I32)</f>
         <v>40.5</v>
       </c>
-      <c r="O38" s="31">
+      <c r="O38" s="30">
         <v>5.5</v>
       </c>
     </row>
@@ -13297,16 +13312,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M22"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
@@ -13633,12 +13649,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
+      <c r="B12" s="32" t="s">
+        <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -13649,17 +13665,13 @@
       <c r="E12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="18">
-        <v>6</v>
-      </c>
+      <c r="F12" s="18"/>
       <c r="G12" s="14">
-        <v>40847</v>
-      </c>
-      <c r="H12" s="3">
-        <v>3</v>
-      </c>
+        <v>40849</v>
+      </c>
+      <c r="H12" s="3"/>
       <c r="I12" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J12" s="4">
         <v>100</v>
@@ -13670,28 +13682,28 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>108</v>
+        <v>12</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F13" s="18">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="14">
-        <v>40855</v>
+        <v>40847</v>
       </c>
       <c r="H13" s="3">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J13" s="4">
         <v>100</v>
@@ -13702,10 +13714,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>30</v>
@@ -13714,16 +13726,16 @@
         <v>116</v>
       </c>
       <c r="F14" s="18">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="14">
-        <v>40864</v>
+        <v>40855</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I14" s="3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="J14" s="4">
         <v>100</v>
@@ -13734,28 +13746,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>116</v>
       </c>
       <c r="F15" s="18">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G15" s="14">
-        <v>40876</v>
+        <v>40864</v>
       </c>
       <c r="H15" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4">
         <v>100</v>
@@ -13766,13 +13778,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>116</v>
@@ -13781,13 +13793,13 @@
         <v>10</v>
       </c>
       <c r="G16" s="14">
-        <v>40879</v>
+        <v>40876</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I16" s="3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J16" s="4">
         <v>100</v>
@@ -13798,7 +13810,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -13810,16 +13822,16 @@
         <v>116</v>
       </c>
       <c r="F17" s="18">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G17" s="14">
-        <v>40894</v>
+        <v>40879</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I17" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J17" s="4">
         <v>100</v>
@@ -13830,10 +13842,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>30</v>
@@ -13842,125 +13854,185 @@
         <v>116</v>
       </c>
       <c r="F18" s="18">
+        <v>12</v>
+      </c>
+      <c r="G18" s="14">
+        <v>40894</v>
+      </c>
+      <c r="H18" s="3">
+        <v>2</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" s="18">
         <v>13</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <v>40899</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H19" s="3">
         <v>4</v>
       </c>
-      <c r="I18" s="3">
-        <v>3</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="I19" s="3">
+        <v>3</v>
+      </c>
+      <c r="J19" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>172</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="18"/>
+      <c r="G20" s="14">
+        <v>40914</v>
+      </c>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3">
+        <v>4</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C22" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="22">
+      <c r="D22" s="22">
         <v>2</v>
       </c>
-      <c r="E20" s="22">
-        <v>3</v>
-      </c>
-      <c r="F20" s="22">
+      <c r="E22" s="22">
+        <v>3</v>
+      </c>
+      <c r="F22" s="22">
         <v>4</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G22" s="22">
         <v>5</v>
       </c>
-      <c r="H20" s="22">
+      <c r="H22" s="22">
         <v>6</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I22" s="22">
         <v>7</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J22" s="22">
         <v>8</v>
       </c>
-      <c r="K20" s="22">
+      <c r="K22" s="22">
         <v>10</v>
       </c>
-      <c r="L20" s="22">
+      <c r="L22" s="22">
         <v>12</v>
       </c>
-      <c r="M20" s="22">
+      <c r="M22" s="22">
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C21" s="21" t="s">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C23" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D23" s="4">
         <f>SUM(H3:H6)</f>
         <v>11</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E23" s="4">
         <v>11</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F23" s="4">
         <v>11</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G23" s="4">
         <v>14</v>
       </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="H23" s="4">
+        <v>3</v>
+      </c>
+      <c r="I23" s="4">
         <v>10</v>
       </c>
-      <c r="J21" s="4">
-        <v>3</v>
-      </c>
-      <c r="K21" s="4">
+      <c r="J23" s="4">
+        <v>3</v>
+      </c>
+      <c r="K23" s="4">
         <v>14</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L23" s="4">
         <v>2</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M23" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D24" s="4">
         <f>SUM(I3:I6)</f>
         <v>6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E24" s="4">
         <v>10</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F24" s="4">
         <v>11</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G24" s="4">
         <v>14</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H24" s="4">
         <v>2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I24" s="4">
         <v>11</v>
       </c>
-      <c r="J22" s="4">
-        <v>3</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="J24" s="4">
+        <v>3</v>
+      </c>
+      <c r="K24" s="4">
         <v>13</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L24" s="4">
         <v>2</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M24" s="4">
         <v>3</v>
       </c>
     </row>
@@ -13969,7 +14041,7 @@
   <sortState ref="A3:J18">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C18">
+  <conditionalFormatting sqref="C2:C20">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -13983,7 +14055,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J18">
+  <conditionalFormatting sqref="J3:J20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13996,13 +14068,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D20">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,7 +715,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,15 +769,16 @@
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1583,11 +1584,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="112405504"/>
-        <c:axId val="112415872"/>
+        <c:axId val="131062400"/>
+        <c:axId val="131215744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="112405504"/>
+        <c:axId val="131062400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1597,7 +1598,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112415872"/>
+        <c:crossAx val="131215744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1605,7 +1606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="112415872"/>
+        <c:axId val="131215744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1616,7 +1617,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112405504"/>
+        <c:crossAx val="131062400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1789,11 +1790,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147347328"/>
-        <c:axId val="147348864"/>
+        <c:axId val="131536000"/>
+        <c:axId val="131537536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147347328"/>
+        <c:axId val="131536000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1803,7 +1804,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147348864"/>
+        <c:crossAx val="131537536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1811,7 +1812,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147348864"/>
+        <c:axId val="131537536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1822,7 +1823,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147347328"/>
+        <c:crossAx val="131536000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1881,50 +1882,41 @@
           <c:cat>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="11"/>
+              <c:ptCount val="8"/>
               <c:pt idx="0">
                 <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>2</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>5</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>8</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>9</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="9">
                 <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>19</c:v>
               </c:pt>
             </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Loc Phan'!$D$24:$N$24</c:f>
+              <c:f>'Loc Phan'!$D$24:$K$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>12</c:v>
@@ -1946,15 +1938,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1978,50 +1961,41 @@
           <c:cat>
             <c:numLit>
               <c:formatCode>General</c:formatCode>
-              <c:ptCount val="11"/>
+              <c:ptCount val="8"/>
               <c:pt idx="0">
                 <c:v>1</c:v>
               </c:pt>
               <c:pt idx="1">
-                <c:v>2</c:v>
+                <c:v>5</c:v>
               </c:pt>
               <c:pt idx="2">
-                <c:v>5</c:v>
+                <c:v>6</c:v>
               </c:pt>
               <c:pt idx="3">
-                <c:v>6</c:v>
+                <c:v>7</c:v>
               </c:pt>
               <c:pt idx="4">
-                <c:v>7</c:v>
+                <c:v>8</c:v>
               </c:pt>
               <c:pt idx="5">
-                <c:v>8</c:v>
+                <c:v>10</c:v>
               </c:pt>
               <c:pt idx="6">
-                <c:v>9</c:v>
+                <c:v>11</c:v>
               </c:pt>
               <c:pt idx="7">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="9">
                 <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>19</c:v>
               </c:pt>
             </c:numLit>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Loc Phan'!$D$25:$N$25</c:f>
+              <c:f>'Loc Phan'!$D$25:$K$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>13</c:v>
@@ -2043,15 +2017,6 @@
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2068,11 +2033,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="147513728"/>
-        <c:axId val="147515264"/>
+        <c:axId val="131612032"/>
+        <c:axId val="131617920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="147513728"/>
+        <c:axId val="131612032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147515264"/>
+        <c:crossAx val="131617920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2055,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="147515264"/>
+        <c:axId val="131617920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,13 +2066,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="147513728"/>
+        <c:crossAx val="131612032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2310,11 +2276,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154304896"/>
-        <c:axId val="154306432"/>
+        <c:axId val="131405696"/>
+        <c:axId val="131407232"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154304896"/>
+        <c:axId val="131405696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2324,7 +2290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154306432"/>
+        <c:crossAx val="131407232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2332,7 +2298,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154306432"/>
+        <c:axId val="131407232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154304896"/>
+        <c:crossAx val="131405696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2612,11 +2578,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154056960"/>
-        <c:axId val="154058752"/>
+        <c:axId val="131495808"/>
+        <c:axId val="131497344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154056960"/>
+        <c:axId val="131495808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2626,7 +2592,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154058752"/>
+        <c:crossAx val="131497344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2634,7 +2600,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154058752"/>
+        <c:axId val="131497344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2645,13 +2611,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154056960"/>
+        <c:crossAx val="131495808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2752,10 +2719,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
@@ -2767,10 +2734,10 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2843,10 +2810,10 @@
                   <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>11</c:v>
@@ -2858,10 +2825,10 @@
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2878,11 +2845,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154070016"/>
-        <c:axId val="154116864"/>
+        <c:axId val="131932544"/>
+        <c:axId val="131934080"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154070016"/>
+        <c:axId val="131932544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,7 +2859,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154116864"/>
+        <c:crossAx val="131934080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2900,7 +2867,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154116864"/>
+        <c:axId val="131934080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2911,7 +2878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154070016"/>
+        <c:crossAx val="131932544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3157,11 +3124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="154256896"/>
-        <c:axId val="154258432"/>
+        <c:axId val="131861120"/>
+        <c:axId val="131428736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="154256896"/>
+        <c:axId val="131861120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3171,7 +3138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154258432"/>
+        <c:crossAx val="131428736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3179,7 +3146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="154258432"/>
+        <c:axId val="131428736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3190,7 +3157,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="154256896"/>
+        <c:crossAx val="131861120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3285,16 +3252,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3746,8 +3713,8 @@
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3767,18 +3734,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3997,7 +3964,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G8-$K$3)/7)+1</f>
         <v>18</v>
       </c>
       <c r="G8" s="14">
@@ -9414,8 +9381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:O38"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="K47" sqref="K47"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10650,10 +10617,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N25"/>
+  <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10663,9 +10630,10 @@
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -10697,7 +10665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -10714,10 +10682,11 @@
         <v>103</v>
       </c>
       <c r="F3" s="18">
+        <f>INT((G3-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G3" s="14">
-        <v>40816</v>
+        <v>40819</v>
       </c>
       <c r="H3" s="3">
         <v>5</v>
@@ -10728,8 +10697,11 @@
       <c r="J3" s="4">
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="K3" s="34">
+        <v>40817</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -10746,10 +10718,11 @@
         <v>103</v>
       </c>
       <c r="F4" s="18">
+        <f>INT((G4-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G4" s="14">
-        <v>40816</v>
+        <v>40819</v>
       </c>
       <c r="H4" s="3">
         <v>5</v>
@@ -10761,7 +10734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -10778,7 +10751,8 @@
         <v>103</v>
       </c>
       <c r="F5" s="18">
-        <v>2</v>
+        <f>INT((G5-$K$3)/7)+1</f>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <v>40821</v>
@@ -10793,7 +10767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -10810,7 +10784,8 @@
         <v>103</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <f>INT((G6-$K$3)/7)+1</f>
+        <v>1</v>
       </c>
       <c r="G6" s="14">
         <v>40821</v>
@@ -10825,7 +10800,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -10842,7 +10817,8 @@
         <v>103</v>
       </c>
       <c r="F7" s="18">
-        <v>2</v>
+        <f>INT((G7-$K$3)/7)+1</f>
+        <v>1</v>
       </c>
       <c r="G7" s="14">
         <v>40822</v>
@@ -10857,7 +10833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -10874,7 +10850,8 @@
         <v>103</v>
       </c>
       <c r="F8" s="18">
-        <v>2</v>
+        <f>INT((G8-$K$3)/7)+1</f>
+        <v>1</v>
       </c>
       <c r="G8" s="14">
         <v>40823</v>
@@ -10889,7 +10866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -10906,6 +10883,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="18">
+        <f>INT((G9-$K$3)/7)+1</f>
         <v>5</v>
       </c>
       <c r="G9" s="14">
@@ -10921,7 +10899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -10938,7 +10916,8 @@
         <v>103</v>
       </c>
       <c r="F10" s="18">
-        <v>6</v>
+        <f>INT((G10-$K$3)/7)+1</f>
+        <v>5</v>
       </c>
       <c r="G10" s="14">
         <v>40847</v>
@@ -10953,7 +10932,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -10970,7 +10949,8 @@
         <v>103</v>
       </c>
       <c r="F11" s="18">
-        <v>6</v>
+        <f>INT((G11-$K$3)/7)+1</f>
+        <v>5</v>
       </c>
       <c r="G11" s="14">
         <v>40848</v>
@@ -10985,7 +10965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -11002,7 +10982,8 @@
         <v>103</v>
       </c>
       <c r="F12" s="18">
-        <v>6</v>
+        <f>INT((G12-$K$3)/7)+1</f>
+        <v>5</v>
       </c>
       <c r="G12" s="14">
         <v>40851</v>
@@ -11017,7 +10998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -11034,7 +11015,8 @@
         <v>103</v>
       </c>
       <c r="F13" s="18">
-        <v>7</v>
+        <f>INT((G13-$K$3)/7)+1</f>
+        <v>6</v>
       </c>
       <c r="G13" s="14">
         <v>40854</v>
@@ -11049,7 +11031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -11066,7 +11048,8 @@
         <v>103</v>
       </c>
       <c r="F14" s="18">
-        <v>7</v>
+        <f>INT((G14-$K$3)/7)+1</f>
+        <v>6</v>
       </c>
       <c r="G14" s="14">
         <v>40855</v>
@@ -11081,7 +11064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -11098,7 +11081,8 @@
         <v>103</v>
       </c>
       <c r="F15" s="18">
-        <v>8</v>
+        <f>INT((G15-$K$3)/7)+1</f>
+        <v>7</v>
       </c>
       <c r="G15" s="14">
         <v>40862</v>
@@ -11113,7 +11097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -11130,7 +11114,8 @@
         <v>103</v>
       </c>
       <c r="F16" s="18">
-        <v>9</v>
+        <f>INT((G16-$K$3)/7)+1</f>
+        <v>8</v>
       </c>
       <c r="G16" s="14">
         <v>40871</v>
@@ -11145,7 +11130,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -11162,7 +11147,8 @@
         <v>103</v>
       </c>
       <c r="F17" s="18">
-        <v>11</v>
+        <f>INT((G17-$K$3)/7)+1</f>
+        <v>10</v>
       </c>
       <c r="G17" s="14">
         <v>40882</v>
@@ -11177,7 +11163,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -11194,6 +11180,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="18">
+        <f>INT((G18-$K$3)/7)+1</f>
         <v>11</v>
       </c>
       <c r="G18" s="14">
@@ -11209,12 +11196,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -11226,27 +11213,28 @@
         <v>103</v>
       </c>
       <c r="F19" s="18">
-        <v>12</v>
+        <f>INT((G19-$K$3)/7)+1</f>
+        <v>11</v>
       </c>
       <c r="G19" s="14">
-        <v>40895</v>
+        <v>40892</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J19" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -11258,27 +11246,28 @@
         <v>103</v>
       </c>
       <c r="F20" s="18">
-        <v>19</v>
+        <f>INT((G20-$K$3)/7)+1</f>
+        <v>11</v>
       </c>
       <c r="G20" s="14">
-        <v>40941</v>
+        <v>40893</v>
       </c>
       <c r="H20" s="3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J20" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -11290,13 +11279,14 @@
         <v>103</v>
       </c>
       <c r="F21" s="18">
-        <v>10</v>
+        <f>INT((G21-$K$3)/7)+1</f>
+        <v>12</v>
       </c>
       <c r="G21" s="14">
-        <v>40879</v>
+        <v>40895</v>
       </c>
       <c r="H21" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
         <v>3</v>
@@ -11305,7 +11295,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
         <v>134</v>
       </c>
@@ -11313,42 +11303,34 @@
         <v>1</v>
       </c>
       <c r="E23" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F23" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G23" s="22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" s="22">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I23" s="22">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J23" s="22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K23" s="22">
-        <v>10</v>
-      </c>
-      <c r="L23" s="22">
-        <v>11</v>
-      </c>
-      <c r="M23" s="22">
         <v>12</v>
       </c>
-      <c r="N23" s="22">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="4">
-        <v>10</v>
+        <f>SUM(H3:H8)</f>
+        <v>22</v>
       </c>
       <c r="E24" s="4">
         <f>SUM(H5:H8)</f>
@@ -11372,22 +11354,14 @@
       <c r="K24" s="4">
         <v>2</v>
       </c>
-      <c r="L24" s="20">
-        <v>7</v>
-      </c>
-      <c r="M24" s="20">
-        <v>3</v>
-      </c>
-      <c r="N24" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
         <v>5</v>
       </c>
       <c r="D25" s="4">
-        <v>7</v>
+        <f>SUM(I3:I8)</f>
+        <v>20</v>
       </c>
       <c r="E25" s="4">
         <f>SUM(I5:I8)</f>
@@ -11411,20 +11385,11 @@
       <c r="K25" s="4">
         <v>3</v>
       </c>
-      <c r="L25" s="20">
-        <v>9</v>
-      </c>
-      <c r="M25" s="20">
-        <v>3</v>
-      </c>
-      <c r="N25" s="20">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J2"/>
-  <sortState ref="A3:J21">
-    <sortCondition ref="F2"/>
+  <sortState ref="A3:K21">
+    <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C21">
     <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
@@ -13314,8 +13279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13327,6 +13292,7 @@
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -13378,7 +13344,8 @@
         <v>116</v>
       </c>
       <c r="F3" s="18">
-        <v>2</v>
+        <f t="shared" ref="F3:F19" si="0">INT((G3-$K$20)/7)+1</f>
+        <v>1</v>
       </c>
       <c r="G3" s="14">
         <v>40819</v>
@@ -13410,7 +13377,8 @@
         <v>116</v>
       </c>
       <c r="F4" s="18">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G4" s="14">
         <v>40820</v>
@@ -13442,7 +13410,8 @@
         <v>116</v>
       </c>
       <c r="F5" s="18">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G5" s="14">
         <v>40822</v>
@@ -13474,7 +13443,8 @@
         <v>116</v>
       </c>
       <c r="F6" s="18">
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="G6" s="14">
         <v>40823</v>
@@ -13506,7 +13476,8 @@
         <v>116</v>
       </c>
       <c r="F7" s="18">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G7" s="14">
         <v>40830</v>
@@ -13538,7 +13509,8 @@
         <v>116</v>
       </c>
       <c r="F8" s="18">
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
       <c r="G8" s="14">
         <v>40827</v>
@@ -13570,7 +13542,8 @@
         <v>116</v>
       </c>
       <c r="F9" s="18">
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="G9" s="14">
         <v>40836</v>
@@ -13602,7 +13575,8 @@
         <v>116</v>
       </c>
       <c r="F10" s="18">
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="G10" s="14">
         <v>40842</v>
@@ -13634,6 +13608,7 @@
         <v>116</v>
       </c>
       <c r="F11" s="18">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G11" s="14">
@@ -13653,7 +13628,7 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="31" t="s">
         <v>171</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -13665,11 +13640,16 @@
       <c r="E12" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F12" s="18"/>
+      <c r="F12" s="18">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="G12" s="14">
         <v>40849</v>
       </c>
-      <c r="H12" s="3"/>
+      <c r="H12" s="3">
+        <v>5</v>
+      </c>
       <c r="I12" s="3">
         <v>5</v>
       </c>
@@ -13694,7 +13674,8 @@
         <v>116</v>
       </c>
       <c r="F13" s="18">
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="G13" s="14">
         <v>40847</v>
@@ -13726,7 +13707,8 @@
         <v>116</v>
       </c>
       <c r="F14" s="18">
-        <v>7</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="G14" s="14">
         <v>40855</v>
@@ -13758,7 +13740,8 @@
         <v>116</v>
       </c>
       <c r="F15" s="18">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="G15" s="14">
         <v>40864</v>
@@ -13790,7 +13773,8 @@
         <v>116</v>
       </c>
       <c r="F16" s="18">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G16" s="14">
         <v>40876</v>
@@ -13822,7 +13806,8 @@
         <v>116</v>
       </c>
       <c r="F17" s="18">
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="G17" s="14">
         <v>40879</v>
@@ -13854,6 +13839,7 @@
         <v>116</v>
       </c>
       <c r="F18" s="18">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G18" s="14">
@@ -13886,7 +13872,8 @@
         <v>116</v>
       </c>
       <c r="F19" s="18">
-        <v>13</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="G19" s="14">
         <v>40899</v>
@@ -13905,7 +13892,7 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="32" t="s">
         <v>172</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -13917,16 +13904,24 @@
       <c r="E20" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="18"/>
+      <c r="F20" s="18">
+        <f>INT((G20-$K$20)/7)+1</f>
+        <v>14</v>
+      </c>
       <c r="G20" s="14">
         <v>40914</v>
       </c>
-      <c r="H20" s="3"/>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
       <c r="I20" s="3">
         <v>4</v>
       </c>
       <c r="J20" s="4">
         <v>100</v>
+      </c>
+      <c r="K20" s="34">
+        <v>40817</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -13934,34 +13929,34 @@
         <v>134</v>
       </c>
       <c r="D22" s="22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="22">
         <v>2</v>
       </c>
-      <c r="E22" s="22">
-        <v>3</v>
-      </c>
       <c r="F22" s="22">
+        <v>3</v>
+      </c>
+      <c r="G22" s="22">
         <v>4</v>
       </c>
-      <c r="G22" s="22">
+      <c r="H22" s="22">
         <v>5</v>
       </c>
-      <c r="H22" s="22">
+      <c r="I22" s="22">
         <v>6</v>
       </c>
-      <c r="I22" s="22">
+      <c r="J22" s="22">
         <v>7</v>
       </c>
-      <c r="J22" s="22">
-        <v>8</v>
-      </c>
       <c r="K22" s="22">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L22" s="22">
         <v>12</v>
       </c>
       <c r="M22" s="22">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -13979,10 +13974,10 @@
         <v>11</v>
       </c>
       <c r="G23" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H23" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I23" s="4">
         <v>10</v>
@@ -13994,10 +13989,10 @@
         <v>14</v>
       </c>
       <c r="L23" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="M23" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -14015,10 +14010,10 @@
         <v>11</v>
       </c>
       <c r="G24" s="4">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="H24" s="4">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="I24" s="4">
         <v>11</v>
@@ -14030,10 +14025,10 @@
         <v>13</v>
       </c>
       <c r="L24" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M24" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="175">
   <si>
     <t>No.</t>
   </si>
@@ -559,6 +559,9 @@
   </si>
   <si>
     <t>Write Test Case (System test Specification)</t>
+  </si>
+  <si>
+    <t>Draw current system overview</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,11 +1587,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131062400"/>
-        <c:axId val="131215744"/>
+        <c:axId val="42041344"/>
+        <c:axId val="42042880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131062400"/>
+        <c:axId val="42041344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1598,7 +1601,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131215744"/>
+        <c:crossAx val="42042880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1606,7 +1609,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131215744"/>
+        <c:axId val="42042880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1617,7 +1620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131062400"/>
+        <c:crossAx val="42041344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1790,11 +1793,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131536000"/>
-        <c:axId val="131537536"/>
+        <c:axId val="54922240"/>
+        <c:axId val="64427520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131536000"/>
+        <c:axId val="54922240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1804,7 +1807,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131537536"/>
+        <c:crossAx val="64427520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1812,7 +1815,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131537536"/>
+        <c:axId val="64427520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,14 +1826,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131536000"/>
+        <c:crossAx val="54922240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2033,11 +2035,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131612032"/>
-        <c:axId val="131617920"/>
+        <c:axId val="89829376"/>
+        <c:axId val="89832448"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131612032"/>
+        <c:axId val="89829376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2047,7 +2049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131617920"/>
+        <c:crossAx val="89832448"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2055,7 +2057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131617920"/>
+        <c:axId val="89832448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2066,7 +2068,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131612032"/>
+        <c:crossAx val="89829376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2276,11 +2278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131405696"/>
-        <c:axId val="131407232"/>
+        <c:axId val="128745472"/>
+        <c:axId val="128747008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131405696"/>
+        <c:axId val="128745472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2290,7 +2292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131407232"/>
+        <c:crossAx val="128747008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2298,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131407232"/>
+        <c:axId val="128747008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2309,7 +2311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131405696"/>
+        <c:crossAx val="128745472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2578,11 +2580,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131495808"/>
-        <c:axId val="131497344"/>
+        <c:axId val="128806272"/>
+        <c:axId val="128808064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131495808"/>
+        <c:axId val="128806272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2592,7 +2594,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131497344"/>
+        <c:crossAx val="128808064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2600,7 +2602,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131497344"/>
+        <c:axId val="128808064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2611,14 +2613,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131495808"/>
+        <c:crossAx val="128806272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2845,11 +2846,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131932544"/>
-        <c:axId val="131934080"/>
+        <c:axId val="128481536"/>
+        <c:axId val="128380928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131932544"/>
+        <c:axId val="128481536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2859,7 +2860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131934080"/>
+        <c:crossAx val="128380928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2867,7 +2868,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131934080"/>
+        <c:axId val="128380928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2878,14 +2879,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131932544"/>
+        <c:crossAx val="128481536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2986,7 +2986,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>9</c:v>
@@ -3010,7 +3010,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3077,7 +3077,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>11.5</c:v>
@@ -3107,7 +3107,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>9</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,11 +3124,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="131861120"/>
-        <c:axId val="131428736"/>
+        <c:axId val="128834176"/>
+        <c:axId val="128602496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="131861120"/>
+        <c:axId val="128834176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,7 +3138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131428736"/>
+        <c:crossAx val="128602496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3146,7 +3146,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="131428736"/>
+        <c:axId val="128602496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,13 +3157,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="131861120"/>
+        <c:crossAx val="128834176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3710,11 +3711,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K180"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A84" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3734,18 +3736,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3779,7 +3781,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3815,7 +3817,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3848,7 +3850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3881,7 +3883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3914,7 +3916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3947,7 +3949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3980,7 +3982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4046,7 +4048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4079,7 +4081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4112,7 +4114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4145,7 +4147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4178,7 +4180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4211,7 +4213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4607,7 +4609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4640,7 +4642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4673,7 +4675,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4706,7 +4708,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4739,7 +4741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4772,7 +4774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4805,7 +4807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4838,7 +4840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4871,7 +4873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4904,7 +4906,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4970,7 +4972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5003,7 +5005,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5036,7 +5038,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5069,7 +5071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5102,7 +5104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5135,7 +5137,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5168,7 +5170,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5914,7 +5916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -5947,7 +5949,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -5980,7 +5982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6013,7 +6015,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -6046,7 +6048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6079,7 +6081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6112,7 +6114,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6145,7 +6147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6178,7 +6180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6244,7 +6246,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6277,7 +6279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -6310,7 +6312,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -6343,7 +6345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -6376,7 +6378,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -6409,7 +6411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -6442,7 +6444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -6475,7 +6477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -6508,7 +6510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -6541,7 +6543,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -6572,7 +6574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -6634,7 +6636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -6665,7 +6667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -6696,7 +6698,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -6727,7 +6729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -6758,7 +6760,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -6789,7 +6791,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -6820,7 +6822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -6851,7 +6853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -6882,7 +6884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -6913,7 +6915,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -6944,7 +6946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -6975,7 +6977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7006,7 +7008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7037,7 +7039,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7070,7 +7072,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7103,7 +7105,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -7136,7 +7138,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -7169,7 +7171,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -7202,7 +7204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7235,7 +7237,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7268,7 +7270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7301,7 +7303,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7367,7 +7369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7400,7 +7402,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7433,7 +7435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7466,7 +7468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>118</v>
       </c>
@@ -7532,7 +7534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -7565,7 +7567,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -7598,7 +7600,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -7631,7 +7633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -7664,7 +7666,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>124</v>
       </c>
@@ -7728,7 +7730,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -7761,7 +7763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -8551,7 +8553,14 @@
       <c r="J180" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J180"/>
+  <autoFilter ref="A2:J180">
+    <filterColumn colId="4">
+      <filters blank="1">
+        <filter val="Dang Nguyen"/>
+        <filter val="Tuong Nguyen"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -10619,7 +10628,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -10682,7 +10691,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="18">
-        <f>INT((G3-$K$3)/7)+1</f>
+        <f t="shared" ref="F3:F21" si="0">INT((G3-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G3" s="14">
@@ -10697,7 +10706,7 @@
       <c r="J3" s="4">
         <v>100</v>
       </c>
-      <c r="K3" s="34">
+      <c r="K3" s="33">
         <v>40817</v>
       </c>
     </row>
@@ -10718,7 +10727,7 @@
         <v>103</v>
       </c>
       <c r="F4" s="18">
-        <f>INT((G4-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G4" s="14">
@@ -10751,7 +10760,7 @@
         <v>103</v>
       </c>
       <c r="F5" s="18">
-        <f>INT((G5-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G5" s="14">
@@ -10784,7 +10793,7 @@
         <v>103</v>
       </c>
       <c r="F6" s="18">
-        <f>INT((G6-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G6" s="14">
@@ -10817,7 +10826,7 @@
         <v>103</v>
       </c>
       <c r="F7" s="18">
-        <f>INT((G7-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G7" s="14">
@@ -10850,7 +10859,7 @@
         <v>103</v>
       </c>
       <c r="F8" s="18">
-        <f>INT((G8-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="G8" s="14">
@@ -10883,7 +10892,7 @@
         <v>103</v>
       </c>
       <c r="F9" s="18">
-        <f>INT((G9-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G9" s="14">
@@ -10916,7 +10925,7 @@
         <v>103</v>
       </c>
       <c r="F10" s="18">
-        <f>INT((G10-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G10" s="14">
@@ -10949,7 +10958,7 @@
         <v>103</v>
       </c>
       <c r="F11" s="18">
-        <f>INT((G11-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G11" s="14">
@@ -10982,7 +10991,7 @@
         <v>103</v>
       </c>
       <c r="F12" s="18">
-        <f>INT((G12-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G12" s="14">
@@ -11015,7 +11024,7 @@
         <v>103</v>
       </c>
       <c r="F13" s="18">
-        <f>INT((G13-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G13" s="14">
@@ -11048,7 +11057,7 @@
         <v>103</v>
       </c>
       <c r="F14" s="18">
-        <f>INT((G14-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G14" s="14">
@@ -11081,7 +11090,7 @@
         <v>103</v>
       </c>
       <c r="F15" s="18">
-        <f>INT((G15-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="G15" s="14">
@@ -11114,7 +11123,7 @@
         <v>103</v>
       </c>
       <c r="F16" s="18">
-        <f>INT((G16-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G16" s="14">
@@ -11147,7 +11156,7 @@
         <v>103</v>
       </c>
       <c r="F17" s="18">
-        <f>INT((G17-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="G17" s="14">
@@ -11180,7 +11189,7 @@
         <v>103</v>
       </c>
       <c r="F18" s="18">
-        <f>INT((G18-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G18" s="14">
@@ -11213,7 +11222,7 @@
         <v>103</v>
       </c>
       <c r="F19" s="18">
-        <f>INT((G19-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G19" s="14">
@@ -11246,7 +11255,7 @@
         <v>103</v>
       </c>
       <c r="F20" s="18">
-        <f>INT((G20-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="G20" s="14">
@@ -11279,7 +11288,7 @@
         <v>103</v>
       </c>
       <c r="F21" s="18">
-        <f>INT((G21-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G21" s="14">
@@ -13920,7 +13929,7 @@
       <c r="J20" s="4">
         <v>100</v>
       </c>
-      <c r="K20" s="34">
+      <c r="K20" s="33">
         <v>40817</v>
       </c>
     </row>
@@ -14082,8 +14091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14156,7 +14165,7 @@
         <v>2</v>
       </c>
       <c r="I3" s="3">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="4">
         <v>100</v>
@@ -14188,7 +14197,7 @@
         <v>0.5</v>
       </c>
       <c r="I4" s="3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J4" s="4">
         <v>100</v>
@@ -14262,7 +14271,7 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="12" t="s">
         <v>65</v>
       </c>
       <c r="C7" s="9" t="s">
@@ -14295,7 +14304,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>69</v>
+        <v>174</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>20</v>
@@ -14313,7 +14322,7 @@
         <v>40839</v>
       </c>
       <c r="H8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I8" s="3">
         <v>7</v>
@@ -14854,16 +14863,16 @@
         <v>17</v>
       </c>
       <c r="G25" s="14">
-        <v>40924</v>
+        <v>40954</v>
       </c>
       <c r="H25" s="3">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="I25" s="3">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="J25" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14915,7 +14924,7 @@
         <v>10</v>
       </c>
       <c r="F28" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G28" s="3">
         <v>9</v>
@@ -14940,7 +14949,7 @@
         <v>1</v>
       </c>
       <c r="N28" s="25">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
@@ -14948,7 +14957,7 @@
         <v>5</v>
       </c>
       <c r="D29" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>11.5</v>
@@ -14979,7 +14988,7 @@
         <v>1</v>
       </c>
       <c r="N29" s="25">
-        <v>9</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18195" windowHeight="8205" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="360" windowWidth="18192" windowHeight="8208"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="208">
   <si>
     <t>No.</t>
   </si>
@@ -562,6 +562,105 @@
   </si>
   <si>
     <t>Draw current system overview</t>
+  </si>
+  <si>
+    <t>Capture assuptions based on provided document</t>
+  </si>
+  <si>
+    <t>Nguyen Dinh</t>
+  </si>
+  <si>
+    <t>Research and do ConOps document</t>
+  </si>
+  <si>
+    <t>Create HRM requirement process</t>
+  </si>
+  <si>
+    <t>Create and update requirement process</t>
+  </si>
+  <si>
+    <t>Re-construct user's requirement and analysis map</t>
+  </si>
+  <si>
+    <t>Review Concept and translate ConsOpt into Vietnamese for presenting to customer</t>
+  </si>
+  <si>
+    <t>Update section five</t>
+  </si>
+  <si>
+    <t>Update section seven</t>
+  </si>
+  <si>
+    <t>Review and fix some bugs on ConsOpt, update section 1 and add description for all sections</t>
+  </si>
+  <si>
+    <t>Research and deploy SVN using google code for team</t>
+  </si>
+  <si>
+    <t>Review ConsOpt content, and fix some bugs</t>
+  </si>
+  <si>
+    <t>Update English Word for translating vietnamese business term into English</t>
+  </si>
+  <si>
+    <t>Create initial version for list of functional requirements, business rules, system features</t>
+  </si>
+  <si>
+    <t>Review dataflow diagram</t>
+  </si>
+  <si>
+    <t>Review UC diagram, list of functional requirements, system feature, business rules</t>
+  </si>
+  <si>
+    <t>Fix version for ConsOpt due to Configuration Management Plan</t>
+  </si>
+  <si>
+    <t>Develop UC diagram</t>
+  </si>
+  <si>
+    <t>Review list of functional requirements</t>
+  </si>
+  <si>
+    <t>Create UC description template, write description for UC description</t>
+  </si>
+  <si>
+    <t>Write UC description for UC03.2.2.7 to UC03.2.2.11</t>
+  </si>
+  <si>
+    <t>Update UC description for UC03.2.2.7 to UC03.2.2.11</t>
+  </si>
+  <si>
+    <t>Research about C# and Silverlight</t>
+  </si>
+  <si>
+    <t>Update section 1 and fix some bugs on entire document</t>
+  </si>
+  <si>
+    <t>Update section 1 and 2.1, part of 2.2</t>
+  </si>
+  <si>
+    <t>Update section 2</t>
+  </si>
+  <si>
+    <t>Review and fix some bugs in system feature sheet</t>
+  </si>
+  <si>
+    <t>Review 2.3, review and update 2.4, 2.5, 2.6</t>
+  </si>
+  <si>
+    <t>Update 2.7</t>
+  </si>
+  <si>
+    <t>Gather and translate content table of ConsOpt to English</t>
+  </si>
+  <si>
+    <t>Add reflection paper: First version, plus introduction, architect, project management</t>
+  </si>
+  <si>
+    <t>Review and translate in to English</t>
+  </si>
+  <si>
+    <t>Review and update requirement process: process description</t>
   </si>
 </sst>
 </file>
@@ -788,7 +887,44 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1587,11 +1723,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42041344"/>
-        <c:axId val="42042880"/>
+        <c:axId val="121425280"/>
+        <c:axId val="121525376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42041344"/>
+        <c:axId val="121425280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1601,7 +1737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42042880"/>
+        <c:crossAx val="121525376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1609,7 +1745,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42042880"/>
+        <c:axId val="121525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1620,7 +1756,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42041344"/>
+        <c:crossAx val="121425280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1793,11 +1929,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="54922240"/>
-        <c:axId val="64427520"/>
+        <c:axId val="121907072"/>
+        <c:axId val="121908608"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="54922240"/>
+        <c:axId val="121907072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1807,7 +1943,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="64427520"/>
+        <c:crossAx val="121908608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1815,7 +1951,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64427520"/>
+        <c:axId val="121908608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,7 +1962,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="54922240"/>
+        <c:crossAx val="121907072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2035,11 +2171,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="89829376"/>
-        <c:axId val="89832448"/>
+        <c:axId val="121987456"/>
+        <c:axId val="121988992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="89829376"/>
+        <c:axId val="121987456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89832448"/>
+        <c:crossAx val="121988992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2057,7 +2193,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89832448"/>
+        <c:axId val="121988992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2068,14 +2204,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89829376"/>
+        <c:crossAx val="121987456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2278,11 +2413,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128745472"/>
-        <c:axId val="128747008"/>
+        <c:axId val="122014336"/>
+        <c:axId val="122184064"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128745472"/>
+        <c:axId val="122014336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2292,7 +2427,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128747008"/>
+        <c:crossAx val="122184064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2300,7 +2435,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128747008"/>
+        <c:axId val="122184064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,7 +2446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128745472"/>
+        <c:crossAx val="122014336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2580,11 +2715,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128806272"/>
-        <c:axId val="128808064"/>
+        <c:axId val="122267904"/>
+        <c:axId val="122269696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128806272"/>
+        <c:axId val="122267904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2594,7 +2729,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128808064"/>
+        <c:crossAx val="122269696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2602,7 +2737,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128808064"/>
+        <c:axId val="122269696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2613,7 +2748,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128806272"/>
+        <c:crossAx val="122267904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2846,11 +2981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128481536"/>
-        <c:axId val="128380928"/>
+        <c:axId val="122303616"/>
+        <c:axId val="122305152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128481536"/>
+        <c:axId val="122303616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2860,7 +2995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128380928"/>
+        <c:crossAx val="122305152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2868,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128380928"/>
+        <c:axId val="122305152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2879,7 +3014,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128481536"/>
+        <c:crossAx val="122303616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3124,11 +3259,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="128834176"/>
-        <c:axId val="128602496"/>
+        <c:axId val="92669824"/>
+        <c:axId val="92671360"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="128834176"/>
+        <c:axId val="92669824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3138,7 +3273,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128602496"/>
+        <c:crossAx val="92671360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3146,7 +3281,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128602496"/>
+        <c:axId val="92671360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3157,7 +3292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="128834176"/>
+        <c:crossAx val="92669824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3714,28 +3849,28 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
@@ -3749,7 +3884,7 @@
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3781,7 +3916,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3817,7 +3952,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3850,7 +3985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -3883,7 +4018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -3916,7 +4051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -3949,7 +4084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -3982,7 +4117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4015,7 +4150,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4048,7 +4183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4081,7 +4216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4114,7 +4249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4147,7 +4282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4180,7 +4315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4213,7 +4348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4246,7 +4381,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4279,7 +4414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4312,7 +4447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4345,7 +4480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4378,7 +4513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4411,7 +4546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4444,7 +4579,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4477,7 +4612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4510,7 +4645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4543,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4576,7 +4711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4609,7 +4744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4642,7 +4777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4675,7 +4810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4708,7 +4843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4741,7 +4876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4774,7 +4909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4807,7 +4942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4840,7 +4975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -4873,7 +5008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -4906,7 +5041,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -4939,7 +5074,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -4972,7 +5107,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5005,7 +5140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5038,7 +5173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5071,7 +5206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5104,7 +5239,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5137,7 +5272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5170,7 +5305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5203,7 +5338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5234,7 +5369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5265,7 +5400,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5296,7 +5431,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -5327,7 +5462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -5358,7 +5493,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -5389,7 +5524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -5420,7 +5555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -5451,7 +5586,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -5482,7 +5617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -5513,7 +5648,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -5544,7 +5679,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -5575,7 +5710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -5606,7 +5741,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -5637,7 +5772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -5668,7 +5803,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -5699,7 +5834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -5730,7 +5865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -5761,7 +5896,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -5792,7 +5927,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -5823,7 +5958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -5854,7 +5989,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -5885,7 +6020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -5916,7 +6051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -5949,7 +6084,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -5982,7 +6117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6048,7 +6183,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6081,7 +6216,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6114,7 +6249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6147,7 +6282,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6180,7 +6315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6213,7 +6348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6246,7 +6381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6279,7 +6414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -6312,7 +6447,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -6345,7 +6480,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -6378,7 +6513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -6411,7 +6546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -6444,7 +6579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -6477,7 +6612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -6510,7 +6645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -6543,7 +6678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -6574,7 +6709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -6605,7 +6740,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -6636,7 +6771,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -6667,7 +6802,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -6698,7 +6833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -6729,7 +6864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -6760,7 +6895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -6791,7 +6926,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -6822,7 +6957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -6853,7 +6988,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -6884,7 +7019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -6915,7 +7050,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -6946,7 +7081,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -6977,7 +7112,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7008,7 +7143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7039,7 +7174,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7072,7 +7207,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7105,7 +7240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -7138,7 +7273,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -7171,7 +7306,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -7204,7 +7339,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7237,7 +7372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7270,7 +7405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7303,7 +7438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7336,7 +7471,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7369,7 +7504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7402,7 +7537,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7435,7 +7570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7468,7 +7603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7534,7 +7669,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -7567,7 +7702,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -7600,7 +7735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -7633,7 +7768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -7666,7 +7801,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -7730,7 +7865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -7763,7 +7898,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -7796,497 +7931,671 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>127</v>
       </c>
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
-      <c r="D127" s="4"/>
-      <c r="E127" s="4"/>
-      <c r="F127" s="4"/>
-      <c r="G127" s="14"/>
+      <c r="B127" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D127" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F127" s="4">
+        <v>2</v>
+      </c>
+      <c r="G127" s="14">
+        <v>40819</v>
+      </c>
       <c r="H127" s="4"/>
-      <c r="I127" s="4"/>
-      <c r="J127" s="4"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I127" s="4">
+        <v>4</v>
+      </c>
+      <c r="J127" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
-      <c r="D128" s="4"/>
-      <c r="E128" s="4"/>
-      <c r="F128" s="4"/>
-      <c r="G128" s="14"/>
+      <c r="B128" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E128" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F128" s="4">
+        <v>2</v>
+      </c>
+      <c r="G128" s="14">
+        <v>40821</v>
+      </c>
       <c r="H128" s="4"/>
-      <c r="I128" s="4"/>
-      <c r="J128" s="4"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I128" s="4">
+        <v>3</v>
+      </c>
+      <c r="J128" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
-      <c r="D129" s="4"/>
-      <c r="E129" s="4"/>
-      <c r="F129" s="4"/>
-      <c r="G129" s="14"/>
+      <c r="B129" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E129" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="F129" s="4">
+        <v>2</v>
+      </c>
+      <c r="G129" s="14">
+        <v>40822</v>
+      </c>
       <c r="H129" s="4"/>
-      <c r="I129" s="4"/>
-      <c r="J129" s="4"/>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I129" s="4">
+        <v>3</v>
+      </c>
+      <c r="J129" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
-      <c r="B130" s="4"/>
+      <c r="B130" s="4" t="s">
+        <v>178</v>
+      </c>
       <c r="C130" s="4"/>
       <c r="D130" s="4"/>
-      <c r="E130" s="4"/>
+      <c r="E130" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F130" s="4"/>
       <c r="G130" s="14"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
-      <c r="B131" s="4"/>
+      <c r="B131" s="4" t="s">
+        <v>179</v>
+      </c>
       <c r="C131" s="4"/>
       <c r="D131" s="4"/>
-      <c r="E131" s="4"/>
+      <c r="E131" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F131" s="4"/>
       <c r="G131" s="14"/>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
       <c r="J131" s="4"/>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
-      <c r="B132" s="4"/>
+      <c r="B132" s="4" t="s">
+        <v>180</v>
+      </c>
       <c r="C132" s="4"/>
       <c r="D132" s="4"/>
-      <c r="E132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F132" s="4"/>
       <c r="G132" s="14"/>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>133</v>
       </c>
-      <c r="B133" s="4"/>
+      <c r="B133" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="C133" s="4"/>
       <c r="D133" s="4"/>
-      <c r="E133" s="4"/>
+      <c r="E133" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F133" s="4"/>
       <c r="G133" s="14"/>
       <c r="H133" s="4"/>
       <c r="I133" s="4"/>
       <c r="J133" s="4"/>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>134</v>
       </c>
-      <c r="B134" s="4"/>
+      <c r="B134" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="C134" s="4"/>
       <c r="D134" s="4"/>
-      <c r="E134" s="4"/>
+      <c r="E134" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F134" s="4"/>
       <c r="G134" s="14"/>
       <c r="H134" s="4"/>
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>135</v>
       </c>
-      <c r="B135" s="4"/>
+      <c r="B135" s="4" t="s">
+        <v>183</v>
+      </c>
       <c r="C135" s="4"/>
       <c r="D135" s="4"/>
-      <c r="E135" s="4"/>
+      <c r="E135" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F135" s="4"/>
       <c r="G135" s="14"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>136</v>
       </c>
-      <c r="B136" s="4"/>
+      <c r="B136" s="4" t="s">
+        <v>184</v>
+      </c>
       <c r="C136" s="4"/>
       <c r="D136" s="4"/>
-      <c r="E136" s="4"/>
+      <c r="E136" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F136" s="4"/>
       <c r="G136" s="14"/>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>137</v>
       </c>
-      <c r="B137" s="4"/>
+      <c r="B137" s="4" t="s">
+        <v>185</v>
+      </c>
       <c r="C137" s="4"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="4"/>
+      <c r="E137" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F137" s="4"/>
       <c r="G137" s="14"/>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>138</v>
       </c>
-      <c r="B138" s="4"/>
+      <c r="B138" s="4" t="s">
+        <v>186</v>
+      </c>
       <c r="C138" s="4"/>
       <c r="D138" s="4"/>
-      <c r="E138" s="4"/>
+      <c r="E138" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F138" s="4"/>
       <c r="G138" s="14"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>139</v>
       </c>
-      <c r="B139" s="4"/>
+      <c r="B139" s="4" t="s">
+        <v>187</v>
+      </c>
       <c r="C139" s="4"/>
       <c r="D139" s="4"/>
-      <c r="E139" s="4"/>
+      <c r="E139" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F139" s="4"/>
       <c r="G139" s="14"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>140</v>
       </c>
-      <c r="B140" s="4"/>
+      <c r="B140" s="4" t="s">
+        <v>188</v>
+      </c>
       <c r="C140" s="4"/>
       <c r="D140" s="4"/>
-      <c r="E140" s="4"/>
+      <c r="E140" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F140" s="4"/>
       <c r="G140" s="14"/>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
       <c r="J140" s="4"/>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>141</v>
       </c>
-      <c r="B141" s="4"/>
+      <c r="B141" s="4" t="s">
+        <v>189</v>
+      </c>
       <c r="C141" s="4"/>
       <c r="D141" s="4"/>
-      <c r="E141" s="4"/>
+      <c r="E141" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F141" s="4"/>
       <c r="G141" s="14"/>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>142</v>
       </c>
-      <c r="B142" s="4"/>
+      <c r="B142" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="C142" s="4"/>
       <c r="D142" s="4"/>
-      <c r="E142" s="4"/>
+      <c r="E142" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F142" s="4"/>
       <c r="G142" s="14"/>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>143</v>
       </c>
-      <c r="B143" s="4"/>
+      <c r="B143" s="4" t="s">
+        <v>191</v>
+      </c>
       <c r="C143" s="4"/>
       <c r="D143" s="4"/>
-      <c r="E143" s="4"/>
+      <c r="E143" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F143" s="4"/>
       <c r="G143" s="14"/>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>144</v>
       </c>
-      <c r="B144" s="4"/>
+      <c r="B144" s="4" t="s">
+        <v>192</v>
+      </c>
       <c r="C144" s="4"/>
       <c r="D144" s="4"/>
-      <c r="E144" s="4"/>
+      <c r="E144" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F144" s="4"/>
       <c r="G144" s="14"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>145</v>
       </c>
-      <c r="B145" s="4"/>
+      <c r="B145" s="4" t="s">
+        <v>193</v>
+      </c>
       <c r="C145" s="4"/>
       <c r="D145" s="4"/>
-      <c r="E145" s="4"/>
+      <c r="E145" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F145" s="4"/>
       <c r="G145" s="14"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>146</v>
       </c>
-      <c r="B146" s="4"/>
+      <c r="B146" s="4" t="s">
+        <v>194</v>
+      </c>
       <c r="C146" s="4"/>
       <c r="D146" s="4"/>
-      <c r="E146" s="4"/>
+      <c r="E146" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F146" s="4"/>
       <c r="G146" s="14"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>147</v>
       </c>
-      <c r="B147" s="4"/>
+      <c r="B147" s="4" t="s">
+        <v>195</v>
+      </c>
       <c r="C147" s="4"/>
       <c r="D147" s="4"/>
-      <c r="E147" s="4"/>
+      <c r="E147" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F147" s="4"/>
       <c r="G147" s="14"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>148</v>
       </c>
-      <c r="B148" s="4"/>
+      <c r="B148" s="4" t="s">
+        <v>196</v>
+      </c>
       <c r="C148" s="4"/>
       <c r="D148" s="4"/>
-      <c r="E148" s="4"/>
+      <c r="E148" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F148" s="4"/>
       <c r="G148" s="14"/>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>149</v>
       </c>
-      <c r="B149" s="4"/>
+      <c r="B149" s="4" t="s">
+        <v>167</v>
+      </c>
       <c r="C149" s="4"/>
       <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
+      <c r="E149" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F149" s="4"/>
       <c r="G149" s="14"/>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>150</v>
       </c>
-      <c r="B150" s="4"/>
+      <c r="B150" s="4" t="s">
+        <v>197</v>
+      </c>
       <c r="C150" s="4"/>
       <c r="D150" s="4"/>
-      <c r="E150" s="4"/>
+      <c r="E150" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F150" s="4"/>
       <c r="G150" s="14"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>151</v>
       </c>
-      <c r="B151" s="4"/>
+      <c r="B151" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="C151" s="4"/>
       <c r="D151" s="4"/>
-      <c r="E151" s="4"/>
+      <c r="E151" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F151" s="4"/>
       <c r="G151" s="14"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>152</v>
       </c>
-      <c r="B152" s="4"/>
+      <c r="B152" s="4" t="s">
+        <v>199</v>
+      </c>
       <c r="C152" s="4"/>
       <c r="D152" s="4"/>
-      <c r="E152" s="4"/>
+      <c r="E152" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F152" s="4"/>
       <c r="G152" s="14"/>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>153</v>
       </c>
-      <c r="B153" s="4"/>
+      <c r="B153" s="4" t="s">
+        <v>200</v>
+      </c>
       <c r="C153" s="4"/>
       <c r="D153" s="4"/>
-      <c r="E153" s="4"/>
+      <c r="E153" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F153" s="4"/>
       <c r="G153" s="14"/>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>154</v>
       </c>
-      <c r="B154" s="4"/>
+      <c r="B154" s="4" t="s">
+        <v>201</v>
+      </c>
       <c r="C154" s="4"/>
       <c r="D154" s="4"/>
-      <c r="E154" s="4"/>
+      <c r="E154" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F154" s="4"/>
       <c r="G154" s="14"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>155</v>
       </c>
-      <c r="B155" s="4"/>
+      <c r="B155" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="C155" s="4"/>
       <c r="D155" s="4"/>
-      <c r="E155" s="4"/>
+      <c r="E155" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F155" s="4"/>
       <c r="G155" s="14"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>156</v>
       </c>
-      <c r="B156" s="4"/>
+      <c r="B156" s="4" t="s">
+        <v>203</v>
+      </c>
       <c r="C156" s="4"/>
       <c r="D156" s="4"/>
-      <c r="E156" s="4"/>
+      <c r="E156" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F156" s="4"/>
       <c r="G156" s="14"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>157</v>
       </c>
-      <c r="B157" s="4"/>
+      <c r="B157" s="4" t="s">
+        <v>204</v>
+      </c>
       <c r="C157" s="4"/>
       <c r="D157" s="4"/>
-      <c r="E157" s="4"/>
+      <c r="E157" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F157" s="4"/>
       <c r="G157" s="14"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>158</v>
       </c>
-      <c r="B158" s="4"/>
+      <c r="B158" s="4" t="s">
+        <v>205</v>
+      </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
-      <c r="E158" s="4"/>
+      <c r="E158" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F158" s="4"/>
       <c r="G158" s="14"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>159</v>
       </c>
-      <c r="B159" s="4"/>
+      <c r="B159" s="4" t="s">
+        <v>206</v>
+      </c>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
-      <c r="E159" s="4"/>
+      <c r="E159" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F159" s="4"/>
       <c r="G159" s="14"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>160</v>
       </c>
-      <c r="B160" s="4"/>
+      <c r="B160" s="4" t="s">
+        <v>207</v>
+      </c>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
-      <c r="E160" s="4"/>
+      <c r="E160" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F160" s="4"/>
       <c r="G160" s="14"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>161</v>
       </c>
       <c r="B161" s="4"/>
       <c r="C161" s="4"/>
       <c r="D161" s="4"/>
-      <c r="E161" s="4"/>
+      <c r="E161" s="4" t="s">
+        <v>176</v>
+      </c>
       <c r="F161" s="4"/>
       <c r="G161" s="14"/>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>162</v>
       </c>
@@ -8300,7 +8609,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>163</v>
       </c>
@@ -8314,7 +8623,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>164</v>
       </c>
@@ -8328,7 +8637,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>165</v>
       </c>
@@ -8342,7 +8651,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>166</v>
       </c>
@@ -8356,7 +8665,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>167</v>
       </c>
@@ -8370,7 +8679,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>168</v>
       </c>
@@ -8384,7 +8693,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>169</v>
       </c>
@@ -8398,7 +8707,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>170</v>
       </c>
@@ -8412,7 +8721,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>171</v>
       </c>
@@ -8426,7 +8735,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>172</v>
       </c>
@@ -8440,7 +8749,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>173</v>
       </c>
@@ -8454,7 +8763,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>174</v>
       </c>
@@ -8468,7 +8777,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>175</v>
       </c>
@@ -8482,7 +8791,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>176</v>
       </c>
@@ -8496,7 +8805,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>177</v>
       </c>
@@ -8510,7 +8819,7 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>178</v>
       </c>
@@ -8524,7 +8833,7 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>179</v>
       </c>
@@ -8538,7 +8847,7 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>180</v>
       </c>
@@ -8565,35 +8874,49 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C27 C127:C1048576 C46:C117">
-    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
+  <conditionalFormatting sqref="C1:C27 C170:C1048576 C46:C117">
+    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="37" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="59" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="25" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="28" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
+    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+      <formula>"Very High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
     <cfRule type="cellIs" dxfId="55" priority="16" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -8607,22 +8930,8 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="51" priority="11" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="12" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="13" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="14" operator="equal">
-      <formula>"Very High"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="colorScale" priority="15">
+    <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8634,7 +8943,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J34 J36:J45">
-    <cfRule type="colorScale" priority="24">
+    <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8645,8 +8954,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J127:J174 J3:J27 J46:J103">
-    <cfRule type="colorScale" priority="218">
+  <conditionalFormatting sqref="J170:J174 J3:J27 J46:J103">
+    <cfRule type="colorScale" priority="223">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8658,21 +8967,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J126">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8684,7 +8993,33 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:J117">
-    <cfRule type="colorScale" priority="298">
+    <cfRule type="colorScale" priority="303">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C127:C169">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"Very High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J127:J151">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8699,7 +9034,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27 E118:E126">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E127:E180 E28:E117">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:E117 E127:E180">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C174">
@@ -8722,16 +9057,16 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9344,16 +9679,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9394,18 +9729,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -10583,16 +10918,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C34">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10632,14 +10967,14 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11401,16 +11736,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11450,15 +11785,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -12162,58 +12497,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C20">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12265,17 +12600,17 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13214,30 +13549,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C25">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13292,16 +13627,16 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -13633,7 +13968,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -14046,16 +14381,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14091,20 +14426,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14997,16 +15332,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15046,9 +15381,9 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>144</v>
       </c>
@@ -15056,7 +15391,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -15064,7 +15399,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -15072,7 +15407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>147</v>
       </c>
@@ -15080,7 +15415,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>148</v>
       </c>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="209">
   <si>
     <t>No.</t>
   </si>
@@ -661,6 +661,9 @@
   </si>
   <si>
     <t>Review and update requirement process: process description</t>
+  </si>
+  <si>
+    <t>Update personal measurement information</t>
   </si>
 </sst>
 </file>
@@ -1723,11 +1726,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121425280"/>
-        <c:axId val="121525376"/>
+        <c:axId val="98739712"/>
+        <c:axId val="98741248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121425280"/>
+        <c:axId val="98739712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1737,7 +1740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121525376"/>
+        <c:crossAx val="98741248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1745,7 +1748,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121525376"/>
+        <c:axId val="98741248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1756,7 +1759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121425280"/>
+        <c:crossAx val="98739712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1929,11 +1932,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121907072"/>
-        <c:axId val="121908608"/>
+        <c:axId val="98865152"/>
+        <c:axId val="98866688"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121907072"/>
+        <c:axId val="98865152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1943,7 +1946,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121908608"/>
+        <c:crossAx val="98866688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1951,7 +1954,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121908608"/>
+        <c:axId val="98866688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1962,7 +1965,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121907072"/>
+        <c:crossAx val="98865152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2171,11 +2174,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="121987456"/>
-        <c:axId val="121988992"/>
+        <c:axId val="98801920"/>
+        <c:axId val="98803712"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="121987456"/>
+        <c:axId val="98801920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2188,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121988992"/>
+        <c:crossAx val="98803712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2193,7 +2196,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121988992"/>
+        <c:axId val="98803712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2204,7 +2207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121987456"/>
+        <c:crossAx val="98801920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2413,11 +2416,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122014336"/>
-        <c:axId val="122184064"/>
+        <c:axId val="99525376"/>
+        <c:axId val="99526912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122014336"/>
+        <c:axId val="99525376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2427,7 +2430,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122184064"/>
+        <c:crossAx val="99526912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2435,7 +2438,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122184064"/>
+        <c:axId val="99526912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2449,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122014336"/>
+        <c:crossAx val="99525376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2715,11 +2718,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122267904"/>
-        <c:axId val="122269696"/>
+        <c:axId val="99283328"/>
+        <c:axId val="99284864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122267904"/>
+        <c:axId val="99283328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2729,7 +2732,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122269696"/>
+        <c:crossAx val="99284864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2737,7 +2740,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122269696"/>
+        <c:axId val="99284864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2751,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122267904"/>
+        <c:crossAx val="99283328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2981,11 +2984,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="122303616"/>
-        <c:axId val="122305152"/>
+        <c:axId val="99333632"/>
+        <c:axId val="99335168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="122303616"/>
+        <c:axId val="99333632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +2998,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122305152"/>
+        <c:crossAx val="99335168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +3006,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122305152"/>
+        <c:axId val="99335168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122303616"/>
+        <c:crossAx val="99333632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3259,11 +3262,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="92669824"/>
-        <c:axId val="92671360"/>
+        <c:axId val="99414016"/>
+        <c:axId val="99415552"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="92669824"/>
+        <c:axId val="99414016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3273,7 +3276,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92671360"/>
+        <c:crossAx val="99415552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3281,7 +3284,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92671360"/>
+        <c:axId val="99415552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,14 +3295,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92669824"/>
+        <c:crossAx val="99414016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3849,9 +3851,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8028,16 +8030,28 @@
       <c r="B130" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C130" s="4"/>
-      <c r="D130" s="4"/>
+      <c r="C130" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E130" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F130" s="4"/>
-      <c r="G130" s="14"/>
+      <c r="F130" s="4">
+        <v>2</v>
+      </c>
+      <c r="G130" s="14">
+        <v>40823</v>
+      </c>
       <c r="H130" s="4"/>
-      <c r="I130" s="4"/>
-      <c r="J130" s="4"/>
+      <c r="I130" s="4">
+        <v>2</v>
+      </c>
+      <c r="J130" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
@@ -8046,16 +8060,28 @@
       <c r="B131" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C131" s="4"/>
-      <c r="D131" s="4"/>
+      <c r="C131" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E131" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F131" s="4"/>
-      <c r="G131" s="14"/>
+      <c r="F131" s="4">
+        <v>3</v>
+      </c>
+      <c r="G131" s="14">
+        <v>40826</v>
+      </c>
       <c r="H131" s="4"/>
-      <c r="I131" s="4"/>
-      <c r="J131" s="4"/>
+      <c r="I131" s="4">
+        <v>2</v>
+      </c>
+      <c r="J131" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
@@ -8064,16 +8090,28 @@
       <c r="B132" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C132" s="4"/>
-      <c r="D132" s="4"/>
+      <c r="C132" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E132" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F132" s="4"/>
-      <c r="G132" s="14"/>
+      <c r="F132" s="4">
+        <v>3</v>
+      </c>
+      <c r="G132" s="14">
+        <v>40829</v>
+      </c>
       <c r="H132" s="4"/>
-      <c r="I132" s="4"/>
-      <c r="J132" s="4"/>
+      <c r="I132" s="4">
+        <v>3</v>
+      </c>
+      <c r="J132" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
@@ -8082,16 +8120,28 @@
       <c r="B133" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C133" s="4"/>
-      <c r="D133" s="4"/>
+      <c r="C133" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D133" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E133" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F133" s="4"/>
-      <c r="G133" s="14"/>
+      <c r="F133" s="4">
+        <v>5</v>
+      </c>
+      <c r="G133" s="14">
+        <v>40840</v>
+      </c>
       <c r="H133" s="4"/>
-      <c r="I133" s="4"/>
-      <c r="J133" s="4"/>
+      <c r="I133" s="4">
+        <v>1</v>
+      </c>
+      <c r="J133" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
@@ -8100,16 +8150,28 @@
       <c r="B134" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
+      <c r="C134" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E134" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F134" s="4"/>
-      <c r="G134" s="14"/>
+      <c r="F134" s="4">
+        <v>5</v>
+      </c>
+      <c r="G134" s="14">
+        <v>40843</v>
+      </c>
       <c r="H134" s="4"/>
-      <c r="I134" s="4"/>
-      <c r="J134" s="4"/>
+      <c r="I134" s="4">
+        <v>1</v>
+      </c>
+      <c r="J134" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
@@ -8118,16 +8180,28 @@
       <c r="B135" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C135" s="4"/>
-      <c r="D135" s="4"/>
+      <c r="C135" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E135" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F135" s="4"/>
-      <c r="G135" s="14"/>
+      <c r="F135" s="4">
+        <v>5</v>
+      </c>
+      <c r="G135" s="14">
+        <v>40846</v>
+      </c>
       <c r="H135" s="4"/>
-      <c r="I135" s="4"/>
-      <c r="J135" s="4"/>
+      <c r="I135" s="4">
+        <v>2</v>
+      </c>
+      <c r="J135" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
@@ -8136,16 +8210,28 @@
       <c r="B136" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C136" s="4"/>
-      <c r="D136" s="4"/>
+      <c r="C136" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E136" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F136" s="4"/>
-      <c r="G136" s="14"/>
+      <c r="F136" s="4">
+        <v>6</v>
+      </c>
+      <c r="G136" s="14">
+        <v>40847</v>
+      </c>
       <c r="H136" s="4"/>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
+      <c r="I136" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="J136" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
@@ -8154,16 +8240,28 @@
       <c r="B137" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C137" s="4"/>
-      <c r="D137" s="4"/>
+      <c r="C137" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E137" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F137" s="4"/>
-      <c r="G137" s="14"/>
+      <c r="F137" s="4">
+        <v>6</v>
+      </c>
+      <c r="G137" s="14">
+        <v>40852</v>
+      </c>
       <c r="H137" s="4"/>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
+      <c r="I137" s="4">
+        <v>1</v>
+      </c>
+      <c r="J137" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
@@ -8172,16 +8270,28 @@
       <c r="B138" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C138" s="4"/>
-      <c r="D138" s="4"/>
+      <c r="C138" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E138" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F138" s="4"/>
-      <c r="G138" s="14"/>
+      <c r="F138" s="4">
+        <v>10</v>
+      </c>
+      <c r="G138" s="14">
+        <v>40876</v>
+      </c>
       <c r="H138" s="4"/>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
+      <c r="I138" s="4">
+        <v>2</v>
+      </c>
+      <c r="J138" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
@@ -8190,16 +8300,28 @@
       <c r="B139" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="C139" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E139" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F139" s="4"/>
-      <c r="G139" s="14"/>
+      <c r="F139" s="4">
+        <v>11</v>
+      </c>
+      <c r="G139" s="14">
+        <v>40675</v>
+      </c>
       <c r="H139" s="4"/>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
+      <c r="I139" s="4">
+        <v>2</v>
+      </c>
+      <c r="J139" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
@@ -8208,16 +8330,28 @@
       <c r="B140" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C140" s="4"/>
-      <c r="D140" s="4"/>
+      <c r="C140" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E140" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F140" s="4"/>
-      <c r="G140" s="14"/>
+      <c r="F140" s="4">
+        <v>7</v>
+      </c>
+      <c r="G140" s="14">
+        <v>40857</v>
+      </c>
       <c r="H140" s="4"/>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
+      <c r="I140" s="4">
+        <v>3</v>
+      </c>
+      <c r="J140" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
@@ -8226,16 +8360,28 @@
       <c r="B141" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C141" s="4"/>
-      <c r="D141" s="4"/>
+      <c r="C141" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E141" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F141" s="4"/>
-      <c r="G141" s="14"/>
+      <c r="F141" s="4">
+        <v>7</v>
+      </c>
+      <c r="G141" s="14">
+        <v>40857</v>
+      </c>
       <c r="H141" s="4"/>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
+      <c r="I141" s="4">
+        <v>1</v>
+      </c>
+      <c r="J141" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
@@ -8244,16 +8390,28 @@
       <c r="B142" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="C142" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E142" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F142" s="4"/>
-      <c r="G142" s="14"/>
+      <c r="F142" s="4">
+        <v>8</v>
+      </c>
+      <c r="G142" s="14">
+        <v>40864</v>
+      </c>
       <c r="H142" s="4"/>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
+      <c r="I142" s="4">
+        <v>2</v>
+      </c>
+      <c r="J142" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
@@ -8262,16 +8420,28 @@
       <c r="B143" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C143" s="4"/>
-      <c r="D143" s="4"/>
+      <c r="C143" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E143" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F143" s="4"/>
-      <c r="G143" s="14"/>
+      <c r="F143" s="4">
+        <v>8</v>
+      </c>
+      <c r="G143" s="14">
+        <v>40864</v>
+      </c>
       <c r="H143" s="4"/>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
+      <c r="I143" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J143" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
@@ -8280,16 +8450,28 @@
       <c r="B144" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="C144" s="4"/>
-      <c r="D144" s="4"/>
+      <c r="C144" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E144" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F144" s="4"/>
-      <c r="G144" s="14"/>
+      <c r="F144" s="4">
+        <v>8</v>
+      </c>
+      <c r="G144" s="14">
+        <v>40867</v>
+      </c>
       <c r="H144" s="4"/>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
+      <c r="I144" s="4">
+        <v>3</v>
+      </c>
+      <c r="J144" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
@@ -8298,16 +8480,28 @@
       <c r="B145" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C145" s="4"/>
-      <c r="D145" s="4"/>
+      <c r="C145" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E145" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F145" s="4"/>
-      <c r="G145" s="14"/>
+      <c r="F145" s="4">
+        <v>9</v>
+      </c>
+      <c r="G145" s="14">
+        <v>40868</v>
+      </c>
       <c r="H145" s="4"/>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
+      <c r="I145" s="4">
+        <v>1</v>
+      </c>
+      <c r="J145" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
@@ -8316,16 +8510,28 @@
       <c r="B146" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="C146" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E146" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F146" s="4"/>
-      <c r="G146" s="14"/>
+      <c r="F146" s="4">
+        <v>9</v>
+      </c>
+      <c r="G146" s="14">
+        <v>40869</v>
+      </c>
       <c r="H146" s="4"/>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
+      <c r="I146" s="4">
+        <v>1</v>
+      </c>
+      <c r="J146" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
@@ -8334,16 +8540,28 @@
       <c r="B147" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D147" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E147" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F147" s="4"/>
-      <c r="G147" s="14"/>
+      <c r="F147" s="4">
+        <v>9</v>
+      </c>
+      <c r="G147" s="14">
+        <v>40871</v>
+      </c>
       <c r="H147" s="4"/>
-      <c r="I147" s="4"/>
-      <c r="J147" s="4"/>
+      <c r="I147" s="4">
+        <v>5</v>
+      </c>
+      <c r="J147" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
@@ -8352,16 +8570,28 @@
       <c r="B148" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="C148" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E148" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F148" s="4"/>
-      <c r="G148" s="14"/>
+      <c r="F148" s="4">
+        <v>9</v>
+      </c>
+      <c r="G148" s="14">
+        <v>40874</v>
+      </c>
       <c r="H148" s="4"/>
-      <c r="I148" s="4"/>
-      <c r="J148" s="4"/>
+      <c r="I148" s="4">
+        <v>2</v>
+      </c>
+      <c r="J148" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
@@ -8370,16 +8600,28 @@
       <c r="B149" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
+      <c r="C149" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E149" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F149" s="4"/>
-      <c r="G149" s="14"/>
+      <c r="F149" s="4">
+        <v>10</v>
+      </c>
+      <c r="G149" s="14">
+        <v>40876</v>
+      </c>
       <c r="H149" s="4"/>
-      <c r="I149" s="4"/>
-      <c r="J149" s="4"/>
+      <c r="I149" s="4">
+        <v>1</v>
+      </c>
+      <c r="J149" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
@@ -8388,16 +8630,24 @@
       <c r="B150" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C150" s="4"/>
-      <c r="D150" s="4"/>
+      <c r="C150" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="E150" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F150" s="4"/>
       <c r="G150" s="14"/>
       <c r="H150" s="4"/>
-      <c r="I150" s="4"/>
-      <c r="J150" s="4"/>
+      <c r="I150" s="4">
+        <v>14</v>
+      </c>
+      <c r="J150" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
@@ -8406,16 +8656,28 @@
       <c r="B151" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C151" s="4"/>
-      <c r="D151" s="4"/>
+      <c r="C151" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E151" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F151" s="4"/>
-      <c r="G151" s="14"/>
+      <c r="F151" s="4">
+        <v>11</v>
+      </c>
+      <c r="G151" s="14">
+        <v>40883</v>
+      </c>
       <c r="H151" s="4"/>
-      <c r="I151" s="4"/>
-      <c r="J151" s="4"/>
+      <c r="I151" s="4">
+        <v>2</v>
+      </c>
+      <c r="J151" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
@@ -8424,16 +8686,28 @@
       <c r="B152" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C152" s="4"/>
-      <c r="D152" s="4"/>
+      <c r="C152" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E152" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F152" s="4"/>
-      <c r="G152" s="14"/>
+      <c r="F152" s="4">
+        <v>11</v>
+      </c>
+      <c r="G152" s="14">
+        <v>40884</v>
+      </c>
       <c r="H152" s="4"/>
-      <c r="I152" s="4"/>
-      <c r="J152" s="4"/>
+      <c r="I152" s="4">
+        <v>1</v>
+      </c>
+      <c r="J152" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
@@ -8442,16 +8716,28 @@
       <c r="B153" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C153" s="4"/>
-      <c r="D153" s="4"/>
+      <c r="C153" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E153" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F153" s="4"/>
-      <c r="G153" s="14"/>
+      <c r="F153" s="4">
+        <v>11</v>
+      </c>
+      <c r="G153" s="14">
+        <v>40884</v>
+      </c>
       <c r="H153" s="4"/>
-      <c r="I153" s="4"/>
-      <c r="J153" s="4"/>
+      <c r="I153" s="4">
+        <v>1</v>
+      </c>
+      <c r="J153" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
@@ -8460,16 +8746,28 @@
       <c r="B154" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="C154" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D154" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E154" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F154" s="4"/>
-      <c r="G154" s="14"/>
+      <c r="F154" s="4">
+        <v>11</v>
+      </c>
+      <c r="G154" s="14">
+        <v>40885</v>
+      </c>
       <c r="H154" s="4"/>
-      <c r="I154" s="4"/>
-      <c r="J154" s="4"/>
+      <c r="I154" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J154" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
@@ -8478,16 +8776,28 @@
       <c r="B155" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C155" s="4"/>
-      <c r="D155" s="4"/>
+      <c r="C155" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E155" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F155" s="4"/>
-      <c r="G155" s="14"/>
+      <c r="F155" s="4">
+        <v>11</v>
+      </c>
+      <c r="G155" s="14">
+        <v>40886</v>
+      </c>
       <c r="H155" s="4"/>
-      <c r="I155" s="4"/>
-      <c r="J155" s="4"/>
+      <c r="I155" s="4">
+        <v>1</v>
+      </c>
+      <c r="J155" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
@@ -8496,16 +8806,28 @@
       <c r="B156" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C156" s="4"/>
-      <c r="D156" s="4"/>
+      <c r="C156" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E156" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F156" s="4"/>
-      <c r="G156" s="14"/>
+      <c r="F156" s="4">
+        <v>12</v>
+      </c>
+      <c r="G156" s="14">
+        <v>40888</v>
+      </c>
       <c r="H156" s="4"/>
-      <c r="I156" s="4"/>
-      <c r="J156" s="4"/>
+      <c r="I156" s="4">
+        <v>2</v>
+      </c>
+      <c r="J156" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
@@ -8514,16 +8836,28 @@
       <c r="B157" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C157" s="4"/>
-      <c r="D157" s="4"/>
+      <c r="C157" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E157" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F157" s="4"/>
-      <c r="G157" s="14"/>
+      <c r="F157" s="4">
+        <v>15</v>
+      </c>
+      <c r="G157" s="14">
+        <v>40916</v>
+      </c>
       <c r="H157" s="4"/>
-      <c r="I157" s="4"/>
-      <c r="J157" s="4"/>
+      <c r="I157" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J157" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
@@ -8532,16 +8866,28 @@
       <c r="B158" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="C158" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E158" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F158" s="4"/>
-      <c r="G158" s="14"/>
+      <c r="F158" s="4">
+        <v>16</v>
+      </c>
+      <c r="G158" s="14">
+        <v>40920</v>
+      </c>
       <c r="H158" s="4"/>
-      <c r="I158" s="4"/>
-      <c r="J158" s="4"/>
+      <c r="I158" s="4">
+        <v>1</v>
+      </c>
+      <c r="J158" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
@@ -8550,16 +8896,24 @@
       <c r="B159" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C159" s="4"/>
-      <c r="D159" s="4"/>
+      <c r="C159" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E159" s="4" t="s">
         <v>176</v>
       </c>
       <c r="F159" s="4"/>
       <c r="G159" s="14"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="4"/>
-      <c r="J159" s="4"/>
+      <c r="I159" s="4">
+        <v>4</v>
+      </c>
+      <c r="J159" s="4">
+        <v>25</v>
+      </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
@@ -8568,32 +8922,58 @@
       <c r="B160" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C160" s="4"/>
-      <c r="D160" s="4"/>
+      <c r="C160" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="E160" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F160" s="4"/>
-      <c r="G160" s="14"/>
+      <c r="F160" s="4">
+        <v>22</v>
+      </c>
+      <c r="G160" s="14">
+        <v>40959</v>
+      </c>
       <c r="H160" s="4"/>
-      <c r="I160" s="4"/>
-      <c r="J160" s="4"/>
+      <c r="I160" s="4">
+        <v>1</v>
+      </c>
+      <c r="J160" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>161</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
-      <c r="D161" s="4"/>
+      <c r="B161" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="E161" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="F161" s="4"/>
-      <c r="G161" s="14"/>
+      <c r="F161" s="4">
+        <v>23</v>
+      </c>
+      <c r="G161" s="14">
+        <v>40967</v>
+      </c>
       <c r="H161" s="4"/>
-      <c r="I161" s="4"/>
-      <c r="J161" s="4"/>
+      <c r="I161" s="4">
+        <v>1</v>
+      </c>
+      <c r="J161" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
@@ -8875,63 +9255,63 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C170:C1048576 C46:C117">
-    <cfRule type="cellIs" dxfId="67" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="37" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="63" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="59" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="55" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35">
-    <cfRule type="colorScale" priority="20">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8943,7 +9323,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J28:J34 J36:J45">
-    <cfRule type="colorScale" priority="29">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8955,7 +9335,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J170:J174 J3:J27 J46:J103">
-    <cfRule type="colorScale" priority="223">
+    <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8967,21 +9347,21 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="51" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J118:J126">
-    <cfRule type="colorScale" priority="10">
+    <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8993,7 +9373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J104:J117">
-    <cfRule type="colorScale" priority="303">
+    <cfRule type="colorScale" priority="305">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9005,21 +9385,45 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C127:C169">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J127:J151">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J152">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J153:J161">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9679,16 +10083,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10918,16 +11322,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C34">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11668,7 +12072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
         <v>4</v>
       </c>
@@ -11699,7 +12103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C25" s="21" t="s">
         <v>5</v>
       </c>
@@ -11736,16 +12140,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12462,7 +12866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
         <v>5</v>
       </c>
@@ -12497,58 +12901,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C20">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13341,7 +13745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -13374,7 +13778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -13407,7 +13811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="21" t="s">
         <v>134</v>
       </c>
@@ -13451,7 +13855,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
         <v>4</v>
       </c>
@@ -13497,7 +13901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="21" t="s">
         <v>5</v>
       </c>
@@ -13549,30 +13953,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C25">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14303,7 +14707,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C23" s="21" t="s">
         <v>4</v>
       </c>
@@ -14339,7 +14743,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C24" s="21" t="s">
         <v>5</v>
       </c>
@@ -14381,16 +14785,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15146,7 +15550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -15178,7 +15582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -15210,7 +15614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="21" t="s">
         <v>134</v>
       </c>
@@ -15248,7 +15652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C28" s="21" t="s">
         <v>4</v>
       </c>
@@ -15287,7 +15691,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C29" s="21" t="s">
         <v>5</v>
       </c>
@@ -15332,16 +15736,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="360" windowWidth="18192" windowHeight="8208"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,14 +15,15 @@
     <sheet name="Quyet Nguyen" sheetId="6" r:id="rId6"/>
     <sheet name="Tung Nguyen" sheetId="7" r:id="rId7"/>
     <sheet name="Dang Nguyen" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet2" sheetId="9" r:id="rId9"/>
+    <sheet name="Nguyen Dinh" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Dang Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Loc Phan'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Nguyen Dinh'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Nhung Huynh'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Quyet Nguyen'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$180</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$177</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tan Tran'!$A$2:$J$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="206">
   <si>
     <t>No.</t>
   </si>
@@ -469,21 +470,6 @@
     <t>Asking some information are questioning.</t>
   </si>
   <si>
-    <t>Síp</t>
-  </si>
-  <si>
-    <t>Tan</t>
-  </si>
-  <si>
-    <t>Tung</t>
-  </si>
-  <si>
-    <t>Loc</t>
-  </si>
-  <si>
-    <t>Dang</t>
-  </si>
-  <si>
     <t>Documenting the report</t>
   </si>
   <si>
@@ -582,27 +568,15 @@
     <t>Re-construct user's requirement and analysis map</t>
   </si>
   <si>
-    <t>Review Concept and translate ConsOpt into Vietnamese for presenting to customer</t>
-  </si>
-  <si>
     <t>Update section five</t>
   </si>
   <si>
     <t>Update section seven</t>
   </si>
   <si>
-    <t>Review and fix some bugs on ConsOpt, update section 1 and add description for all sections</t>
-  </si>
-  <si>
     <t>Research and deploy SVN using google code for team</t>
   </si>
   <si>
-    <t>Review ConsOpt content, and fix some bugs</t>
-  </si>
-  <si>
-    <t>Update English Word for translating vietnamese business term into English</t>
-  </si>
-  <si>
     <t>Create initial version for list of functional requirements, business rules, system features</t>
   </si>
   <si>
@@ -657,13 +631,31 @@
     <t>Add reflection paper: First version, plus introduction, architect, project management</t>
   </si>
   <si>
-    <t>Review and translate in to English</t>
-  </si>
-  <si>
     <t>Review and update requirement process: process description</t>
   </si>
   <si>
     <t>Update personal measurement information</t>
+  </si>
+  <si>
+    <t>Review and translate in to English Consopt</t>
+  </si>
+  <si>
+    <t>Review and fix some bugs on ConsOpt</t>
+  </si>
+  <si>
+    <t>Programming "Manage Detail Information Management"</t>
+  </si>
+  <si>
+    <t>Programming "Employee Code Setting"</t>
+  </si>
+  <si>
+    <t>Programming "Column Setting"</t>
+  </si>
+  <si>
+    <t>Programming "Certificate Setting"</t>
+  </si>
+  <si>
+    <t>Programming "Employee Report"</t>
   </si>
 </sst>
 </file>
@@ -820,7 +812,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -884,13 +876,64 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1553,51 +1596,63 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:v>Estimated hour</c:v>
-          </c:tx>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="10"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>18</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Tan Tran'!$D$24:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tan Tran'!$D$19:$M$19</c:f>
+              <c:f>'Tan Tran'!$D$25:$Q$25</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1627,6 +1682,18 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1636,51 +1703,63 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
-          <c:tx>
-            <c:v>Actual hour</c:v>
-          </c:tx>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="10"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>16</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>18</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Tan Tran'!$D$24:$Q$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tan Tran'!$D$20:$M$20</c:f>
+              <c:f>'Tan Tran'!$D$26:$Q$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -1710,6 +1789,18 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1726,11 +1817,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98739712"/>
-        <c:axId val="98741248"/>
+        <c:axId val="119723136"/>
+        <c:axId val="119724672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98739712"/>
+        <c:axId val="119723136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1740,7 +1831,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98741248"/>
+        <c:crossAx val="119724672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1748,7 +1839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98741248"/>
+        <c:axId val="119724672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1759,13 +1850,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98739712"/>
+        <c:crossAx val="119723136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1932,11 +2024,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98865152"/>
-        <c:axId val="98866688"/>
+        <c:axId val="231538048"/>
+        <c:axId val="119538816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98865152"/>
+        <c:axId val="231538048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1946,7 +2038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98866688"/>
+        <c:crossAx val="119538816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1954,7 +2046,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98866688"/>
+        <c:axId val="119538816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +2057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98865152"/>
+        <c:crossAx val="231538048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2174,11 +2266,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98801920"/>
-        <c:axId val="98803712"/>
+        <c:axId val="119601024"/>
+        <c:axId val="119602560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98801920"/>
+        <c:axId val="119601024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2188,7 +2280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98803712"/>
+        <c:crossAx val="119602560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2196,7 +2288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98803712"/>
+        <c:axId val="119602560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98801920"/>
+        <c:crossAx val="119601024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2416,11 +2508,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99525376"/>
-        <c:axId val="99526912"/>
+        <c:axId val="231612800"/>
+        <c:axId val="231614336"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99525376"/>
+        <c:axId val="231612800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2430,7 +2522,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99526912"/>
+        <c:crossAx val="231614336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2438,7 +2530,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99526912"/>
+        <c:axId val="231614336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,7 +2541,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99525376"/>
+        <c:crossAx val="231612800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2718,11 +2810,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99283328"/>
-        <c:axId val="99284864"/>
+        <c:axId val="231682048"/>
+        <c:axId val="231683584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99283328"/>
+        <c:axId val="231682048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +2824,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99284864"/>
+        <c:crossAx val="231683584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2740,7 +2832,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99284864"/>
+        <c:axId val="231683584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2751,7 +2843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99283328"/>
+        <c:crossAx val="231682048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2984,11 +3076,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99333632"/>
-        <c:axId val="99335168"/>
+        <c:axId val="231824000"/>
+        <c:axId val="231825792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99333632"/>
+        <c:axId val="231824000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2998,7 +3090,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99335168"/>
+        <c:crossAx val="231825792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3006,7 +3098,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99335168"/>
+        <c:axId val="231825792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,7 +3109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99333632"/>
+        <c:crossAx val="231824000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3262,11 +3354,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99414016"/>
-        <c:axId val="99415552"/>
+        <c:axId val="231832576"/>
+        <c:axId val="232010496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99414016"/>
+        <c:axId val="231832576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3276,7 +3368,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99415552"/>
+        <c:crossAx val="232010496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3284,7 +3376,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99415552"/>
+        <c:axId val="232010496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,13 +3387,334 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99414016"/>
+        <c:crossAx val="231832576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nguyen Dinh'!$D$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="14"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>23</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nguyen Dinh'!$E$37:$R$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Nguyen Dinh'!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="14"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>16</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>22</c:v>
+              </c:pt>
+              <c:pt idx="13">
+                <c:v>23</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Nguyen Dinh'!$E$38:$R$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="232420864"/>
+        <c:axId val="232422400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="232420864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232422400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="232422400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="232420864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3326,7 +3739,7 @@
       <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3540,6 +3953,41 @@
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3849,30 +4297,30 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K180"/>
+  <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I162" sqref="I162"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
@@ -3886,7 +4334,7 @@
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3918,7 +4366,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -3954,7 +4402,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -3987,7 +4435,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4020,7 +4468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4053,7 +4501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4086,7 +4534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4119,7 +4567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4152,7 +4600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4185,7 +4633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4218,7 +4666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4251,7 +4699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4284,7 +4732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4317,7 +4765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4350,7 +4798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4383,7 +4831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4416,7 +4864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -4449,7 +4897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -4482,7 +4930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -4515,7 +4963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -4548,7 +4996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -4581,7 +5029,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -4614,7 +5062,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -4647,7 +5095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -4680,7 +5128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -4713,7 +5161,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -4746,7 +5194,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -4779,7 +5227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -4812,7 +5260,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -4845,7 +5293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -4878,7 +5326,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -4911,7 +5359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -4944,7 +5392,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -4977,7 +5425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5010,7 +5458,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5043,7 +5491,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5076,7 +5524,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5109,7 +5557,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5142,7 +5590,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5175,7 +5623,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5208,7 +5656,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5241,7 +5689,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5274,7 +5722,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5307,7 +5755,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5340,7 +5788,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5371,7 +5819,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5402,7 +5850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5433,7 +5881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -5464,7 +5912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -5495,7 +5943,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -5526,7 +5974,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -5557,7 +6005,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -5588,7 +6036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -5619,7 +6067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -5650,7 +6098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -5681,7 +6129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -5712,7 +6160,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -5743,7 +6191,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -5774,7 +6222,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -5805,7 +6253,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -5836,7 +6284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -5867,7 +6315,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -5898,7 +6346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -5929,7 +6377,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -5960,7 +6408,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -5991,7 +6439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6022,7 +6470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6053,7 +6501,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6086,7 +6534,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6119,7 +6567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6185,7 +6633,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6218,7 +6666,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6251,7 +6699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6284,7 +6732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6317,7 +6765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6350,7 +6798,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6383,7 +6831,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6416,7 +6864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -6449,7 +6897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -6482,7 +6930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -6515,7 +6963,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -6548,7 +6996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -6581,7 +7029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -6614,7 +7062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -6647,7 +7095,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -6680,7 +7128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -6711,7 +7159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -6742,7 +7190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -6773,7 +7221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -6804,7 +7252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -6835,7 +7283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -6866,7 +7314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -6897,7 +7345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -6928,7 +7376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -6959,7 +7407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -6990,7 +7438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -7021,7 +7469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -7052,7 +7500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -7083,7 +7531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -7114,7 +7562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7145,7 +7593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7176,7 +7624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7209,7 +7657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7242,7 +7690,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -7275,7 +7723,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -7308,7 +7756,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -7341,7 +7789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7374,7 +7822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7407,7 +7855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7440,7 +7888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -7473,7 +7921,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -7506,7 +7954,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -7539,7 +7987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -7572,7 +8020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -7605,7 +8053,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -7671,7 +8119,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -7704,7 +8152,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -7737,7 +8185,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -7770,7 +8218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -7803,7 +8251,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -7867,7 +8315,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -7900,7 +8348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -7933,12 +8381,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>19</v>
@@ -7947,7 +8395,7 @@
         <v>26</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -7963,12 +8411,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>20</v>
@@ -7977,7 +8425,7 @@
         <v>26</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -7993,7 +8441,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -8007,7 +8455,7 @@
         <v>26</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F129" s="4">
         <v>2</v>
@@ -8023,12 +8471,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>20</v>
@@ -8037,7 +8485,7 @@
         <v>26</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F130" s="4">
         <v>2</v>
@@ -8053,12 +8501,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>19</v>
@@ -8067,7 +8515,7 @@
         <v>26</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -8083,12 +8531,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>19</v>
@@ -8097,7 +8545,7 @@
         <v>26</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -8113,12 +8561,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>19</v>
@@ -8127,13 +8575,13 @@
         <v>26</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F133" s="4">
         <v>5</v>
       </c>
       <c r="G133" s="14">
-        <v>40840</v>
+        <v>40843</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="4">
@@ -8143,12 +8591,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>19</v>
@@ -8157,28 +8605,28 @@
         <v>26</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
       </c>
       <c r="G134" s="14">
-        <v>40843</v>
+        <v>40846</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J134" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>19</v>
@@ -8187,88 +8635,88 @@
         <v>26</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F135" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G135" s="14">
-        <v>40846</v>
+        <v>40847</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="4">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="J135" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C136" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F136" s="4">
         <v>6</v>
       </c>
       <c r="G136" s="14">
-        <v>40847</v>
+        <v>40852</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J136" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C137" s="4" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F137" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G137" s="14">
-        <v>40852</v>
+        <v>40857</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J137" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>19</v>
@@ -8277,43 +8725,43 @@
         <v>26</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F138" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G138" s="14">
-        <v>40876</v>
+        <v>40857</v>
       </c>
       <c r="H138" s="4"/>
       <c r="I138" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J138" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F139" s="4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G139" s="14">
-        <v>40675</v>
+        <v>40864</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4">
@@ -8323,42 +8771,42 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C140" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D140" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F140" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G140" s="14">
-        <v>40857</v>
+        <v>40864</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="J140" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>19</v>
@@ -8367,28 +8815,28 @@
         <v>26</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F141" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G141" s="14">
-        <v>40857</v>
+        <v>40867</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J141" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>19</v>
@@ -8397,58 +8845,58 @@
         <v>26</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F142" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G142" s="14">
-        <v>40864</v>
+        <v>40868</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C143" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D143" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F143" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G143" s="14">
-        <v>40864</v>
+        <v>40869</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J143" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>19</v>
@@ -8457,28 +8905,28 @@
         <v>26</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F144" s="4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G144" s="14">
-        <v>40867</v>
+        <v>40871</v>
       </c>
       <c r="H144" s="4"/>
       <c r="I144" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J144" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>19</v>
@@ -8487,28 +8935,28 @@
         <v>26</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F145" s="4">
         <v>9</v>
       </c>
       <c r="G145" s="14">
-        <v>40868</v>
+        <v>40874</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J145" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>19</v>
@@ -8517,13 +8965,13 @@
         <v>26</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F146" s="4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G146" s="14">
-        <v>40869</v>
+        <v>40876</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4">
@@ -8533,42 +8981,38 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F147" s="4">
-        <v>9</v>
-      </c>
-      <c r="G147" s="14">
-        <v>40871</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F147" s="4"/>
+      <c r="G147" s="14"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J147" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>19</v>
@@ -8577,13 +9021,13 @@
         <v>26</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F148" s="4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G148" s="14">
-        <v>40874</v>
+        <v>40883</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4">
@@ -8593,12 +9037,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>19</v>
@@ -8607,13 +9051,13 @@
         <v>26</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F149" s="4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G149" s="14">
-        <v>40876</v>
+        <v>40884</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4">
@@ -8623,68 +9067,72 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C150" s="4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F150" s="4"/>
-      <c r="G150" s="14"/>
+        <v>171</v>
+      </c>
+      <c r="F150" s="4">
+        <v>11</v>
+      </c>
+      <c r="G150" s="14">
+        <v>40884</v>
+      </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="J150" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D151" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F151" s="4">
         <v>11</v>
       </c>
       <c r="G151" s="14">
-        <v>40883</v>
+        <v>40885</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="J151" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>19</v>
@@ -8693,13 +9141,13 @@
         <v>26</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F152" s="4">
         <v>11</v>
       </c>
       <c r="G152" s="14">
-        <v>40884</v>
+        <v>40886</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4">
@@ -8709,12 +9157,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>19</v>
@@ -8723,43 +9171,43 @@
         <v>26</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F153" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G153" s="14">
-        <v>40884</v>
+        <v>40888</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J153" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F154" s="4">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G154" s="14">
-        <v>40885</v>
+        <v>40916</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4">
@@ -8769,27 +9217,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F155" s="4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G155" s="14">
-        <v>40886</v>
+        <v>40920</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4">
@@ -8799,12 +9247,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>19</v>
@@ -8813,73 +9261,69 @@
         <v>26</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F156" s="4">
-        <v>12</v>
-      </c>
-      <c r="G156" s="14">
-        <v>40888</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="F156" s="4"/>
+      <c r="G156" s="14"/>
       <c r="H156" s="4"/>
       <c r="I156" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J156" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F157" s="4">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G157" s="14">
-        <v>40916</v>
+        <v>40959</v>
       </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J157" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="C158" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D158" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F158" s="4">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G158" s="14">
-        <v>40920</v>
+        <v>40967</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4">
@@ -8889,95 +9333,51 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>159</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>176</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="14"/>
       <c r="H159" s="4"/>
-      <c r="I159" s="4">
-        <v>4</v>
-      </c>
-      <c r="J159" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I159" s="4"/>
+      <c r="J159" s="4"/>
+    </row>
+    <row r="160" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>160</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E160" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F160" s="4">
-        <v>22</v>
-      </c>
-      <c r="G160" s="14">
-        <v>40959</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+      <c r="F160" s="4"/>
+      <c r="G160" s="14"/>
       <c r="H160" s="4"/>
-      <c r="I160" s="4">
-        <v>1</v>
-      </c>
-      <c r="J160" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I160" s="4"/>
+      <c r="J160" s="4"/>
+    </row>
+    <row r="161" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>161</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="C161" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D161" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E161" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="F161" s="4">
-        <v>23</v>
-      </c>
-      <c r="G161" s="14">
-        <v>40967</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+      <c r="F161" s="4"/>
+      <c r="G161" s="14"/>
       <c r="H161" s="4"/>
-      <c r="I161" s="4">
-        <v>1</v>
-      </c>
-      <c r="J161" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I161" s="4"/>
+      <c r="J161" s="4"/>
+    </row>
+    <row r="162" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B162" s="4"/>
       <c r="C162" s="4"/>
@@ -8989,9 +9389,9 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B163" s="4"/>
       <c r="C163" s="4"/>
@@ -9003,9 +9403,9 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="4"/>
@@ -9017,9 +9417,9 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="4"/>
@@ -9031,9 +9431,9 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B166" s="4"/>
       <c r="C166" s="4"/>
@@ -9045,9 +9445,9 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B167" s="4"/>
       <c r="C167" s="4"/>
@@ -9059,9 +9459,9 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B168" s="4"/>
       <c r="C168" s="4"/>
@@ -9073,9 +9473,9 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B169" s="4"/>
       <c r="C169" s="4"/>
@@ -9087,9 +9487,9 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="4"/>
@@ -9101,9 +9501,9 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B171" s="4"/>
       <c r="C171" s="4"/>
@@ -9115,9 +9515,9 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B172" s="4"/>
       <c r="C172" s="4"/>
@@ -9129,9 +9529,9 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B173" s="4"/>
       <c r="C173" s="4"/>
@@ -9143,9 +9543,9 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="4"/>
@@ -9157,9 +9557,9 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B175" s="4"/>
       <c r="C175" s="4"/>
@@ -9171,9 +9571,9 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B176" s="4"/>
       <c r="C176" s="4"/>
@@ -9185,9 +9585,9 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B177" s="4"/>
       <c r="C177" s="4"/>
@@ -9199,54 +9599,11 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A178" s="3">
-        <v>178</v>
-      </c>
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
-      <c r="D178" s="4"/>
-      <c r="E178" s="4"/>
-      <c r="F178" s="4"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="4"/>
-      <c r="I178" s="4"/>
-      <c r="J178" s="4"/>
-    </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A179" s="3">
-        <v>179</v>
-      </c>
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
-      <c r="D179" s="4"/>
-      <c r="E179" s="4"/>
-      <c r="F179" s="4"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="4"/>
-      <c r="I179" s="4"/>
-      <c r="J179" s="4"/>
-    </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A180" s="3">
-        <v>180</v>
-      </c>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
-      <c r="D180" s="4"/>
-      <c r="E180" s="4"/>
-      <c r="F180" s="4"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="4"/>
-      <c r="I180" s="4"/>
-      <c r="J180" s="4"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A2:J180">
+  <autoFilter ref="A2:J177">
     <filterColumn colId="4">
-      <filters blank="1">
-        <filter val="Dang Nguyen"/>
-        <filter val="Tuong Nguyen"/>
+      <filters>
+        <filter val="Nguyen Dinh"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9254,7 +9611,7 @@
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
-  <conditionalFormatting sqref="C1:C27 C170:C1048576 C46:C117">
+  <conditionalFormatting sqref="C1:C27 C46:C117 C127:C1048576">
     <cfRule type="cellIs" dxfId="67" priority="37" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -9334,7 +9691,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J170:J174 J3:J27 J46:J103">
+  <conditionalFormatting sqref="J167:J171 J3:J27 J46:J103">
     <cfRule type="colorScale" priority="225">
       <colorScale>
         <cfvo type="min"/>
@@ -9384,33 +9741,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C127:C169">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
-      <formula>"Very High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J127:J151">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J152">
+  <conditionalFormatting sqref="J149">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -9422,8 +9753,20 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J153:J161">
+  <conditionalFormatting sqref="J150:J158">
     <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J127:J148">
+    <cfRule type="colorScale" priority="348">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -9438,13 +9781,13 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27 E118:E126">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:E117 E127:E180">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E28:E117 E127:E177">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C174">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C171">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D173">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D170">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
   </dataValidations>
@@ -9455,22 +9798,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -9522,7 +9866,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F16" si="0">INT((G3-$K$3)/7)+1</f>
+        <f>INT((G3-$K$3)/7)+1</f>
         <v>2</v>
       </c>
       <c r="G3" s="14">
@@ -9558,7 +9902,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G4-$K$3)/7)+1</f>
         <v>3</v>
       </c>
       <c r="G4" s="14">
@@ -9591,7 +9935,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G5-$K$3)/7)+1</f>
         <v>3</v>
       </c>
       <c r="G5" s="14">
@@ -9624,7 +9968,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G6-$K$3)/7)+1</f>
         <v>5</v>
       </c>
       <c r="G6" s="14">
@@ -9657,7 +10001,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G7-$K$3)/7)+1</f>
         <v>6</v>
       </c>
       <c r="G7" s="14">
@@ -9690,7 +10034,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G8-$K$3)/7)+1</f>
         <v>9</v>
       </c>
       <c r="G8" s="14">
@@ -9723,7 +10067,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G9-$K$3)/7)+1</f>
         <v>12</v>
       </c>
       <c r="G9" s="14">
@@ -9756,7 +10100,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G10-$K$3)/7)+1</f>
         <v>15</v>
       </c>
       <c r="G10" s="14">
@@ -9789,7 +10133,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G11-$K$3)/7)+1</f>
         <v>16</v>
       </c>
       <c r="G11" s="14">
@@ -9822,7 +10166,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G12-$K$3)/7)+1</f>
         <v>17</v>
       </c>
       <c r="G12" s="14">
@@ -9855,7 +10199,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G13-$K$3)/7)+1</f>
         <v>17</v>
       </c>
       <c r="G13" s="14">
@@ -9888,7 +10232,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G14-$K$3)/7)+1</f>
         <v>17</v>
       </c>
       <c r="G14" s="14">
@@ -9921,7 +10265,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G15-$K$3)/7)+1</f>
         <v>17</v>
       </c>
       <c r="G15" s="14">
@@ -9954,149 +10298,389 @@
         <v>21</v>
       </c>
       <c r="F16" s="18">
-        <f t="shared" si="0"/>
+        <f>INT((G16-$K$3)/7)+1</f>
         <v>18</v>
       </c>
       <c r="G16" s="14">
         <v>40934</v>
       </c>
       <c r="H16" s="3">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="I16" s="5">
-        <v>65</v>
+        <v>159</v>
       </c>
       <c r="J16" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C18" s="21" t="s">
+    <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>15</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="3">
+        <v>23</v>
+      </c>
+      <c r="G17" s="14">
+        <v>40995</v>
+      </c>
+      <c r="H17" s="25">
+        <v>16</v>
+      </c>
+      <c r="I17" s="38">
+        <v>16</v>
+      </c>
+      <c r="J17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>16</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="3">
+        <v>23</v>
+      </c>
+      <c r="G18" s="14">
+        <v>40995</v>
+      </c>
+      <c r="H18" s="25">
+        <v>8</v>
+      </c>
+      <c r="I18" s="38">
+        <v>7</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>18</v>
+      </c>
+      <c r="B19" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="25">
+        <v>25</v>
+      </c>
+      <c r="G19" s="14">
+        <v>40999</v>
+      </c>
+      <c r="H19" s="25">
+        <v>9</v>
+      </c>
+      <c r="I19" s="38">
+        <v>8</v>
+      </c>
+      <c r="J19" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>20</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="25">
+        <v>25</v>
+      </c>
+      <c r="G20" s="14">
+        <v>40998</v>
+      </c>
+      <c r="H20" s="25">
+        <v>24</v>
+      </c>
+      <c r="I20" s="38">
+        <v>20</v>
+      </c>
+      <c r="J20" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>17</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>203</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="3">
+        <v>26</v>
+      </c>
+      <c r="G21" s="40">
+        <v>40996</v>
+      </c>
+      <c r="H21" s="25">
+        <v>8</v>
+      </c>
+      <c r="I21" s="38">
+        <v>8</v>
+      </c>
+      <c r="J21" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>19</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="25">
+        <v>31</v>
+      </c>
+      <c r="G22" s="14">
+        <v>41027</v>
+      </c>
+      <c r="H22" s="25">
+        <v>24</v>
+      </c>
+      <c r="I22" s="38">
+        <v>24</v>
+      </c>
+      <c r="J22" s="39">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="35"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C24" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D18" s="22">
-        <v>2</v>
-      </c>
-      <c r="E18" s="22">
+      <c r="D24" s="22">
+        <v>2</v>
+      </c>
+      <c r="E24" s="22">
         <v>3</v>
       </c>
-      <c r="F18" s="22">
+      <c r="F24" s="22">
         <v>5</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G24" s="22">
         <v>6</v>
       </c>
-      <c r="H18" s="22">
+      <c r="H24" s="22">
         <v>9</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I24" s="22">
         <v>12</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J24" s="22">
         <v>15</v>
       </c>
-      <c r="K18" s="22">
+      <c r="K24" s="22">
         <v>16</v>
       </c>
-      <c r="L18" s="22">
+      <c r="L24" s="22">
         <v>17</v>
       </c>
-      <c r="M18" s="22">
+      <c r="M24" s="22">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C19" s="21" t="s">
+      <c r="N24" s="22">
+        <v>23</v>
+      </c>
+      <c r="O24" s="22">
+        <v>25</v>
+      </c>
+      <c r="P24" s="22">
+        <v>26</v>
+      </c>
+      <c r="Q24" s="22">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D25" s="4">
         <v>8</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E25" s="4">
         <v>6</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F25" s="4">
         <v>16</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G25" s="4">
         <v>5</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H25" s="4">
         <v>3</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I25" s="4">
         <v>5</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J25" s="4">
         <v>20</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K25" s="4">
         <v>35</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L25" s="4">
         <f>SUM(H12:H15)</f>
         <v>61</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M25" s="4">
         <v>70</v>
       </c>
-    </row>
-    <row r="20" spans="3:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C20" s="21" t="s">
+      <c r="N25" s="4">
+        <v>24</v>
+      </c>
+      <c r="O25" s="4">
+        <v>33</v>
+      </c>
+      <c r="P25" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4">
         <v>4</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F26" s="4">
         <v>24</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G26" s="4">
         <v>3</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H26" s="4">
         <v>4.5</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I26" s="4">
         <v>5</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J26" s="4">
         <v>16</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K26" s="4">
         <v>34</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L26" s="4">
         <f>SUM(I12:I15)</f>
         <v>64.5</v>
       </c>
-      <c r="M20" s="4">
+      <c r="M26" s="4">
         <v>65</v>
+      </c>
+      <c r="N26" s="4">
+        <v>23</v>
+      </c>
+      <c r="O26" s="4">
+        <v>28</v>
+      </c>
+      <c r="P26" s="4">
+        <v>8</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J16"/>
-  <sortState ref="A3:K16">
+  <sortState ref="A3:K22">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="43" priority="1" operator="equal">
+  <conditionalFormatting sqref="C2:C23">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J16">
+  <conditionalFormatting sqref="J3:J23">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -10109,13 +10693,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D23">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C23">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10133,18 +10717,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -10184,7 +10768,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>33</v>
@@ -10248,7 +10832,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -10280,7 +10864,7 @@
         <v>12</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -10312,7 +10896,7 @@
         <v>14</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -10344,7 +10928,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>20</v>
@@ -10408,7 +10992,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>33</v>
@@ -10504,7 +11088,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
@@ -10536,7 +11120,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -10568,7 +11152,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -10600,7 +11184,7 @@
         <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -10664,7 +11248,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -10728,7 +11312,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>33</v>
@@ -10760,7 +11344,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -10824,7 +11408,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -10856,7 +11440,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>20</v>
@@ -10888,7 +11472,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -10920,7 +11504,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>19</v>
@@ -10987,7 +11571,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
@@ -11019,7 +11603,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>19</v>
@@ -11051,7 +11635,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>19</v>
@@ -11083,7 +11667,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
@@ -11115,7 +11699,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>20</v>
@@ -11322,16 +11906,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C34">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11371,14 +11955,14 @@
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12072,7 +12656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
         <v>4</v>
       </c>
@@ -12103,7 +12687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
         <v>5</v>
       </c>
@@ -12140,16 +12724,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="35" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12189,15 +12773,15 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -12866,7 +13450,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
         <v>5</v>
       </c>
@@ -12901,58 +13485,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="31" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C20">
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="23" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13004,17 +13588,17 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13745,7 +14329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -13778,7 +14362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -13811,7 +14395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="21" t="s">
         <v>134</v>
       </c>
@@ -13855,7 +14439,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
         <v>4</v>
       </c>
@@ -13901,7 +14485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="21" t="s">
         <v>5</v>
       </c>
@@ -13953,30 +14537,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C25">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14031,16 +14615,16 @@
       <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14372,12 +14956,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -14608,7 +15192,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -14641,7 +15225,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -14707,7 +15291,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C23" s="21" t="s">
         <v>4</v>
       </c>
@@ -14743,7 +15327,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
         <v>5</v>
       </c>
@@ -14785,16 +15369,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14830,20 +15414,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="C19" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:N29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -15043,7 +15627,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>20</v>
@@ -15652,7 +16236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
         <v>4</v>
       </c>
@@ -15691,7 +16275,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="21" t="s">
         <v>5</v>
       </c>
@@ -15736,16 +16320,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15779,55 +16363,1281 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B6"/>
+  <dimension ref="A2:R38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>146</v>
-      </c>
-      <c r="B4">
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5">
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6">
-        <v>16.5</v>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>40819</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>40821</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>40822</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>40823</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="14">
+        <v>40826</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14">
+        <v>40829</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>40843</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>40846</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14">
+        <v>40847</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14">
+        <v>40852</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7</v>
+      </c>
+      <c r="G13" s="14">
+        <v>40857</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="14">
+        <v>40857</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8</v>
+      </c>
+      <c r="G15" s="14">
+        <v>40864</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14">
+        <v>40864</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8</v>
+      </c>
+      <c r="G17" s="14">
+        <v>40867</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9</v>
+      </c>
+      <c r="G18" s="14">
+        <v>40868</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9</v>
+      </c>
+      <c r="G19" s="14">
+        <v>40869</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F20" s="4">
+        <v>9</v>
+      </c>
+      <c r="G20" s="14">
+        <v>40871</v>
+      </c>
+      <c r="H20" s="4">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14">
+        <v>40874</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14">
+        <v>40876</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23" s="14">
+        <v>40883</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="4">
+        <v>11</v>
+      </c>
+      <c r="G24" s="14">
+        <v>40884</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F25" s="4">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40884</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F26" s="4">
+        <v>11</v>
+      </c>
+      <c r="G26" s="14">
+        <v>40885</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F27" s="4">
+        <v>11</v>
+      </c>
+      <c r="G27" s="14">
+        <v>40886</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F28" s="4">
+        <v>12</v>
+      </c>
+      <c r="G28" s="14">
+        <v>40888</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F29" s="4">
+        <v>15</v>
+      </c>
+      <c r="G29" s="14">
+        <v>40916</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="4">
+        <v>16</v>
+      </c>
+      <c r="G30" s="14">
+        <v>40920</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>31</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F31" s="4">
+        <v>22</v>
+      </c>
+      <c r="G31" s="14">
+        <v>40959</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F32" s="4">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14">
+        <v>40967</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>21</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="4">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4">
+        <v>14</v>
+      </c>
+      <c r="J33" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="4">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4">
+        <v>4</v>
+      </c>
+      <c r="J34" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D36" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E36" s="22">
+        <v>2</v>
+      </c>
+      <c r="F36" s="22">
+        <v>3</v>
+      </c>
+      <c r="G36" s="22">
+        <v>5</v>
+      </c>
+      <c r="H36" s="22">
+        <v>6</v>
+      </c>
+      <c r="I36" s="22">
+        <v>7</v>
+      </c>
+      <c r="J36" s="22">
+        <v>8</v>
+      </c>
+      <c r="K36" s="22">
+        <v>9</v>
+      </c>
+      <c r="L36" s="22">
+        <v>10</v>
+      </c>
+      <c r="M36" s="22">
+        <v>11</v>
+      </c>
+      <c r="N36" s="22">
+        <v>12</v>
+      </c>
+      <c r="O36" s="22">
+        <v>15</v>
+      </c>
+      <c r="P36" s="22">
+        <v>16</v>
+      </c>
+      <c r="Q36" s="22">
+        <v>22</v>
+      </c>
+      <c r="R36" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D37" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="3">
+        <v>18</v>
+      </c>
+      <c r="F37" s="3">
+        <v>6</v>
+      </c>
+      <c r="G37" s="3">
+        <v>3</v>
+      </c>
+      <c r="H37" s="3">
+        <v>6</v>
+      </c>
+      <c r="I37" s="3">
+        <v>5</v>
+      </c>
+      <c r="J37" s="3">
+        <v>7</v>
+      </c>
+      <c r="K37" s="3">
+        <v>12</v>
+      </c>
+      <c r="L37" s="3">
+        <v>1</v>
+      </c>
+      <c r="M37" s="3">
+        <v>8</v>
+      </c>
+      <c r="N37" s="3">
+        <v>2</v>
+      </c>
+      <c r="O37" s="25">
+        <v>1</v>
+      </c>
+      <c r="P37" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>2</v>
+      </c>
+      <c r="R37" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="3">
+        <v>12</v>
+      </c>
+      <c r="F38" s="3">
+        <v>5</v>
+      </c>
+      <c r="G38" s="3">
+        <v>3</v>
+      </c>
+      <c r="H38" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I38" s="3">
+        <v>4</v>
+      </c>
+      <c r="J38" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="K38" s="3">
+        <v>9</v>
+      </c>
+      <c r="L38" s="3">
+        <v>1</v>
+      </c>
+      <c r="M38" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="N38" s="3">
+        <v>2</v>
+      </c>
+      <c r="O38" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P38" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>1</v>
+      </c>
+      <c r="R38" s="4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:J2"/>
+  <sortState ref="A3:J34">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:C34">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"Very High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J34">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34">
+      <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C34">
+      <formula1>"Very High,High, Medium, Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E34">
+      <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1475" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="222">
   <si>
     <t>No.</t>
   </si>
@@ -516,9 +516,6 @@
     <t>Update Design decision, design rationale</t>
   </si>
   <si>
-    <t>Make the interface for "Union Task Management"</t>
-  </si>
-  <si>
     <t>Update Static, Dynamic, and Behavior Diagram</t>
   </si>
   <si>
@@ -534,10 +531,6 @@
     <t>Document Architecture Design</t>
   </si>
   <si>
-    <t>Make the interface for "Family Relationship
-Management"</t>
-  </si>
-  <si>
     <t>Update Concept of Operation (mục 7 và quá trình diễn biến lương</t>
   </si>
   <si>
@@ -656,6 +649,60 @@
   </si>
   <si>
     <t>Programming "Employee Report"</t>
+  </si>
+  <si>
+    <t>Programming "Reward Management"</t>
+  </si>
+  <si>
+    <t>Programming "Penalty Management"</t>
+  </si>
+  <si>
+    <t>Programming "Communist Party Management"</t>
+  </si>
+  <si>
+    <t>Programming "Lecture Position Management"</t>
+  </si>
+  <si>
+    <t>Programming "Science Research"</t>
+  </si>
+  <si>
+    <t>Programming "Mobilization"</t>
+  </si>
+  <si>
+    <t>Programming "Syllabus"</t>
+  </si>
+  <si>
+    <t>Programming "Staff Internship"</t>
+  </si>
+  <si>
+    <t>Programming "Task notenook"</t>
+  </si>
+  <si>
+    <t>Programming "Trainning Course"</t>
+  </si>
+  <si>
+    <t>Programming "Lecture Probation"</t>
+  </si>
+  <si>
+    <t>Programming "Family Relationship"</t>
+  </si>
+  <si>
+    <t>Programming "Article"</t>
+  </si>
+  <si>
+    <t>Programming "Work"</t>
+  </si>
+  <si>
+    <t>Programming "Master Thesis"</t>
+  </si>
+  <si>
+    <t>Programming "Other"</t>
+  </si>
+  <si>
+    <t>Programming "Union"</t>
+  </si>
+  <si>
+    <t>Programming "Trade Union"</t>
   </si>
 </sst>
 </file>
@@ -812,7 +859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -861,9 +908,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -886,17 +930,246 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="96">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1897,7 +2170,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tuong Nguyen'!$C$37</c:f>
+              <c:f>'Tuong Nguyen'!$C$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1908,7 +2181,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Tuong Nguyen'!$D$37:$O$37</c:f>
+              <c:f>'Tuong Nguyen'!$D$39:$O$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1940,10 +2213,10 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>26</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47.5</c:v>
+                  <c:v>45.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>6</c:v>
@@ -1958,7 +2231,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tuong Nguyen'!$C$38</c:f>
+              <c:f>'Tuong Nguyen'!$C$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1969,7 +2242,7 @@
           </c:tx>
           <c:val>
             <c:numRef>
-              <c:f>'Tuong Nguyen'!$D$38:$O$38</c:f>
+              <c:f>'Tuong Nguyen'!$D$40:$O$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2001,10 +2274,10 @@
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29</c:v>
+                  <c:v>26.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.5</c:v>
+                  <c:v>39</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>5.5</c:v>
@@ -2064,6 +2337,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2103,7 +2377,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Loc Phan'!$C$24</c:f>
+              <c:f>'Loc Phan'!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2144,7 +2418,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Loc Phan'!$D$24:$K$24</c:f>
+              <c:f>'Loc Phan'!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2182,7 +2456,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Loc Phan'!$C$25</c:f>
+              <c:f>'Loc Phan'!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2223,7 +2497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Loc Phan'!$D$25:$K$25</c:f>
+              <c:f>'Loc Phan'!$D$30:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2306,6 +2580,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2345,7 +2620,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nhung Huynh'!$C$23</c:f>
+              <c:f>'Nhung Huynh'!$C$29</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2386,7 +2661,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nhung Huynh'!$D$23:$K$23</c:f>
+              <c:f>'Nhung Huynh'!$D$29:$K$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2424,7 +2699,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nhung Huynh'!$C$24</c:f>
+              <c:f>'Nhung Huynh'!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2465,7 +2740,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nhung Huynh'!$D$24:$K$24</c:f>
+              <c:f>'Nhung Huynh'!$D$30:$K$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -2548,6 +2823,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2587,7 +2863,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Quyet Nguyen'!$C$28</c:f>
+              <c:f>'Quyet Nguyen'!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2643,7 +2919,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quyet Nguyen'!$D$28:$P$28</c:f>
+              <c:f>'Quyet Nguyen'!$D$33:$P$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2696,7 +2972,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Quyet Nguyen'!$C$29</c:f>
+              <c:f>'Quyet Nguyen'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2752,7 +3028,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Quyet Nguyen'!$D$29:$P$29</c:f>
+              <c:f>'Quyet Nguyen'!$D$34:$P$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -2850,6 +3126,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2889,7 +3166,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tung Nguyen'!$C$23</c:f>
+              <c:f>'Tung Nguyen'!$C$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2936,7 +3213,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tung Nguyen'!$D$23:$M$23</c:f>
+              <c:f>'Tung Nguyen'!$D$26:$M$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2980,7 +3257,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Tung Nguyen'!$C$24</c:f>
+              <c:f>'Tung Nguyen'!$C$27</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3027,7 +3304,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tung Nguyen'!$D$24:$M$24</c:f>
+              <c:f>'Tung Nguyen'!$D$27:$M$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3116,6 +3393,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4321,18 +4599,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -8386,7 +8664,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C127" s="4" t="s">
         <v>19</v>
@@ -8395,7 +8673,7 @@
         <v>26</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F127" s="4">
         <v>2</v>
@@ -8416,7 +8694,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C128" s="4" t="s">
         <v>20</v>
@@ -8425,7 +8703,7 @@
         <v>26</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F128" s="4">
         <v>2</v>
@@ -8455,7 +8733,7 @@
         <v>26</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F129" s="4">
         <v>2</v>
@@ -8476,7 +8754,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>20</v>
@@ -8485,7 +8763,7 @@
         <v>26</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F130" s="4">
         <v>2</v>
@@ -8506,7 +8784,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>19</v>
@@ -8515,7 +8793,7 @@
         <v>26</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F131" s="4">
         <v>3</v>
@@ -8536,7 +8814,7 @@
         <v>132</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>19</v>
@@ -8545,7 +8823,7 @@
         <v>26</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F132" s="4">
         <v>3</v>
@@ -8566,7 +8844,7 @@
         <v>134</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>19</v>
@@ -8575,7 +8853,7 @@
         <v>26</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F133" s="4">
         <v>5</v>
@@ -8596,7 +8874,7 @@
         <v>135</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>19</v>
@@ -8605,7 +8883,7 @@
         <v>26</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F134" s="4">
         <v>5</v>
@@ -8626,7 +8904,7 @@
         <v>136</v>
       </c>
       <c r="B135" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C135" s="4" t="s">
         <v>19</v>
@@ -8635,7 +8913,7 @@
         <v>26</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F135" s="4">
         <v>6</v>
@@ -8656,7 +8934,7 @@
         <v>137</v>
       </c>
       <c r="B136" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C136" s="4" t="s">
         <v>9</v>
@@ -8665,7 +8943,7 @@
         <v>27</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F136" s="4">
         <v>6</v>
@@ -8686,7 +8964,7 @@
         <v>140</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C137" s="4" t="s">
         <v>20</v>
@@ -8695,7 +8973,7 @@
         <v>26</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F137" s="4">
         <v>7</v>
@@ -8716,7 +8994,7 @@
         <v>141</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C138" s="4" t="s">
         <v>19</v>
@@ -8725,7 +9003,7 @@
         <v>26</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F138" s="4">
         <v>7</v>
@@ -8746,7 +9024,7 @@
         <v>142</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C139" s="4" t="s">
         <v>19</v>
@@ -8755,7 +9033,7 @@
         <v>26</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F139" s="4">
         <v>8</v>
@@ -8776,7 +9054,7 @@
         <v>143</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C140" s="4" t="s">
         <v>33</v>
@@ -8785,7 +9063,7 @@
         <v>26</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F140" s="4">
         <v>8</v>
@@ -8806,7 +9084,7 @@
         <v>144</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C141" s="4" t="s">
         <v>19</v>
@@ -8815,7 +9093,7 @@
         <v>26</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F141" s="4">
         <v>8</v>
@@ -8836,7 +9114,7 @@
         <v>145</v>
       </c>
       <c r="B142" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C142" s="4" t="s">
         <v>19</v>
@@ -8845,7 +9123,7 @@
         <v>26</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F142" s="4">
         <v>9</v>
@@ -8866,7 +9144,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C143" s="4" t="s">
         <v>19</v>
@@ -8875,7 +9153,7 @@
         <v>26</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F143" s="4">
         <v>9</v>
@@ -8896,7 +9174,7 @@
         <v>147</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C144" s="4" t="s">
         <v>19</v>
@@ -8905,7 +9183,7 @@
         <v>26</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F144" s="4">
         <v>9</v>
@@ -8926,7 +9204,7 @@
         <v>148</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C145" s="4" t="s">
         <v>19</v>
@@ -8935,7 +9213,7 @@
         <v>26</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F145" s="4">
         <v>9</v>
@@ -8956,7 +9234,7 @@
         <v>149</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C146" s="4" t="s">
         <v>19</v>
@@ -8965,7 +9243,7 @@
         <v>26</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F146" s="4">
         <v>10</v>
@@ -8986,7 +9264,7 @@
         <v>150</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C147" s="4" t="s">
         <v>9</v>
@@ -8995,7 +9273,7 @@
         <v>28</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F147" s="4"/>
       <c r="G147" s="14"/>
@@ -9012,7 +9290,7 @@
         <v>151</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C148" s="4" t="s">
         <v>19</v>
@@ -9021,7 +9299,7 @@
         <v>26</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F148" s="4">
         <v>11</v>
@@ -9042,7 +9320,7 @@
         <v>152</v>
       </c>
       <c r="B149" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C149" s="4" t="s">
         <v>19</v>
@@ -9051,7 +9329,7 @@
         <v>26</v>
       </c>
       <c r="E149" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F149" s="4">
         <v>11</v>
@@ -9072,7 +9350,7 @@
         <v>153</v>
       </c>
       <c r="B150" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C150" s="4" t="s">
         <v>19</v>
@@ -9081,7 +9359,7 @@
         <v>26</v>
       </c>
       <c r="E150" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F150" s="4">
         <v>11</v>
@@ -9102,7 +9380,7 @@
         <v>154</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C151" s="4" t="s">
         <v>33</v>
@@ -9111,7 +9389,7 @@
         <v>26</v>
       </c>
       <c r="E151" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F151" s="4">
         <v>11</v>
@@ -9132,7 +9410,7 @@
         <v>155</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C152" s="4" t="s">
         <v>19</v>
@@ -9141,7 +9419,7 @@
         <v>26</v>
       </c>
       <c r="E152" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F152" s="4">
         <v>11</v>
@@ -9162,7 +9440,7 @@
         <v>156</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C153" s="4" t="s">
         <v>19</v>
@@ -9171,7 +9449,7 @@
         <v>26</v>
       </c>
       <c r="E153" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F153" s="4">
         <v>12</v>
@@ -9192,7 +9470,7 @@
         <v>157</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C154" s="4" t="s">
         <v>33</v>
@@ -9201,7 +9479,7 @@
         <v>27</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F154" s="4">
         <v>15</v>
@@ -9222,7 +9500,7 @@
         <v>158</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C155" s="4" t="s">
         <v>19</v>
@@ -9231,7 +9509,7 @@
         <v>27</v>
       </c>
       <c r="E155" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F155" s="4">
         <v>16</v>
@@ -9252,7 +9530,7 @@
         <v>159</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C156" s="4" t="s">
         <v>19</v>
@@ -9261,7 +9539,7 @@
         <v>26</v>
       </c>
       <c r="E156" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F156" s="4"/>
       <c r="G156" s="14"/>
@@ -9278,7 +9556,7 @@
         <v>160</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C157" s="4" t="s">
         <v>19</v>
@@ -9287,7 +9565,7 @@
         <v>26</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F157" s="4">
         <v>22</v>
@@ -9308,7 +9586,7 @@
         <v>161</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C158" s="4" t="s">
         <v>33</v>
@@ -9317,7 +9595,7 @@
         <v>27</v>
       </c>
       <c r="E158" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F158" s="4">
         <v>23</v>
@@ -9612,58 +9890,58 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C46:C117 C127:C1048576">
-    <cfRule type="cellIs" dxfId="67" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9704,16 +9982,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9800,8 +10078,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10318,8 +10596,8 @@
       <c r="A17" s="25">
         <v>15</v>
       </c>
-      <c r="B17" s="37" t="s">
-        <v>201</v>
+      <c r="B17" s="36" t="s">
+        <v>199</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>9</v>
@@ -10339,7 +10617,7 @@
       <c r="H17" s="25">
         <v>16</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="37">
         <v>16</v>
       </c>
       <c r="J17" s="4">
@@ -10350,8 +10628,8 @@
       <c r="A18" s="25">
         <v>16</v>
       </c>
-      <c r="B18" s="37" t="s">
-        <v>202</v>
+      <c r="B18" s="36" t="s">
+        <v>200</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>9</v>
@@ -10371,7 +10649,7 @@
       <c r="H18" s="25">
         <v>8</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="37">
         <v>7</v>
       </c>
       <c r="J18" s="4">
@@ -10382,8 +10660,8 @@
       <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="37" t="s">
-        <v>204</v>
+      <c r="B19" s="36" t="s">
+        <v>202</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>9</v>
@@ -10403,10 +10681,10 @@
       <c r="H19" s="25">
         <v>9</v>
       </c>
-      <c r="I19" s="38">
+      <c r="I19" s="37">
         <v>8</v>
       </c>
-      <c r="J19" s="39">
+      <c r="J19" s="38">
         <v>100</v>
       </c>
     </row>
@@ -10414,7 +10692,7 @@
       <c r="A20" s="25">
         <v>20</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="36" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -10435,10 +10713,10 @@
       <c r="H20" s="25">
         <v>24</v>
       </c>
-      <c r="I20" s="38">
+      <c r="I20" s="37">
         <v>20</v>
       </c>
-      <c r="J20" s="39">
+      <c r="J20" s="38">
         <v>100</v>
       </c>
     </row>
@@ -10446,8 +10724,8 @@
       <c r="A21" s="25">
         <v>17</v>
       </c>
-      <c r="B21" s="37" t="s">
-        <v>203</v>
+      <c r="B21" s="36" t="s">
+        <v>201</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>9</v>
@@ -10461,16 +10739,16 @@
       <c r="F21" s="3">
         <v>26</v>
       </c>
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <v>40996</v>
       </c>
       <c r="H21" s="25">
         <v>8</v>
       </c>
-      <c r="I21" s="38">
+      <c r="I21" s="37">
         <v>8</v>
       </c>
-      <c r="J21" s="39">
+      <c r="J21" s="38">
         <v>100</v>
       </c>
     </row>
@@ -10478,8 +10756,8 @@
       <c r="A22" s="25">
         <v>19</v>
       </c>
-      <c r="B22" s="37" t="s">
-        <v>205</v>
+      <c r="B22" s="36" t="s">
+        <v>203</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>9</v>
@@ -10499,24 +10777,24 @@
       <c r="H22" s="25">
         <v>24</v>
       </c>
-      <c r="I22" s="38">
+      <c r="I22" s="37">
         <v>24</v>
       </c>
-      <c r="J22" s="39">
+      <c r="J22" s="38">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="42"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
@@ -10667,16 +10945,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10711,10 +10989,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O38"/>
+  <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10765,7 +11043,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B3" s="23" t="s">
         <v>144</v>
@@ -10797,7 +11075,7 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>10</v>
@@ -10829,7 +11107,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>146</v>
@@ -10861,7 +11139,7 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>145</v>
@@ -10893,7 +11171,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>147</v>
@@ -10925,7 +11203,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>149</v>
@@ -10957,7 +11235,7 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>131</v>
@@ -10989,7 +11267,7 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>148</v>
@@ -11021,7 +11299,7 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>34</v>
@@ -11053,7 +11331,7 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>35</v>
@@ -11085,7 +11363,7 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>150</v>
@@ -11117,7 +11395,7 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>151</v>
@@ -11138,10 +11416,10 @@
         <v>40852</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J14" s="4">
         <v>100</v>
@@ -11149,7 +11427,7 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>152</v>
@@ -11181,10 +11459,10 @@
     </row>
     <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -11213,7 +11491,7 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>38</v>
@@ -11245,7 +11523,7 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>153</v>
@@ -11277,7 +11555,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>40</v>
@@ -11309,7 +11587,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>155</v>
@@ -11341,7 +11619,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>154</v>
@@ -11373,7 +11651,7 @@
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>36</v>
@@ -11405,7 +11683,7 @@
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>156</v>
@@ -11437,7 +11715,7 @@
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>157</v>
@@ -11469,7 +11747,7 @@
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>158</v>
@@ -11499,47 +11777,50 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>165</v>
+      <c r="B26" s="24" t="s">
+        <v>14</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F26" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="14">
-        <v>40894</v>
+        <v>40896</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I26" s="3">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="J26" s="4">
         <v>100</v>
+      </c>
+      <c r="K26" s="17">
+        <v>40812</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>7</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>14</v>
+        <v>27</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>159</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>25</v>
@@ -11554,30 +11835,27 @@
         <v>40896</v>
       </c>
       <c r="H27" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I27" s="3">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="J27" s="4">
         <v>100</v>
-      </c>
-      <c r="K27" s="17">
-        <v>40812</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E28" s="4" t="s">
         <v>32</v>
@@ -11586,13 +11864,13 @@
         <v>13</v>
       </c>
       <c r="G28" s="14">
-        <v>40895</v>
+        <v>40896</v>
       </c>
       <c r="H28" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="I28" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J28" s="4">
         <v>100</v>
@@ -11600,16 +11878,16 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>32</v>
@@ -11621,10 +11899,10 @@
         <v>40896</v>
       </c>
       <c r="H29" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="J29" s="4">
         <v>100</v>
@@ -11632,13 +11910,13 @@
     </row>
     <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>25</v>
@@ -11650,13 +11928,13 @@
         <v>13</v>
       </c>
       <c r="G30" s="14">
-        <v>40896</v>
+        <v>40898</v>
       </c>
       <c r="H30" s="3">
-        <v>1.5</v>
+        <v>35</v>
       </c>
       <c r="I30" s="3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="J30" s="4">
         <v>100</v>
@@ -11664,263 +11942,383 @@
     </row>
     <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F31" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G31" s="14">
-        <v>40896</v>
+        <v>40916</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I31" s="3">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="J31" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F32" s="18">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="G32" s="14">
-        <v>40898</v>
+        <v>40995</v>
       </c>
       <c r="H32" s="3">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="I32" s="3">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="J32" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>32</v>
       </c>
       <c r="F33" s="18">
+        <v>27</v>
+      </c>
+      <c r="G33" s="14">
+        <v>40998</v>
+      </c>
+      <c r="H33" s="3">
+        <v>8</v>
+      </c>
+      <c r="I33" s="3">
+        <v>6</v>
+      </c>
+      <c r="J33" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>36</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="3">
+        <v>27</v>
+      </c>
+      <c r="G34" s="16">
+        <v>41005</v>
+      </c>
+      <c r="H34" s="3">
+        <v>30</v>
+      </c>
+      <c r="I34" s="3">
+        <v>27</v>
+      </c>
+      <c r="J34" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>35</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F35" s="3">
+        <v>28</v>
+      </c>
+      <c r="G35" s="16">
+        <v>41005</v>
+      </c>
+      <c r="H35" s="3">
+        <v>8</v>
+      </c>
+      <c r="I35" s="3">
+        <v>6</v>
+      </c>
+      <c r="J35" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F36" s="3">
+        <v>29</v>
+      </c>
+      <c r="G36" s="14">
+        <v>41009</v>
+      </c>
+      <c r="H36" s="3">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3">
+        <v>28</v>
+      </c>
+      <c r="J36" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="10"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="44"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="44"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C38" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="41">
+        <v>2</v>
+      </c>
+      <c r="E38" s="41">
+        <v>3</v>
+      </c>
+      <c r="F38" s="41">
+        <v>4</v>
+      </c>
+      <c r="G38" s="41">
+        <v>5</v>
+      </c>
+      <c r="H38" s="41">
+        <v>6</v>
+      </c>
+      <c r="I38" s="41">
+        <v>7</v>
+      </c>
+      <c r="J38" s="41">
+        <v>9</v>
+      </c>
+      <c r="K38" s="22">
+        <v>10</v>
+      </c>
+      <c r="L38" s="22">
+        <v>11</v>
+      </c>
+      <c r="M38" s="22">
+        <v>12</v>
+      </c>
+      <c r="N38" s="22">
+        <v>13</v>
+      </c>
+      <c r="O38" s="22">
         <v>15</v>
       </c>
-      <c r="G33" s="14">
-        <v>40916</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="P38" s="22">
+        <v>27</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>28</v>
+      </c>
+      <c r="R38" s="22">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>9</v>
+      </c>
+      <c r="F39" s="4">
+        <v>8</v>
+      </c>
+      <c r="G39" s="4">
+        <v>2</v>
+      </c>
+      <c r="H39" s="4">
+        <v>22</v>
+      </c>
+      <c r="I39" s="4">
+        <v>22</v>
+      </c>
+      <c r="J39" s="4">
+        <v>10</v>
+      </c>
+      <c r="K39" s="4">
+        <v>4</v>
+      </c>
+      <c r="L39" s="20">
+        <v>2</v>
+      </c>
+      <c r="M39" s="20">
+        <f>SUM(H21:H25)</f>
+        <v>23</v>
+      </c>
+      <c r="N39" s="20">
+        <f>SUM(H26:H30)</f>
+        <v>45.5</v>
+      </c>
+      <c r="O39" s="29">
         <v>6</v>
       </c>
-      <c r="I33" s="3">
+      <c r="P39" s="20">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>8</v>
+      </c>
+      <c r="R39" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C40" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4">
+        <v>7</v>
+      </c>
+      <c r="G40" s="4">
+        <v>3</v>
+      </c>
+      <c r="H40" s="4">
+        <v>24.5</v>
+      </c>
+      <c r="I40" s="4">
+        <v>22.5</v>
+      </c>
+      <c r="J40" s="4">
+        <v>8.5</v>
+      </c>
+      <c r="K40" s="4">
+        <v>3</v>
+      </c>
+      <c r="L40" s="20">
+        <v>3.5</v>
+      </c>
+      <c r="M40" s="20">
+        <f>SUM(I21:I25)</f>
+        <v>26.5</v>
+      </c>
+      <c r="N40" s="20">
+        <f>SUM(I26:I30)</f>
+        <v>39</v>
+      </c>
+      <c r="O40" s="29">
         <v>5.5</v>
       </c>
-      <c r="J33" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="26"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-    </row>
-    <row r="35" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="E35" s="27"/>
-    </row>
-    <row r="36" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C36" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D36" s="22">
-        <v>2</v>
-      </c>
-      <c r="E36" s="22">
-        <v>3</v>
-      </c>
-      <c r="F36" s="22">
-        <v>4</v>
-      </c>
-      <c r="G36" s="22">
-        <v>5</v>
-      </c>
-      <c r="H36" s="22">
+      <c r="P40" s="20">
+        <v>38</v>
+      </c>
+      <c r="Q40" s="20">
         <v>6</v>
       </c>
-      <c r="I36" s="22">
-        <v>7</v>
-      </c>
-      <c r="J36" s="22">
-        <v>9</v>
-      </c>
-      <c r="K36" s="22">
-        <v>10</v>
-      </c>
-      <c r="L36" s="22">
-        <v>11</v>
-      </c>
-      <c r="M36" s="22">
-        <v>12</v>
-      </c>
-      <c r="N36" s="22">
-        <v>13</v>
-      </c>
-      <c r="O36" s="22">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C37" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D37" s="4">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>9</v>
-      </c>
-      <c r="F37" s="4">
-        <v>8</v>
-      </c>
-      <c r="G37" s="4">
-        <v>2</v>
-      </c>
-      <c r="H37" s="4">
-        <v>22</v>
-      </c>
-      <c r="I37" s="4">
-        <v>22</v>
-      </c>
-      <c r="J37" s="4">
-        <v>10</v>
-      </c>
-      <c r="K37" s="4">
-        <v>4</v>
-      </c>
-      <c r="L37" s="20">
-        <v>2</v>
-      </c>
-      <c r="M37" s="20">
-        <f>SUM(H21:H26)</f>
-        <v>26</v>
-      </c>
-      <c r="N37" s="20">
-        <f>SUM(H27:H32)</f>
-        <v>47.5</v>
-      </c>
-      <c r="O37" s="30">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="4">
-        <v>2</v>
-      </c>
-      <c r="E38" s="4">
-        <v>8</v>
-      </c>
-      <c r="F38" s="4">
-        <v>7</v>
-      </c>
-      <c r="G38" s="4">
-        <v>3</v>
-      </c>
-      <c r="H38" s="4">
-        <v>24.5</v>
-      </c>
-      <c r="I38" s="4">
-        <v>22.5</v>
-      </c>
-      <c r="J38" s="4">
-        <v>8.5</v>
-      </c>
-      <c r="K38" s="4">
-        <v>3</v>
-      </c>
-      <c r="L38" s="20">
-        <v>3.5</v>
-      </c>
-      <c r="M38" s="20">
-        <f>SUM(I21:I26)</f>
-        <v>29</v>
-      </c>
-      <c r="N38" s="20">
-        <f>SUM(I27:I32)</f>
-        <v>40.5</v>
-      </c>
-      <c r="O38" s="30">
-        <v>5.5</v>
+      <c r="R40" s="20">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:J12"/>
-  <sortState ref="A3:K33">
-    <sortCondition ref="F3"/>
+  <sortState ref="A3:K36">
+    <sortCondition ref="F36"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C34">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:C36">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J34">
-    <cfRule type="colorScale" priority="307">
+  <conditionalFormatting sqref="J3:J36">
+    <cfRule type="colorScale" priority="366">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -11932,33 +12330,35 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D36">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C36">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E35">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E37">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
@@ -12029,7 +12429,7 @@
       <c r="J3" s="4">
         <v>100</v>
       </c>
-      <c r="K3" s="33">
+      <c r="K3" s="32">
         <v>40817</v>
       </c>
     </row>
@@ -12530,7 +12930,7 @@
     </row>
     <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>101</v>
@@ -12563,7 +12963,7 @@
     </row>
     <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>102</v>
@@ -12596,7 +12996,7 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>100</v>
@@ -12627,94 +13027,204 @@
         <v>100</v>
       </c>
     </row>
+    <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
+      <c r="J26" s="20"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="22">
+      <c r="D28" s="22">
         <v>1</v>
       </c>
-      <c r="E23" s="22">
+      <c r="E28" s="22">
         <v>5</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F28" s="22">
         <v>6</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G28" s="22">
         <v>7</v>
       </c>
-      <c r="H23" s="22">
+      <c r="H28" s="22">
         <v>8</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I28" s="22">
         <v>10</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J28" s="22">
         <v>11</v>
       </c>
-      <c r="K23" s="22">
+      <c r="K28" s="22">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D29" s="4">
         <f>SUM(H3:H8)</f>
         <v>22</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E29" s="4">
         <f>SUM(H5:H8)</f>
         <v>12</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F29" s="4">
         <v>5</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G29" s="4">
         <v>6</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H29" s="4">
         <v>8</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I29" s="4">
         <v>6</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J29" s="4">
         <v>8</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K29" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C25" s="21" t="s">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D30" s="4">
         <f>SUM(I3:I8)</f>
         <v>20</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E30" s="4">
         <f>SUM(I5:I8)</f>
         <v>13</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F30" s="4">
         <v>3</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G30" s="4">
         <v>5.5</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H30" s="4">
         <v>8</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I30" s="4">
         <v>7</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J30" s="4">
         <v>8</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K30" s="4">
         <v>3</v>
       </c>
     </row>
@@ -12723,17 +13233,17 @@
   <sortState ref="A3:K21">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C21">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:C26">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12750,13 +13260,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D26">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C26">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E26">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12767,17 +13277,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K24"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -13392,90 +13902,200 @@
         <v>100</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C28" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D28" s="22">
         <v>3</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E28" s="22">
         <v>7</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F28" s="22">
         <v>11</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G28" s="22">
         <v>12</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H28" s="22">
         <v>13</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I28" s="22">
         <v>15</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J28" s="22">
         <v>16</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K28" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C29" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D29" s="4">
         <v>12</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E29" s="4">
         <v>15</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F29" s="4">
         <v>16</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G29" s="4">
         <v>9</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H29" s="4">
         <v>42</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I29" s="4">
         <v>13</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J29" s="4">
         <v>12</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K29" s="4">
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D30" s="4">
         <v>11.5</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E30" s="4">
         <v>10.5</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F30" s="4">
         <v>14</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G30" s="4">
         <v>5.5</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H30" s="4">
         <v>42</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I30" s="4">
         <v>12.5</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J30" s="4">
         <v>12</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K30" s="4">
         <v>55</v>
       </c>
     </row>
@@ -13485,58 +14105,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C11:C20">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+  <conditionalFormatting sqref="C11:C25">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13565,13 +14185,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D25">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C25">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13582,16 +14202,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P29"/>
+  <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
@@ -14395,139 +15016,249 @@
         <v>100</v>
       </c>
     </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+    </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C27" s="21" t="s">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="18"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D32" s="22">
         <v>2</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E32" s="22">
         <v>3</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F32" s="22">
         <v>4</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G32" s="22">
         <v>5</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H32" s="22">
         <v>6</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I32" s="22">
         <v>7</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J32" s="22">
         <v>9</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K32" s="22">
         <v>10</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L32" s="22">
         <v>11</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M32" s="22">
         <v>12</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N32" s="22">
         <v>13</v>
       </c>
-      <c r="O27" s="22">
+      <c r="O32" s="22">
         <v>17</v>
       </c>
-      <c r="P27" s="22">
+      <c r="P32" s="22">
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
+    <row r="33" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D33" s="4">
         <f>SUM(H3:H7)</f>
         <v>14</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E33" s="4">
         <v>5</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F33" s="4">
         <v>11</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G33" s="4">
         <f>SUM(H12:H15)</f>
         <v>22</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H33" s="4">
         <v>10</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I33" s="4">
         <v>2</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J33" s="4">
         <v>1</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K33" s="4">
         <v>6</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L33" s="4">
         <v>3</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M33" s="4">
         <v>3</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N33" s="4">
         <v>2</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O33" s="4">
         <v>6</v>
       </c>
-      <c r="P28" s="4">
+      <c r="P33" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="21" t="s">
+    <row r="34" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D34" s="4">
         <f>SUM(I3:I7)</f>
         <v>20</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E34" s="4">
         <v>4.5</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F34" s="4">
         <v>10</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G34" s="4">
         <f>SUM(I12:I15)</f>
         <v>17</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H34" s="4">
         <v>7</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I34" s="4">
         <v>3</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J34" s="4">
         <v>2</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K34" s="4">
         <v>6</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L34" s="4">
         <v>3</v>
       </c>
-      <c r="M29" s="4">
+      <c r="M34" s="4">
         <v>4</v>
       </c>
-      <c r="N29" s="4">
+      <c r="N34" s="4">
         <v>1</v>
       </c>
-      <c r="O29" s="4">
+      <c r="O34" s="4">
         <v>3</v>
       </c>
-      <c r="P29" s="4">
+      <c r="P34" s="4">
         <v>5</v>
       </c>
     </row>
@@ -14537,34 +15268,34 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C25">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+  <conditionalFormatting sqref="C17:C30">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J25">
+  <conditionalFormatting sqref="J17:J30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -14589,16 +15320,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E30">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14609,16 +15340,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="47.140625" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
@@ -14960,8 +15692,8 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>166</v>
+      <c r="B12" s="30" t="s">
+        <v>164</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -15192,7 +15924,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>20</v>
@@ -15224,8 +15956,8 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="32" t="s">
-        <v>167</v>
+      <c r="B20" s="31" t="s">
+        <v>165</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -15252,114 +15984,185 @@
       <c r="J20" s="4">
         <v>100</v>
       </c>
-      <c r="K20" s="33">
+      <c r="K20" s="32">
         <v>40817</v>
       </c>
     </row>
+    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="32"/>
+    </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C22" s="21" t="s">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="38" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+    </row>
+    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="43"/>
+    </row>
+    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D25" s="22">
         <v>1</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E25" s="22">
         <v>2</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F25" s="22">
         <v>3</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G25" s="22">
         <v>4</v>
       </c>
-      <c r="H22" s="22">
+      <c r="H25" s="22">
         <v>5</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I25" s="22">
         <v>6</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J25" s="22">
         <v>7</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K25" s="22">
         <v>9</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L25" s="22">
         <v>12</v>
       </c>
-      <c r="M22" s="22">
+      <c r="M25" s="22">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C23" s="21" t="s">
+    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D26" s="4">
         <f>SUM(H3:H6)</f>
         <v>11</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E26" s="4">
         <v>11</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F26" s="4">
         <v>11</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G26" s="4">
         <v>9</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H26" s="4">
         <v>13</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I26" s="4">
         <v>10</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J26" s="4">
         <v>3</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K26" s="4">
         <v>14</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L26" s="4">
         <v>6</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M26" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C24" s="21" t="s">
+    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C27" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D27" s="4">
         <f>SUM(I3:I6)</f>
         <v>6</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E27" s="4">
         <v>10</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F27" s="4">
         <v>11</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G27" s="4">
         <v>9</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H27" s="4">
         <v>12</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I27" s="4">
         <v>11</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J27" s="4">
         <v>3</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K27" s="4">
         <v>13</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L27" s="4">
         <v>5</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M27" s="4">
         <v>4</v>
       </c>
     </row>
@@ -15368,21 +16171,21 @@
   <sortState ref="A3:J18">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C20">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:C23">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J20">
+  <conditionalFormatting sqref="J3:J21">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -15395,13 +16198,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D23">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C23">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E23">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15414,7 +16217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="C19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
       <selection activeCell="C27" sqref="C27:N29"/>
     </sheetView>
   </sheetViews>
@@ -15627,7 +16430,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>20</v>
@@ -16320,16 +17123,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16418,7 +17221,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -16427,7 +17230,7 @@
         <v>26</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F3" s="4">
         <v>2</v>
@@ -16450,7 +17253,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>20</v>
@@ -16459,7 +17262,7 @@
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -16491,7 +17294,7 @@
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -16514,7 +17317,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>20</v>
@@ -16523,7 +17326,7 @@
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F6" s="4">
         <v>2</v>
@@ -16546,7 +17349,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -16555,7 +17358,7 @@
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F7" s="4">
         <v>3</v>
@@ -16578,7 +17381,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -16587,7 +17390,7 @@
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F8" s="4">
         <v>3</v>
@@ -16610,7 +17413,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -16619,7 +17422,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F9" s="4">
         <v>5</v>
@@ -16642,7 +17445,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
@@ -16651,7 +17454,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F10" s="4">
         <v>5</v>
@@ -16674,7 +17477,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -16683,7 +17486,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F11" s="4">
         <v>6</v>
@@ -16706,7 +17509,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>9</v>
@@ -16715,7 +17518,7 @@
         <v>27</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F12" s="4">
         <v>6</v>
@@ -16738,7 +17541,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>20</v>
@@ -16747,7 +17550,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F13" s="4">
         <v>7</v>
@@ -16770,7 +17573,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -16779,7 +17582,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F14" s="4">
         <v>7</v>
@@ -16802,7 +17605,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -16811,7 +17614,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F15" s="4">
         <v>8</v>
@@ -16834,7 +17637,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>33</v>
@@ -16843,7 +17646,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F16" s="4">
         <v>8</v>
@@ -16866,7 +17669,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -16875,7 +17678,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F17" s="4">
         <v>8</v>
@@ -16898,7 +17701,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -16907,7 +17710,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F18" s="4">
         <v>9</v>
@@ -16930,7 +17733,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -16939,7 +17742,7 @@
         <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F19" s="4">
         <v>9</v>
@@ -16962,7 +17765,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -16971,7 +17774,7 @@
         <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F20" s="4">
         <v>9</v>
@@ -16994,7 +17797,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -17003,7 +17806,7 @@
         <v>26</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F21" s="4">
         <v>9</v>
@@ -17026,7 +17829,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
@@ -17035,7 +17838,7 @@
         <v>26</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F22" s="4">
         <v>10</v>
@@ -17058,7 +17861,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>19</v>
@@ -17067,7 +17870,7 @@
         <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F23" s="4">
         <v>11</v>
@@ -17090,7 +17893,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>19</v>
@@ -17099,7 +17902,7 @@
         <v>26</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F24" s="4">
         <v>11</v>
@@ -17122,7 +17925,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>19</v>
@@ -17131,7 +17934,7 @@
         <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F25" s="4">
         <v>11</v>
@@ -17154,7 +17957,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>33</v>
@@ -17163,7 +17966,7 @@
         <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F26" s="4">
         <v>11</v>
@@ -17186,7 +17989,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>19</v>
@@ -17195,7 +17998,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F27" s="4">
         <v>11</v>
@@ -17218,7 +18021,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>19</v>
@@ -17227,7 +18030,7 @@
         <v>26</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F28" s="4">
         <v>12</v>
@@ -17250,7 +18053,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>33</v>
@@ -17259,7 +18062,7 @@
         <v>27</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F29" s="4">
         <v>15</v>
@@ -17282,7 +18085,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>19</v>
@@ -17291,7 +18094,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F30" s="4">
         <v>16</v>
@@ -17314,7 +18117,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>19</v>
@@ -17323,7 +18126,7 @@
         <v>26</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F31" s="4">
         <v>22</v>
@@ -17346,7 +18149,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>33</v>
@@ -17355,7 +18158,7 @@
         <v>27</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F32" s="4">
         <v>23</v>
@@ -17378,7 +18181,7 @@
         <v>21</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>9</v>
@@ -17387,7 +18190,7 @@
         <v>28</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="14"/>
@@ -17406,7 +18209,7 @@
         <v>30</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>19</v>
@@ -17415,7 +18218,7 @@
         <v>26</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="14"/>
@@ -17576,16 +18379,16 @@
     <sortCondition ref="F1"/>
   </sortState>
   <conditionalFormatting sqref="C2:C34">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -917,9 +917,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -941,272 +938,16 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="96">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2090,11 +1831,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119723136"/>
-        <c:axId val="119724672"/>
+        <c:axId val="151463808"/>
+        <c:axId val="151465344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119723136"/>
+        <c:axId val="151463808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,7 +1845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119724672"/>
+        <c:crossAx val="151465344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2112,7 +1853,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119724672"/>
+        <c:axId val="151465344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,14 +1864,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119723136"/>
+        <c:crossAx val="151463808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2297,11 +2037,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231538048"/>
-        <c:axId val="119538816"/>
+        <c:axId val="151327104"/>
+        <c:axId val="151328640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231538048"/>
+        <c:axId val="151327104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2311,7 +2051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119538816"/>
+        <c:crossAx val="151328640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2319,7 +2059,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119538816"/>
+        <c:axId val="151328640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2330,7 +2070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231538048"/>
+        <c:crossAx val="151327104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2540,11 +2280,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119601024"/>
-        <c:axId val="119602560"/>
+        <c:axId val="151403136"/>
+        <c:axId val="151413120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119601024"/>
+        <c:axId val="151403136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2554,7 +2294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119602560"/>
+        <c:crossAx val="151413120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2562,7 +2302,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119602560"/>
+        <c:axId val="151413120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,14 +2313,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119601024"/>
+        <c:crossAx val="151403136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2783,11 +2522,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231612800"/>
-        <c:axId val="231614336"/>
+        <c:axId val="135935104"/>
+        <c:axId val="135936640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231612800"/>
+        <c:axId val="135935104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2797,7 +2536,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231614336"/>
+        <c:crossAx val="135936640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2805,7 +2544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231614336"/>
+        <c:axId val="135936640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2816,14 +2555,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231612800"/>
+        <c:crossAx val="135935104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3086,11 +2824,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231682048"/>
-        <c:axId val="231683584"/>
+        <c:axId val="151745280"/>
+        <c:axId val="151746816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231682048"/>
+        <c:axId val="151745280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3100,7 +2838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231683584"/>
+        <c:crossAx val="151746816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3108,7 +2846,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231683584"/>
+        <c:axId val="151746816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3119,14 +2857,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231682048"/>
+        <c:crossAx val="151745280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3353,11 +3090,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231824000"/>
-        <c:axId val="231825792"/>
+        <c:axId val="152128512"/>
+        <c:axId val="152134400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231824000"/>
+        <c:axId val="152128512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3367,7 +3104,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231825792"/>
+        <c:crossAx val="152134400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3375,7 +3112,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="231825792"/>
+        <c:axId val="152134400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3386,14 +3123,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231824000"/>
+        <c:crossAx val="152128512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3632,11 +3368,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="231832576"/>
-        <c:axId val="232010496"/>
+        <c:axId val="152012288"/>
+        <c:axId val="152013824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="231832576"/>
+        <c:axId val="152012288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3382,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232010496"/>
+        <c:crossAx val="152013824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3654,7 +3390,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232010496"/>
+        <c:axId val="152013824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,13 +3401,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="231832576"/>
+        <c:crossAx val="152012288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3952,11 +3689,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="232420864"/>
-        <c:axId val="232422400"/>
+        <c:axId val="152449024"/>
+        <c:axId val="152450560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="232420864"/>
+        <c:axId val="152449024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3966,7 +3703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232422400"/>
+        <c:crossAx val="152450560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3974,7 +3711,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="232422400"/>
+        <c:axId val="152450560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3985,14 +3722,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="232420864"/>
+        <c:crossAx val="152449024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4599,18 +4335,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9890,58 +9626,58 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C46:C117 C127:C1048576">
-    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="37" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9982,16 +9718,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10144,7 +9880,7 @@
         <v>21</v>
       </c>
       <c r="F3" s="18">
-        <f>INT((G3-$K$3)/7)+1</f>
+        <f t="shared" ref="F3:F16" si="0">INT((G3-$K$3)/7)+1</f>
         <v>2</v>
       </c>
       <c r="G3" s="14">
@@ -10180,7 +9916,7 @@
         <v>21</v>
       </c>
       <c r="F4" s="18">
-        <f>INT((G4-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G4" s="14">
@@ -10213,7 +9949,7 @@
         <v>21</v>
       </c>
       <c r="F5" s="18">
-        <f>INT((G5-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="G5" s="14">
@@ -10246,7 +9982,7 @@
         <v>21</v>
       </c>
       <c r="F6" s="18">
-        <f>INT((G6-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G6" s="14">
@@ -10279,7 +10015,7 @@
         <v>21</v>
       </c>
       <c r="F7" s="18">
-        <f>INT((G7-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="G7" s="14">
@@ -10312,7 +10048,7 @@
         <v>21</v>
       </c>
       <c r="F8" s="18">
-        <f>INT((G8-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="G8" s="14">
@@ -10345,7 +10081,7 @@
         <v>21</v>
       </c>
       <c r="F9" s="18">
-        <f>INT((G9-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="G9" s="14">
@@ -10378,7 +10114,7 @@
         <v>21</v>
       </c>
       <c r="F10" s="18">
-        <f>INT((G10-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="G10" s="14">
@@ -10411,7 +10147,7 @@
         <v>21</v>
       </c>
       <c r="F11" s="18">
-        <f>INT((G11-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="G11" s="14">
@@ -10444,7 +10180,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="18">
-        <f>INT((G12-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G12" s="14">
@@ -10477,7 +10213,7 @@
         <v>21</v>
       </c>
       <c r="F13" s="18">
-        <f>INT((G13-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G13" s="14">
@@ -10510,7 +10246,7 @@
         <v>21</v>
       </c>
       <c r="F14" s="18">
-        <f>INT((G14-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G14" s="14">
@@ -10543,7 +10279,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="18">
-        <f>INT((G15-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G15" s="14">
@@ -10576,7 +10312,7 @@
         <v>21</v>
       </c>
       <c r="F16" s="18">
-        <f>INT((G16-$K$3)/7)+1</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="G16" s="14">
@@ -10596,7 +10332,7 @@
       <c r="A17" s="25">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>199</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -10617,7 +10353,7 @@
       <c r="H17" s="25">
         <v>16</v>
       </c>
-      <c r="I17" s="37">
+      <c r="I17" s="36">
         <v>16</v>
       </c>
       <c r="J17" s="4">
@@ -10628,7 +10364,7 @@
       <c r="A18" s="25">
         <v>16</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="35" t="s">
         <v>200</v>
       </c>
       <c r="C18" s="4" t="s">
@@ -10649,7 +10385,7 @@
       <c r="H18" s="25">
         <v>8</v>
       </c>
-      <c r="I18" s="37">
+      <c r="I18" s="36">
         <v>7</v>
       </c>
       <c r="J18" s="4">
@@ -10660,7 +10396,7 @@
       <c r="A19" s="25">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="35" t="s">
         <v>202</v>
       </c>
       <c r="C19" s="4" t="s">
@@ -10681,10 +10417,10 @@
       <c r="H19" s="25">
         <v>9</v>
       </c>
-      <c r="I19" s="37">
+      <c r="I19" s="36">
         <v>8</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J19" s="37">
         <v>100</v>
       </c>
     </row>
@@ -10692,7 +10428,7 @@
       <c r="A20" s="25">
         <v>20</v>
       </c>
-      <c r="B20" s="36" t="s">
+      <c r="B20" s="35" t="s">
         <v>30</v>
       </c>
       <c r="C20" s="4" t="s">
@@ -10713,10 +10449,10 @@
       <c r="H20" s="25">
         <v>24</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="36">
         <v>20</v>
       </c>
-      <c r="J20" s="38">
+      <c r="J20" s="37">
         <v>100</v>
       </c>
     </row>
@@ -10724,7 +10460,7 @@
       <c r="A21" s="25">
         <v>17</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="35" t="s">
         <v>201</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -10739,16 +10475,16 @@
       <c r="F21" s="3">
         <v>26</v>
       </c>
-      <c r="G21" s="39">
+      <c r="G21" s="38">
         <v>40996</v>
       </c>
       <c r="H21" s="25">
         <v>8</v>
       </c>
-      <c r="I21" s="37">
+      <c r="I21" s="36">
         <v>8</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="37">
         <v>100</v>
       </c>
     </row>
@@ -10756,7 +10492,7 @@
       <c r="A22" s="25">
         <v>19</v>
       </c>
-      <c r="B22" s="36" t="s">
+      <c r="B22" s="35" t="s">
         <v>203</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -10777,24 +10513,24 @@
       <c r="H22" s="25">
         <v>24</v>
       </c>
-      <c r="I22" s="37">
+      <c r="I22" s="36">
         <v>24</v>
       </c>
-      <c r="J22" s="38">
+      <c r="J22" s="37">
         <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="35"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
       <c r="C23" s="27"/>
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="34"/>
+      <c r="F23" s="33"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="43"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="42"/>
     </row>
     <row r="24" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C24" s="21" t="s">
@@ -10945,16 +10681,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10991,8 +10727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11457,7 +11193,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -12104,7 +11840,7 @@
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="38" t="s">
+      <c r="B36" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
@@ -12135,38 +11871,38 @@
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="26"/>
       <c r="B37" s="27"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
-      <c r="J37" s="44"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="41">
+      <c r="D38" s="40">
         <v>2</v>
       </c>
-      <c r="E38" s="41">
+      <c r="E38" s="40">
         <v>3</v>
       </c>
-      <c r="F38" s="41">
+      <c r="F38" s="40">
         <v>4</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="40">
         <v>5</v>
       </c>
-      <c r="H38" s="41">
+      <c r="H38" s="40">
         <v>6</v>
       </c>
-      <c r="I38" s="41">
+      <c r="I38" s="40">
         <v>7</v>
       </c>
-      <c r="J38" s="41">
+      <c r="J38" s="40">
         <v>9</v>
       </c>
       <c r="K38" s="22">
@@ -12304,16 +12040,16 @@
     <sortCondition ref="F36"/>
   </sortState>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13031,7 +12767,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>208</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -13053,7 +12789,7 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>209</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -13075,7 +12811,7 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>210</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -13097,7 +12833,7 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>211</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -13119,7 +12855,7 @@
       <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C26" s="4" t="s">
@@ -13234,16 +12970,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13906,7 +13642,7 @@
       <c r="A21" s="3">
         <v>19</v>
       </c>
-      <c r="B21" s="38" t="s">
+      <c r="B21" s="37" t="s">
         <v>212</v>
       </c>
       <c r="C21" s="4" t="s">
@@ -13928,7 +13664,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>213</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -13950,7 +13686,7 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>214</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -13972,7 +13708,7 @@
       <c r="A24" s="3">
         <v>22</v>
       </c>
-      <c r="B24" s="38" t="s">
+      <c r="B24" s="37" t="s">
         <v>215</v>
       </c>
       <c r="C24" s="4" t="s">
@@ -13994,7 +13730,7 @@
       <c r="A25" s="3">
         <v>23</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C25" s="4" t="s">
@@ -14105,58 +13841,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C25">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15268,30 +15004,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C30">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16015,7 +15751,7 @@
       <c r="A22" s="3">
         <v>20</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="37" t="s">
         <v>221</v>
       </c>
       <c r="C22" s="4" t="s">
@@ -16037,7 +15773,7 @@
       <c r="A23" s="3">
         <v>21</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="37" t="s">
         <v>30</v>
       </c>
       <c r="C23" s="4" t="s">
@@ -16057,7 +15793,7 @@
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="42"/>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
@@ -16172,16 +15908,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16217,7 +15953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27:N29"/>
     </sheetView>
   </sheetViews>
@@ -17123,16 +16859,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C25">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18379,16 +18115,16 @@
     <sortCondition ref="F1"/>
   </sortState>
   <conditionalFormatting sqref="C2:C34">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="229">
   <si>
     <t>No.</t>
   </si>
@@ -703,6 +703,27 @@
   </si>
   <si>
     <t>Programming "Trade Union"</t>
+  </si>
+  <si>
+    <t>Programming "Staff History"</t>
+  </si>
+  <si>
+    <t>Programming "Emulation"</t>
+  </si>
+  <si>
+    <t>Programming "Internal Trainning"</t>
+  </si>
+  <si>
+    <t>Design the HRM system</t>
+  </si>
+  <si>
+    <t>Programming "Income Management"</t>
+  </si>
+  <si>
+    <t>Programming "Facility Management"</t>
+  </si>
+  <si>
+    <t>Programming "Subject Management"</t>
   </si>
 </sst>
 </file>
@@ -859,7 +880,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -941,13 +962,164 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="84">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1831,11 +2003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151463808"/>
-        <c:axId val="151465344"/>
+        <c:axId val="219075328"/>
+        <c:axId val="219076864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151463808"/>
+        <c:axId val="219075328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1845,7 +2017,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151465344"/>
+        <c:crossAx val="219076864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1853,7 +2025,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151465344"/>
+        <c:axId val="219076864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,7 +2036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151463808"/>
+        <c:crossAx val="219075328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2037,11 +2209,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151327104"/>
-        <c:axId val="151328640"/>
+        <c:axId val="219286528"/>
+        <c:axId val="219288320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151327104"/>
+        <c:axId val="219286528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151328640"/>
+        <c:crossAx val="219288320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2059,7 +2231,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151328640"/>
+        <c:axId val="219288320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2070,14 +2242,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151327104"/>
+        <c:crossAx val="219286528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2280,11 +2451,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151403136"/>
-        <c:axId val="151413120"/>
+        <c:axId val="219354624"/>
+        <c:axId val="219356160"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151403136"/>
+        <c:axId val="219354624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151413120"/>
+        <c:crossAx val="219356160"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2302,7 +2473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151413120"/>
+        <c:axId val="219356160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2313,7 +2484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151403136"/>
+        <c:crossAx val="219354624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2522,11 +2693,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135935104"/>
-        <c:axId val="135936640"/>
+        <c:axId val="219432448"/>
+        <c:axId val="219433984"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135935104"/>
+        <c:axId val="219432448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2536,7 +2707,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135936640"/>
+        <c:crossAx val="219433984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2544,7 +2715,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135936640"/>
+        <c:axId val="219433984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2555,7 +2726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135935104"/>
+        <c:crossAx val="219432448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2824,11 +2995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151745280"/>
-        <c:axId val="151746816"/>
+        <c:axId val="219471232"/>
+        <c:axId val="219489408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151745280"/>
+        <c:axId val="219471232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2838,7 +3009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151746816"/>
+        <c:crossAx val="219489408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2846,7 +3017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151746816"/>
+        <c:axId val="219489408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,7 +3028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151745280"/>
+        <c:crossAx val="219471232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3090,11 +3261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152128512"/>
-        <c:axId val="152134400"/>
+        <c:axId val="219629824"/>
+        <c:axId val="219631616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152128512"/>
+        <c:axId val="219629824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3104,7 +3275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152134400"/>
+        <c:crossAx val="219631616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3112,7 +3283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152134400"/>
+        <c:axId val="219631616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3123,7 +3294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152128512"/>
+        <c:crossAx val="219629824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3169,7 +3340,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dang Nguyen'!$C$28</c:f>
+              <c:f>'Dang Nguyen'!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3219,7 +3390,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dang Nguyen'!$D$28:$N$28</c:f>
+              <c:f>'Dang Nguyen'!$D$33:$N$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3266,7 +3437,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dang Nguyen'!$C$29</c:f>
+              <c:f>'Dang Nguyen'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3316,7 +3487,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dang Nguyen'!$D$29:$N$29</c:f>
+              <c:f>'Dang Nguyen'!$D$34:$N$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3368,11 +3539,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152012288"/>
-        <c:axId val="152013824"/>
+        <c:axId val="219659264"/>
+        <c:axId val="219673344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152012288"/>
+        <c:axId val="219659264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3382,7 +3553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152013824"/>
+        <c:crossAx val="219673344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3390,7 +3561,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152013824"/>
+        <c:axId val="219673344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3401,7 +3572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152012288"/>
+        <c:crossAx val="219659264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3448,7 +3619,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nguyen Dinh'!$D$37</c:f>
+              <c:f>'Nguyen Dinh'!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3510,7 +3681,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nguyen Dinh'!$E$37:$R$37</c:f>
+              <c:f>'Nguyen Dinh'!$E$42:$R$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3566,7 +3737,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nguyen Dinh'!$D$38</c:f>
+              <c:f>'Nguyen Dinh'!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3628,7 +3799,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nguyen Dinh'!$E$38:$R$38</c:f>
+              <c:f>'Nguyen Dinh'!$E$43:$R$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3689,11 +3860,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="152449024"/>
-        <c:axId val="152450560"/>
+        <c:axId val="219837568"/>
+        <c:axId val="219839104"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152449024"/>
+        <c:axId val="219837568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3703,7 +3874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152450560"/>
+        <c:crossAx val="219839104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3711,7 +3882,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152450560"/>
+        <c:axId val="219839104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3722,13 +3893,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152449024"/>
+        <c:crossAx val="219837568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10727,8 +10899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11193,7 +11365,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -13016,7 +13188,7 @@
   <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B21" sqref="B21:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15951,10 +16123,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N29"/>
+  <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:N29"/>
+    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16737,119 +16909,219 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C27" s="21" t="s">
+    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="18"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="18"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C32" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="22">
+      <c r="D32" s="22">
         <v>2</v>
       </c>
-      <c r="E27" s="22">
+      <c r="E32" s="22">
         <v>3</v>
       </c>
-      <c r="F27" s="22">
+      <c r="F32" s="22">
         <v>4</v>
       </c>
-      <c r="G27" s="22">
+      <c r="G32" s="22">
         <v>6</v>
       </c>
-      <c r="H27" s="22">
+      <c r="H32" s="22">
         <v>7</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I32" s="22">
         <v>10</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J32" s="22">
         <v>11</v>
       </c>
-      <c r="K27" s="22">
+      <c r="K32" s="22">
         <v>12</v>
       </c>
-      <c r="L27" s="22">
+      <c r="L32" s="22">
         <v>13</v>
       </c>
-      <c r="M27" s="22">
+      <c r="M32" s="22">
         <v>15</v>
       </c>
-      <c r="N27" s="22">
+      <c r="N32" s="22">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
+    <row r="33" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C33" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D33" s="3">
         <v>2.5</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E33" s="3">
         <v>10</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F33" s="3">
         <v>13</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G33" s="3">
         <v>9</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H33" s="3">
         <v>2.5</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I33" s="3">
         <v>5</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J33" s="3">
         <v>6</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K33" s="3">
         <f>SUM(H17:H21)</f>
         <v>15</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L33" s="3">
         <v>9</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M33" s="3">
         <v>1</v>
       </c>
-      <c r="N28" s="25">
+      <c r="N33" s="25">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C29" s="21" t="s">
+    <row r="34" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D34" s="3">
         <v>4</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E34" s="3">
         <v>11.5</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F34" s="3">
         <v>15</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G34" s="3">
         <v>12</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H34" s="3">
         <v>2.5</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I34" s="3">
         <v>6</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J34" s="3">
         <v>7</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K34" s="3">
         <f>SUM(I17:I21)</f>
         <v>16.5</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L34" s="3">
         <v>10</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M34" s="3">
         <v>1</v>
       </c>
-      <c r="N29" s="25">
+      <c r="N34" s="25">
         <v>64</v>
       </c>
     </row>
@@ -16858,7 +17130,7 @@
   <sortState ref="A3:J25">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C25">
+  <conditionalFormatting sqref="C2:C30">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -16872,7 +17144,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J25">
+  <conditionalFormatting sqref="J3:J30">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -16885,13 +17157,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E25">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E30">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16902,10 +17174,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R38"/>
+  <dimension ref="A2:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17594,7 +17866,7 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>187</v>
@@ -17626,7 +17898,7 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>188</v>
@@ -17658,7 +17930,7 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>189</v>
@@ -17690,7 +17962,7 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>190</v>
@@ -17722,7 +17994,7 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>191</v>
@@ -17754,7 +18026,7 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>192</v>
@@ -17786,7 +18058,7 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>193</v>
@@ -17818,7 +18090,7 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>194</v>
@@ -17850,7 +18122,7 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>195</v>
@@ -17882,7 +18154,7 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>196</v>
@@ -17914,7 +18186,7 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>186</v>
@@ -17942,7 +18214,7 @@
     </row>
     <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>197</v>
@@ -17968,144 +18240,257 @@
         <v>25</v>
       </c>
     </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+    </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D36" s="21" t="s">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="37" t="s">
+        <v>215</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E36" s="22">
+      <c r="E41" s="22">
         <v>2</v>
       </c>
-      <c r="F36" s="22">
+      <c r="F41" s="22">
         <v>3</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G41" s="22">
         <v>5</v>
       </c>
-      <c r="H36" s="22">
+      <c r="H41" s="22">
         <v>6</v>
       </c>
-      <c r="I36" s="22">
+      <c r="I41" s="22">
         <v>7</v>
       </c>
-      <c r="J36" s="22">
+      <c r="J41" s="22">
         <v>8</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K41" s="22">
         <v>9</v>
       </c>
-      <c r="L36" s="22">
+      <c r="L41" s="22">
         <v>10</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M41" s="22">
         <v>11</v>
       </c>
-      <c r="N36" s="22">
+      <c r="N41" s="22">
         <v>12</v>
       </c>
-      <c r="O36" s="22">
+      <c r="O41" s="22">
         <v>15</v>
       </c>
-      <c r="P36" s="22">
+      <c r="P41" s="22">
         <v>16</v>
       </c>
-      <c r="Q36" s="22">
+      <c r="Q41" s="22">
         <v>22</v>
       </c>
-      <c r="R36" s="22">
+      <c r="R41" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D37" s="21" t="s">
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E37" s="3">
+      <c r="E42" s="3">
         <v>18</v>
       </c>
-      <c r="F37" s="3">
+      <c r="F42" s="3">
         <v>6</v>
       </c>
-      <c r="G37" s="3">
+      <c r="G42" s="3">
         <v>3</v>
       </c>
-      <c r="H37" s="3">
+      <c r="H42" s="3">
         <v>6</v>
       </c>
-      <c r="I37" s="3">
+      <c r="I42" s="3">
         <v>5</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J42" s="3">
         <v>7</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K42" s="3">
         <v>12</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L42" s="3">
         <v>1</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M42" s="3">
         <v>8</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N42" s="3">
         <v>2</v>
       </c>
-      <c r="O37" s="25">
+      <c r="O42" s="25">
         <v>1</v>
       </c>
-      <c r="P37" s="4">
+      <c r="P42" s="4">
         <v>2</v>
       </c>
-      <c r="Q37" s="4">
+      <c r="Q42" s="4">
         <v>2</v>
       </c>
-      <c r="R37" s="4">
+      <c r="R42" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="21" t="s">
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="3">
+      <c r="E43" s="3">
         <v>12</v>
       </c>
-      <c r="F38" s="3">
+      <c r="F43" s="3">
         <v>5</v>
       </c>
-      <c r="G38" s="3">
+      <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H38" s="3">
+      <c r="H43" s="3">
         <v>4.5</v>
       </c>
-      <c r="I38" s="3">
+      <c r="I43" s="3">
         <v>4</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J43" s="3">
         <v>5.5</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K43" s="3">
         <v>9</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M43" s="3">
         <v>5.5</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N43" s="3">
         <v>2</v>
       </c>
-      <c r="O38" s="25">
+      <c r="O43" s="25">
         <v>0.5</v>
       </c>
-      <c r="P38" s="4">
+      <c r="P43" s="4">
         <v>1</v>
       </c>
-      <c r="Q38" s="4">
+      <c r="Q43" s="4">
         <v>1</v>
       </c>
-      <c r="R38" s="4">
+      <c r="R43" s="4">
         <v>1</v>
       </c>
     </row>
@@ -18114,7 +18499,7 @@
   <sortState ref="A3:J34">
     <sortCondition ref="F1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C34">
+  <conditionalFormatting sqref="C2:C39">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -18165,13 +18550,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D39">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C39">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E39">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -959,10 +959,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -971,155 +971,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="84">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="68">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2003,11 +1855,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219075328"/>
-        <c:axId val="219076864"/>
+        <c:axId val="98755712"/>
+        <c:axId val="99494528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219075328"/>
+        <c:axId val="98755712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2017,7 +1869,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219076864"/>
+        <c:crossAx val="99494528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2025,7 +1877,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219076864"/>
+        <c:axId val="99494528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2036,13 +1888,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219075328"/>
+        <c:crossAx val="98755712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2209,11 +2062,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219286528"/>
-        <c:axId val="219288320"/>
+        <c:axId val="72129920"/>
+        <c:axId val="72139904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219286528"/>
+        <c:axId val="72129920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2076,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219288320"/>
+        <c:crossAx val="72139904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2231,7 +2084,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219288320"/>
+        <c:axId val="72139904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2242,7 +2095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219286528"/>
+        <c:crossAx val="72129920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2451,11 +2304,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219354624"/>
-        <c:axId val="219356160"/>
+        <c:axId val="42674048"/>
+        <c:axId val="42675584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219354624"/>
+        <c:axId val="42674048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2465,7 +2318,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219356160"/>
+        <c:crossAx val="42675584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2473,7 +2326,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219356160"/>
+        <c:axId val="42675584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,13 +2337,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219354624"/>
+        <c:crossAx val="42674048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2693,11 +2547,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219432448"/>
-        <c:axId val="219433984"/>
+        <c:axId val="42738048"/>
+        <c:axId val="42739584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219432448"/>
+        <c:axId val="42738048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219433984"/>
+        <c:crossAx val="42739584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2715,7 +2569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219433984"/>
+        <c:axId val="42739584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2726,13 +2580,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219432448"/>
+        <c:crossAx val="42738048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2995,11 +2850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219471232"/>
-        <c:axId val="219489408"/>
+        <c:axId val="42764544"/>
+        <c:axId val="42774528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219471232"/>
+        <c:axId val="42764544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3009,7 +2864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219489408"/>
+        <c:crossAx val="42774528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3017,7 +2872,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219489408"/>
+        <c:axId val="42774528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,13 +2883,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219471232"/>
+        <c:crossAx val="42764544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3261,11 +3117,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219629824"/>
-        <c:axId val="219631616"/>
+        <c:axId val="42845312"/>
+        <c:axId val="42846848"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219629824"/>
+        <c:axId val="42845312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3275,7 +3131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219631616"/>
+        <c:crossAx val="42846848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3283,7 +3139,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219631616"/>
+        <c:axId val="42846848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,13 +3150,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219629824"/>
+        <c:crossAx val="42845312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3539,11 +3396,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219659264"/>
-        <c:axId val="219673344"/>
+        <c:axId val="95636480"/>
+        <c:axId val="95638272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219659264"/>
+        <c:axId val="95636480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +3410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219673344"/>
+        <c:crossAx val="95638272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3561,7 +3418,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219673344"/>
+        <c:axId val="95638272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,7 +3429,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219659264"/>
+        <c:crossAx val="95636480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3860,11 +3717,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="219837568"/>
-        <c:axId val="219839104"/>
+        <c:axId val="95700480"/>
+        <c:axId val="95702016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="219837568"/>
+        <c:axId val="95700480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3874,7 +3731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219839104"/>
+        <c:crossAx val="95702016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3882,7 +3739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="219839104"/>
+        <c:axId val="95702016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3893,7 +3750,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219837568"/>
+        <c:crossAx val="95700480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4507,18 +4364,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9987,7 +9844,7 @@
   <dimension ref="A2:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10625,7 +10482,7 @@
         <v>20</v>
       </c>
       <c r="J20" s="37">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -10900,7 +10757,7 @@
   <dimension ref="A2:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12037,7 +11894,7 @@
         <v>28</v>
       </c>
       <c r="J36" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -12258,8 +12115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12955,7 +12812,9 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -12977,7 +12836,9 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -12999,7 +12860,9 @@
       <c r="G24" s="20"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="J24" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -13021,7 +12884,9 @@
       <c r="G25" s="20"/>
       <c r="H25" s="20"/>
       <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="J25" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
@@ -13043,7 +12908,9 @@
       <c r="G26" s="20"/>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
+      <c r="J26" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
@@ -13155,7 +13022,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J21">
+  <conditionalFormatting sqref="J3:J26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13187,8 +13054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:B24"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13826,11 +13693,21 @@
       <c r="E21" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="18">
+        <v>25</v>
+      </c>
+      <c r="G21" s="14">
+        <v>40983</v>
+      </c>
+      <c r="H21" s="20">
+        <v>8</v>
+      </c>
+      <c r="I21" s="20">
+        <v>8</v>
+      </c>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="22" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
@@ -13848,11 +13725,21 @@
       <c r="E22" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="F22" s="18">
+        <v>25</v>
+      </c>
+      <c r="G22" s="14">
+        <v>40989</v>
+      </c>
+      <c r="H22" s="20">
+        <v>8</v>
+      </c>
+      <c r="I22" s="20">
+        <v>13</v>
+      </c>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -13870,11 +13757,21 @@
       <c r="E23" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="F23" s="18">
+        <v>25</v>
+      </c>
+      <c r="G23" s="14">
+        <v>40988</v>
+      </c>
+      <c r="H23" s="20">
+        <v>8</v>
+      </c>
+      <c r="I23" s="20">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
@@ -13892,11 +13789,21 @@
       <c r="E24" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
+      <c r="F24" s="18">
+        <v>25</v>
+      </c>
+      <c r="G24" s="14">
+        <v>40984</v>
+      </c>
+      <c r="H24" s="20">
+        <v>16</v>
+      </c>
+      <c r="I24" s="20">
+        <v>22.5</v>
+      </c>
+      <c r="J24" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="25" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
@@ -13914,11 +13821,21 @@
       <c r="E25" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
+      <c r="F25" s="18">
+        <v>26</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40994</v>
+      </c>
+      <c r="H25" s="20">
+        <v>60</v>
+      </c>
+      <c r="I25" s="20">
+        <v>19</v>
+      </c>
+      <c r="J25" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C28" s="21" t="s">
@@ -14080,7 +13997,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J9 J11:J20">
+  <conditionalFormatting sqref="J3:J9 J11:J25">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -14113,7 +14030,7 @@
   <dimension ref="A2:P34"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14944,7 +14861,9 @@
       <c r="G26" s="16"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -14966,7 +14885,9 @@
       <c r="G27" s="16"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -14988,7 +14909,9 @@
       <c r="G28" s="16"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -15010,7 +14933,9 @@
       <c r="G29" s="16"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
@@ -15032,7 +14957,9 @@
       <c r="G30" s="16"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C32" s="21" t="s">
@@ -15250,8 +15177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15916,7 +15843,9 @@
       <c r="G21" s="14"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="4"/>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
       <c r="K21" s="32"/>
     </row>
     <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -15939,7 +15868,9 @@
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
@@ -15961,7 +15892,9 @@
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
+      <c r="J23" s="4">
+        <v>50</v>
+      </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
@@ -16093,7 +16026,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J21">
+  <conditionalFormatting sqref="J3:J23">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -16125,8 +16058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16929,7 +16862,9 @@
       <c r="G26" s="14"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
@@ -16951,7 +16886,9 @@
       <c r="G27" s="14"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="4"/>
+      <c r="J27" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
@@ -16973,7 +16910,9 @@
       <c r="G28" s="14"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
@@ -16995,7 +16934,9 @@
       <c r="G29" s="14"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="26"/>
@@ -17003,7 +16944,7 @@
       <c r="C30" s="27"/>
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
-      <c r="F30" s="45"/>
+      <c r="F30" s="44"/>
       <c r="G30" s="28"/>
       <c r="H30" s="26"/>
       <c r="I30" s="26"/>
@@ -17176,8 +17117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R43"/>
   <sheetViews>
-    <sheetView topLeftCell="D13" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="Tung Nguyen" sheetId="7" r:id="rId7"/>
     <sheet name="Dang Nguyen" sheetId="8" r:id="rId8"/>
     <sheet name="Nguyen Dinh" sheetId="9" r:id="rId9"/>
+    <sheet name="PercentActualComplete" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Dang Nguyen'!$A$2:$J$2</definedName>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1595" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="248">
   <si>
     <t>No.</t>
   </si>
@@ -724,6 +725,64 @@
   </si>
   <si>
     <t>Programming "Subject Management"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Percentage of actual task complete per estimated
+</t>
+  </si>
+  <si>
+    <t>(Actual Finish – Start)( Plan Finish – Start) /100%</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Actual Start</t>
+  </si>
+  <si>
+    <t>Actual Finish</t>
+  </si>
+  <si>
+    <t>% work complete</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Architect Driver</t>
+  </si>
+  <si>
+    <t>Architect Design</t>
+  </si>
+  <si>
+    <t>System test cases</t>
+  </si>
+  <si>
+    <t>Integration test cases</t>
+  </si>
+  <si>
+    <t>Acceptance test</t>
+  </si>
+  <si>
+    <t>System test</t>
+  </si>
+  <si>
+    <t>Conduct System test</t>
+  </si>
+  <si>
+    <t>Conduct Acceptance test</t>
+  </si>
+  <si>
+    <t>Conduct Integration test</t>
+  </si>
+  <si>
+    <t>Programming</t>
   </si>
 </sst>
 </file>
@@ -733,7 +792,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -775,6 +834,14 @@
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -880,7 +947,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -965,6 +1032,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1855,11 +1924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98755712"/>
-        <c:axId val="99494528"/>
+        <c:axId val="100009472"/>
+        <c:axId val="100011008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98755712"/>
+        <c:axId val="100009472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1869,7 +1938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99494528"/>
+        <c:crossAx val="100011008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1877,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="99494528"/>
+        <c:axId val="100011008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1888,14 +1957,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98755712"/>
+        <c:crossAx val="100009472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2062,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="72129920"/>
-        <c:axId val="72139904"/>
+        <c:axId val="100069376"/>
+        <c:axId val="100070912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="72129920"/>
+        <c:axId val="100069376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2076,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72139904"/>
+        <c:crossAx val="100070912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2084,7 +2152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72139904"/>
+        <c:axId val="100070912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2095,7 +2163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="72129920"/>
+        <c:crossAx val="100069376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2304,11 +2372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42674048"/>
-        <c:axId val="42675584"/>
+        <c:axId val="100661504"/>
+        <c:axId val="100335616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42674048"/>
+        <c:axId val="100661504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2318,7 +2386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42675584"/>
+        <c:crossAx val="100335616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2326,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42675584"/>
+        <c:axId val="100335616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2337,14 +2405,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42674048"/>
+        <c:crossAx val="100661504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2547,11 +2614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42738048"/>
-        <c:axId val="42739584"/>
+        <c:axId val="100389632"/>
+        <c:axId val="100391168"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42738048"/>
+        <c:axId val="100389632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2561,7 +2628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42739584"/>
+        <c:crossAx val="100391168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2569,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42739584"/>
+        <c:axId val="100391168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2580,14 +2647,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42738048"/>
+        <c:crossAx val="100389632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2850,11 +2916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42764544"/>
-        <c:axId val="42774528"/>
+        <c:axId val="100487552"/>
+        <c:axId val="100489088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42764544"/>
+        <c:axId val="100487552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2864,7 +2930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42774528"/>
+        <c:crossAx val="100489088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2872,7 +2938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42774528"/>
+        <c:axId val="100489088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2883,14 +2949,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42764544"/>
+        <c:crossAx val="100487552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3117,11 +3182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="42845312"/>
-        <c:axId val="42846848"/>
+        <c:axId val="100514816"/>
+        <c:axId val="100729600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="42845312"/>
+        <c:axId val="100514816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3131,7 +3196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42846848"/>
+        <c:crossAx val="100729600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3139,7 +3204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="42846848"/>
+        <c:axId val="100729600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3150,14 +3215,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="42845312"/>
+        <c:crossAx val="100514816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3396,11 +3460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95636480"/>
-        <c:axId val="95638272"/>
+        <c:axId val="100816384"/>
+        <c:axId val="100817920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95636480"/>
+        <c:axId val="100816384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,7 +3474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95638272"/>
+        <c:crossAx val="100817920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3418,7 +3482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95638272"/>
+        <c:axId val="100817920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3429,14 +3493,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95636480"/>
+        <c:crossAx val="100816384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3717,11 +3780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95700480"/>
-        <c:axId val="95702016"/>
+        <c:axId val="100864000"/>
+        <c:axId val="100865536"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="95700480"/>
+        <c:axId val="100864000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3731,7 +3794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95702016"/>
+        <c:crossAx val="100865536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3739,7 +3802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95702016"/>
+        <c:axId val="100865536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95700480"/>
+        <c:crossAx val="100864000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9839,6 +9902,319 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="47" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="32">
+        <v>40817</v>
+      </c>
+      <c r="C4" s="32">
+        <v>40889</v>
+      </c>
+      <c r="D4" s="32">
+        <v>40927</v>
+      </c>
+      <c r="E4" s="32">
+        <v>40929</v>
+      </c>
+      <c r="F4">
+        <f>((E4-B4)*(C4-B4))/100</f>
+        <v>80.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B5" s="32">
+        <v>40847</v>
+      </c>
+      <c r="C5" s="32">
+        <v>40905</v>
+      </c>
+      <c r="D5" s="32">
+        <v>40858</v>
+      </c>
+      <c r="E5" s="32">
+        <v>40925</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F16" si="0">((E5-B5)*(C5-B5))/100</f>
+        <v>45.24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="32">
+        <v>40848</v>
+      </c>
+      <c r="C6" s="32">
+        <v>40889</v>
+      </c>
+      <c r="D6" s="32">
+        <v>40851</v>
+      </c>
+      <c r="E6" s="32">
+        <v>40928</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>32.799999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>239</v>
+      </c>
+      <c r="B7" s="32">
+        <v>40870</v>
+      </c>
+      <c r="C7" s="32">
+        <v>40906</v>
+      </c>
+      <c r="D7" s="32">
+        <v>40928</v>
+      </c>
+      <c r="E7" s="32">
+        <v>40950</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>28.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" s="32">
+        <v>40890</v>
+      </c>
+      <c r="C8" s="32">
+        <v>40918</v>
+      </c>
+      <c r="D8" s="32">
+        <v>40978</v>
+      </c>
+      <c r="E8" s="32">
+        <v>41016</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>35.28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>240</v>
+      </c>
+      <c r="B9" s="32">
+        <v>40899</v>
+      </c>
+      <c r="C9" s="32">
+        <v>41273</v>
+      </c>
+      <c r="D9" s="32">
+        <v>40950</v>
+      </c>
+      <c r="E9" s="32">
+        <v>40954</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>205.7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>241</v>
+      </c>
+      <c r="B10" s="32">
+        <v>40910</v>
+      </c>
+      <c r="C10" s="32">
+        <v>40918</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-3272.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B11" s="32">
+        <v>40883</v>
+      </c>
+      <c r="C11" s="32">
+        <v>40891</v>
+      </c>
+      <c r="D11" s="32">
+        <v>40932</v>
+      </c>
+      <c r="E11" s="32">
+        <v>40935</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>4.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="32">
+        <v>40899</v>
+      </c>
+      <c r="C12" s="32">
+        <v>40907</v>
+      </c>
+      <c r="D12" s="32">
+        <v>40950</v>
+      </c>
+      <c r="E12" s="32">
+        <v>40954</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>244</v>
+      </c>
+      <c r="B13" s="32">
+        <v>40983</v>
+      </c>
+      <c r="C13" s="32">
+        <v>40984</v>
+      </c>
+      <c r="D13" s="32">
+        <v>41030</v>
+      </c>
+      <c r="E13" s="32">
+        <v>41034</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>245</v>
+      </c>
+      <c r="B14" s="32">
+        <v>40994</v>
+      </c>
+      <c r="C14" s="32">
+        <v>40996</v>
+      </c>
+      <c r="D14" s="32">
+        <v>41034</v>
+      </c>
+      <c r="E14" s="32"/>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-819.88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>246</v>
+      </c>
+      <c r="B15" s="32">
+        <v>40983</v>
+      </c>
+      <c r="C15" s="32">
+        <v>40984</v>
+      </c>
+      <c r="D15" s="32">
+        <v>40974</v>
+      </c>
+      <c r="E15" s="32">
+        <v>41030</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>247</v>
+      </c>
+      <c r="B16" s="32">
+        <v>40875</v>
+      </c>
+      <c r="C16" s="32">
+        <v>40982</v>
+      </c>
+      <c r="D16" s="32">
+        <v>40978</v>
+      </c>
+      <c r="E16" s="32">
+        <v>41027</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>162.63999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q26"/>
@@ -17117,7 +17493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+    <sheetView topLeftCell="D22" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18192" windowHeight="8148" tabRatio="763" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="247">
   <si>
     <t>No.</t>
   </si>
@@ -706,15 +706,6 @@
     <t>Programming "Trade Union"</t>
   </si>
   <si>
-    <t>Programming "Staff History"</t>
-  </si>
-  <si>
-    <t>Programming "Emulation"</t>
-  </si>
-  <si>
-    <t>Programming "Internal Trainning"</t>
-  </si>
-  <si>
     <t>Design the HRM system</t>
   </si>
   <si>
@@ -783,6 +774,12 @@
   </si>
   <si>
     <t>Programming</t>
+  </si>
+  <si>
+    <t>Programming "Staff History", "Family Relationship", "Emulation", "Internal Trainning"</t>
+  </si>
+  <si>
+    <t>26/04/2012</t>
   </si>
 </sst>
 </file>
@@ -947,7 +944,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1029,11 +1026,14 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1924,11 +1924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100009472"/>
-        <c:axId val="100011008"/>
+        <c:axId val="126180736"/>
+        <c:axId val="126268544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100009472"/>
+        <c:axId val="126180736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +1938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100011008"/>
+        <c:crossAx val="126268544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1946,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100011008"/>
+        <c:axId val="126268544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100009472"/>
+        <c:crossAx val="126180736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2130,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100069376"/>
-        <c:axId val="100070912"/>
+        <c:axId val="126330752"/>
+        <c:axId val="126332288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100069376"/>
+        <c:axId val="126330752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100070912"/>
+        <c:crossAx val="126332288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,7 +2152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100070912"/>
+        <c:axId val="126332288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100069376"/>
+        <c:crossAx val="126330752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,11 +2372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100661504"/>
-        <c:axId val="100335616"/>
+        <c:axId val="100921728"/>
+        <c:axId val="100923264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100661504"/>
+        <c:axId val="100921728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100335616"/>
+        <c:crossAx val="100923264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100335616"/>
+        <c:axId val="100923264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2405,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100661504"/>
+        <c:crossAx val="100921728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,11 +2614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100389632"/>
-        <c:axId val="100391168"/>
+        <c:axId val="126896768"/>
+        <c:axId val="126935424"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100389632"/>
+        <c:axId val="126896768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,7 +2628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100391168"/>
+        <c:crossAx val="126935424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100391168"/>
+        <c:axId val="126935424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100389632"/>
+        <c:crossAx val="126896768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2916,11 +2916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100487552"/>
-        <c:axId val="100489088"/>
+        <c:axId val="126817024"/>
+        <c:axId val="126818560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100487552"/>
+        <c:axId val="126817024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100489088"/>
+        <c:crossAx val="126818560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100489088"/>
+        <c:axId val="126818560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +2949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100487552"/>
+        <c:crossAx val="126817024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3182,11 +3182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100514816"/>
-        <c:axId val="100729600"/>
+        <c:axId val="126858368"/>
+        <c:axId val="126859904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100514816"/>
+        <c:axId val="126858368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +3196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100729600"/>
+        <c:crossAx val="126859904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3204,7 +3204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100729600"/>
+        <c:axId val="126859904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,7 +3215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100514816"/>
+        <c:crossAx val="126858368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3460,11 +3460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100816384"/>
-        <c:axId val="100817920"/>
+        <c:axId val="99265920"/>
+        <c:axId val="127472768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100816384"/>
+        <c:axId val="99265920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100817920"/>
+        <c:crossAx val="127472768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3482,7 +3482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100817920"/>
+        <c:axId val="127472768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,7 +3493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100816384"/>
+        <c:crossAx val="99265920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3539,7 +3539,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nguyen Dinh'!$D$42</c:f>
+              <c:f>'Nguyen Dinh'!$D$39</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3601,7 +3601,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nguyen Dinh'!$E$42:$R$42</c:f>
+              <c:f>'Nguyen Dinh'!$E$39:$R$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3657,7 +3657,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nguyen Dinh'!$D$43</c:f>
+              <c:f>'Nguyen Dinh'!$D$40</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3719,7 +3719,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nguyen Dinh'!$E$43:$R$43</c:f>
+              <c:f>'Nguyen Dinh'!$E$40:$R$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3780,11 +3780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100864000"/>
-        <c:axId val="100865536"/>
+        <c:axId val="127506304"/>
+        <c:axId val="127507840"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100864000"/>
+        <c:axId val="127506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,7 +3794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100865536"/>
+        <c:crossAx val="127507840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3802,7 +3802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100865536"/>
+        <c:axId val="127507840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,7 +3813,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100864000"/>
+        <c:crossAx val="127506304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4410,37 +4410,37 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
-      <c r="J1" s="45"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4673,7 +4673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4706,7 +4706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4805,7 +4805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4970,7 +4970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5465,7 +5465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5498,7 +5498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5564,7 +5564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5597,7 +5597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5696,7 +5696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5861,7 +5861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5925,7 +5925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5956,7 +5956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -6018,7 +6018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -6173,7 +6173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -6235,7 +6235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -6297,7 +6297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -6421,7 +6421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -6483,7 +6483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6514,7 +6514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6545,7 +6545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6673,7 +6673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6805,7 +6805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6871,7 +6871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6904,7 +6904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6937,7 +6937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6970,7 +6970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7003,7 +7003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7036,7 +7036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7069,7 +7069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -7102,7 +7102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7135,7 +7135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -7168,7 +7168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7201,7 +7201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -7234,7 +7234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7265,7 +7265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7296,7 +7296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -7451,7 +7451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -7513,7 +7513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -7544,7 +7544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -7575,7 +7575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -7606,7 +7606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7699,7 +7699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -7829,7 +7829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -7895,7 +7895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7928,7 +7928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8093,7 +8093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8126,7 +8126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8225,7 +8225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -8291,7 +8291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -8421,7 +8421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -8487,7 +8487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>127</v>
       </c>
@@ -8517,7 +8517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -8577,7 +8577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -8607,7 +8607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>134</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>135</v>
       </c>
@@ -8727,7 +8727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>136</v>
       </c>
@@ -8757,7 +8757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>137</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>140</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -8847,7 +8847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>142</v>
       </c>
@@ -8877,7 +8877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>143</v>
       </c>
@@ -8907,7 +8907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>144</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>145</v>
       </c>
@@ -8967,7 +8967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>146</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>147</v>
       </c>
@@ -9027,7 +9027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>148</v>
       </c>
@@ -9057,7 +9057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>149</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>150</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>151</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>152</v>
       </c>
@@ -9173,7 +9173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>153</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>154</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>155</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>156</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>157</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>158</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>159</v>
       </c>
@@ -9379,7 +9379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>160</v>
       </c>
@@ -9409,7 +9409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>161</v>
       </c>
@@ -9439,7 +9439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>162</v>
       </c>
@@ -9453,7 +9453,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>163</v>
       </c>
@@ -9467,7 +9467,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>164</v>
       </c>
@@ -9481,7 +9481,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>165</v>
       </c>
@@ -9495,7 +9495,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>166</v>
       </c>
@@ -9509,7 +9509,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>167</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>168</v>
       </c>
@@ -9537,7 +9537,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>169</v>
       </c>
@@ -9551,7 +9551,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>170</v>
       </c>
@@ -9565,7 +9565,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>171</v>
       </c>
@@ -9579,7 +9579,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>172</v>
       </c>
@@ -9593,7 +9593,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>173</v>
       </c>
@@ -9607,7 +9607,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>174</v>
       </c>
@@ -9621,7 +9621,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>175</v>
       </c>
@@ -9635,7 +9635,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>176</v>
       </c>
@@ -9649,7 +9649,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>177</v>
       </c>
@@ -9663,7 +9663,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>178</v>
       </c>
@@ -9677,7 +9677,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>179</v>
       </c>
@@ -9691,7 +9691,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>180</v>
       </c>
@@ -9906,46 +9906,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="45" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="46" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>229</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C3" s="46" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="D3" s="46" t="s">
         <v>231</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="E3" s="46" t="s">
         <v>232</v>
       </c>
-      <c r="C3" s="47" t="s">
+      <c r="F3" s="46" t="s">
         <v>233</v>
       </c>
-      <c r="D3" s="47" t="s">
-        <v>234</v>
-      </c>
-      <c r="E3" s="47" t="s">
-        <v>235</v>
-      </c>
-      <c r="F3" s="47" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9966,9 +9966,9 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B5" s="32">
         <v>40847</v>
@@ -9987,9 +9987,9 @@
         <v>45.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B6" s="32">
         <v>40848</v>
@@ -10008,9 +10008,9 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B7" s="32">
         <v>40870</v>
@@ -10029,7 +10029,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -10050,9 +10050,9 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B9" s="32">
         <v>40899</v>
@@ -10071,9 +10071,9 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B10" s="32">
         <v>40910</v>
@@ -10086,9 +10086,9 @@
         <v>-3272.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B11" s="32">
         <v>40883</v>
@@ -10107,9 +10107,9 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B12" s="32">
         <v>40899</v>
@@ -10128,9 +10128,9 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B13" s="32">
         <v>40983</v>
@@ -10149,9 +10149,9 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B14" s="32">
         <v>40994</v>
@@ -10168,9 +10168,9 @@
         <v>-819.88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B15" s="32">
         <v>40983</v>
@@ -10189,9 +10189,9 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B16" s="32">
         <v>40875</v>
@@ -10223,17 +10223,17 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11136,18 +11136,18 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -12495,15 +12495,15 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -13434,15 +13434,15 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14409,18 +14409,18 @@
       <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -15557,17 +15557,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -15899,7 +15899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -16438,16 +16438,16 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17223,7 +17223,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -17247,7 +17247,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -17271,7 +17271,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -17295,7 +17295,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -17491,22 +17491,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R43"/>
+  <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="D22" workbookViewId="0">
-      <selection activeCell="K38" sqref="K38"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -18517,8 +18517,12 @@
       <c r="E33" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="14"/>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33" s="14">
+        <v>41164</v>
+      </c>
       <c r="H33" s="4">
         <v>20</v>
       </c>
@@ -18529,7 +18533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -18557,12 +18561,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="37" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>9</v>
@@ -18573,18 +18577,28 @@
       <c r="E35" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F35" s="4">
+        <v>28</v>
+      </c>
+      <c r="G35" s="16">
+        <v>41064</v>
+      </c>
+      <c r="H35" s="4">
+        <v>24</v>
+      </c>
+      <c r="I35" s="4">
+        <v>123</v>
+      </c>
+      <c r="J35" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="37" t="s">
-        <v>215</v>
+        <v>30</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>9</v>
@@ -18595,219 +18609,163 @@
       <c r="E36" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
+      <c r="F36" s="4">
+        <v>31</v>
+      </c>
+      <c r="G36" s="48" t="s">
+        <v>246</v>
+      </c>
+      <c r="H36" s="4">
+        <v>24</v>
+      </c>
+      <c r="I36" s="4">
+        <v>3</v>
+      </c>
+      <c r="J36" s="4">
+        <v>100</v>
+      </c>
     </row>
     <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="37" t="s">
-        <v>223</v>
-      </c>
-      <c r="C37" s="4" t="s">
+      <c r="A37" s="26"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D38" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="22">
+        <v>2</v>
+      </c>
+      <c r="F38" s="22">
+        <v>3</v>
+      </c>
+      <c r="G38" s="22">
+        <v>5</v>
+      </c>
+      <c r="H38" s="22">
+        <v>6</v>
+      </c>
+      <c r="I38" s="22">
+        <v>7</v>
+      </c>
+      <c r="J38" s="22">
+        <v>8</v>
+      </c>
+      <c r="K38" s="22">
         <v>9</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="L38" s="22">
+        <v>10</v>
+      </c>
+      <c r="M38" s="22">
+        <v>11</v>
+      </c>
+      <c r="N38" s="22">
+        <v>12</v>
+      </c>
+      <c r="O38" s="22">
+        <v>15</v>
+      </c>
+      <c r="P38" s="22">
+        <v>16</v>
+      </c>
+      <c r="Q38" s="22">
+        <v>22</v>
+      </c>
+      <c r="R38" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D39" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>18</v>
+      </c>
+      <c r="F39" s="3">
+        <v>6</v>
+      </c>
+      <c r="G39" s="3">
+        <v>3</v>
+      </c>
+      <c r="H39" s="3">
+        <v>6</v>
+      </c>
+      <c r="I39" s="3">
+        <v>5</v>
+      </c>
+      <c r="J39" s="3">
+        <v>7</v>
+      </c>
+      <c r="K39" s="3">
+        <v>12</v>
+      </c>
+      <c r="L39" s="3">
+        <v>1</v>
+      </c>
+      <c r="M39" s="3">
+        <v>8</v>
+      </c>
+      <c r="N39" s="3">
+        <v>2</v>
+      </c>
+      <c r="O39" s="25">
+        <v>1</v>
+      </c>
+      <c r="P39" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>2</v>
+      </c>
+      <c r="R39" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D40" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>12</v>
+      </c>
+      <c r="F40" s="3">
+        <v>5</v>
+      </c>
+      <c r="G40" s="3">
+        <v>3</v>
+      </c>
+      <c r="H40" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I40" s="3">
+        <v>4</v>
+      </c>
+      <c r="J40" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="K40" s="3">
         <v>9</v>
       </c>
-      <c r="D38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="22">
+      <c r="L40" s="3">
+        <v>1</v>
+      </c>
+      <c r="M40" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="N40" s="3">
         <v>2</v>
       </c>
-      <c r="F41" s="22">
-        <v>3</v>
-      </c>
-      <c r="G41" s="22">
-        <v>5</v>
-      </c>
-      <c r="H41" s="22">
-        <v>6</v>
-      </c>
-      <c r="I41" s="22">
-        <v>7</v>
-      </c>
-      <c r="J41" s="22">
-        <v>8</v>
-      </c>
-      <c r="K41" s="22">
-        <v>9</v>
-      </c>
-      <c r="L41" s="22">
-        <v>10</v>
-      </c>
-      <c r="M41" s="22">
-        <v>11</v>
-      </c>
-      <c r="N41" s="22">
-        <v>12</v>
-      </c>
-      <c r="O41" s="22">
-        <v>15</v>
-      </c>
-      <c r="P41" s="22">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>22</v>
-      </c>
-      <c r="R41" s="22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>18</v>
-      </c>
-      <c r="F42" s="3">
-        <v>6</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
-        <v>7</v>
-      </c>
-      <c r="K42" s="3">
-        <v>12</v>
-      </c>
-      <c r="L42" s="3">
+      <c r="O40" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P40" s="4">
         <v>1</v>
       </c>
-      <c r="M42" s="3">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2</v>
-      </c>
-      <c r="O42" s="25">
+      <c r="Q40" s="4">
         <v>1</v>
       </c>
-      <c r="P42" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>2</v>
-      </c>
-      <c r="R42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>12</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>9</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="M43" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2</v>
-      </c>
-      <c r="O43" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4">
+      <c r="R40" s="4">
         <v>1</v>
       </c>
     </row>
@@ -18816,7 +18774,7 @@
   <sortState ref="A3:J34">
     <sortCondition ref="F1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C39">
+  <conditionalFormatting sqref="C2:C36">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -18842,7 +18800,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J34">
+  <conditionalFormatting sqref="J26:J36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -18867,13 +18825,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D36">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C36">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E39">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E36">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18192" windowHeight="8148" tabRatio="763" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="248">
   <si>
     <t>No.</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>26/04/2012</t>
+  </si>
+  <si>
+    <t>Programming""</t>
   </si>
 </sst>
 </file>
@@ -1028,11 +1031,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1924,11 +1927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126180736"/>
-        <c:axId val="126268544"/>
+        <c:axId val="109363200"/>
+        <c:axId val="109365120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126180736"/>
+        <c:axId val="109363200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +1941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126268544"/>
+        <c:crossAx val="109365120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1946,7 +1949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126268544"/>
+        <c:axId val="109365120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126180736"/>
+        <c:crossAx val="109363200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2130,11 +2133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126330752"/>
-        <c:axId val="126332288"/>
+        <c:axId val="151506304"/>
+        <c:axId val="151508096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126330752"/>
+        <c:axId val="151506304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126332288"/>
+        <c:crossAx val="151508096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126332288"/>
+        <c:axId val="151508096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126330752"/>
+        <c:crossAx val="151506304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,11 +2375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="100921728"/>
-        <c:axId val="100923264"/>
+        <c:axId val="151406464"/>
+        <c:axId val="151408000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="100921728"/>
+        <c:axId val="151406464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100923264"/>
+        <c:crossAx val="151408000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100923264"/>
+        <c:axId val="151408000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,13 +2408,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100921728"/>
+        <c:crossAx val="151406464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2614,11 +2618,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126896768"/>
-        <c:axId val="126935424"/>
+        <c:axId val="73216384"/>
+        <c:axId val="73217920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126896768"/>
+        <c:axId val="73216384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,7 +2632,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126935424"/>
+        <c:crossAx val="73217920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2640,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126935424"/>
+        <c:axId val="73217920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,7 +2651,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126896768"/>
+        <c:crossAx val="73216384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2693,120 +2697,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Quyet Nguyen'!$C$33</c:f>
+              <c:f>'Quyet Nguyen'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Estimated hour</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="13"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>21</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Quyet Nguyen'!$D$33:$P$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Quyet Nguyen'!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2863,6 +2758,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quyet Nguyen'!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="13"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>21</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quyet Nguyen'!$D$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2916,11 +2920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126817024"/>
-        <c:axId val="126818560"/>
+        <c:axId val="151786240"/>
+        <c:axId val="151787776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126817024"/>
+        <c:axId val="151786240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126818560"/>
+        <c:crossAx val="151787776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126818560"/>
+        <c:axId val="151787776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,13 +2953,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126817024"/>
+        <c:crossAx val="151786240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3182,11 +3187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126858368"/>
-        <c:axId val="126859904"/>
+        <c:axId val="151833600"/>
+        <c:axId val="151360256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126858368"/>
+        <c:axId val="151833600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +3201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126859904"/>
+        <c:crossAx val="151360256"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3204,7 +3209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126859904"/>
+        <c:axId val="151360256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,13 +3220,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126858368"/>
+        <c:crossAx val="151833600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3460,11 +3466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="99265920"/>
-        <c:axId val="127472768"/>
+        <c:axId val="151766144"/>
+        <c:axId val="151767680"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="99265920"/>
+        <c:axId val="151766144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127472768"/>
+        <c:crossAx val="151767680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3482,7 +3488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127472768"/>
+        <c:axId val="151767680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,7 +3499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99265920"/>
+        <c:crossAx val="151766144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3780,11 +3786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127506304"/>
-        <c:axId val="127507840"/>
+        <c:axId val="151697280"/>
+        <c:axId val="151698816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127506304"/>
+        <c:axId val="151697280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,7 +3800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127507840"/>
+        <c:crossAx val="151698816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3802,7 +3808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127507840"/>
+        <c:axId val="151698816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,14 +3819,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127506304"/>
+        <c:crossAx val="151697280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4410,37 +4415,37 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4472,7 +4477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4508,7 +4513,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4541,7 +4546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4640,7 +4645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4739,7 +4744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4772,7 +4777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4838,7 +4843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4904,7 +4909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4937,7 +4942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5036,7 +5041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5201,7 +5206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5300,7 +5305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5399,7 +5404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5465,7 +5470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5597,7 +5602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5663,7 +5668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5696,7 +5701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5729,7 +5734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5762,7 +5767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5828,7 +5833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -6018,7 +6023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -6080,7 +6085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -6142,7 +6147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -6173,7 +6178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -6204,7 +6209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -6235,7 +6240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -6297,7 +6302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -6328,7 +6333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -6359,7 +6364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -6390,7 +6395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -6452,7 +6457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -6483,7 +6488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6545,7 +6550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6576,7 +6581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6607,7 +6612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6673,7 +6678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6772,7 +6777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6838,7 +6843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6904,7 +6909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6937,7 +6942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7036,7 +7041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7069,7 +7074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -7102,7 +7107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7135,7 +7140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -7168,7 +7173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7201,7 +7206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7265,7 +7270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7296,7 +7301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7327,7 +7332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7358,7 +7363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -7513,7 +7518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -7544,7 +7549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -7575,7 +7580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -7606,7 +7611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -7668,7 +7673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7730,7 +7735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7763,7 +7768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7796,7 +7801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -7829,7 +7834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -7862,7 +7867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7928,7 +7933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7961,7 +7966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8126,7 +8131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -8324,7 +8329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -8357,7 +8362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -8421,7 +8426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -8454,7 +8459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>127</v>
       </c>
@@ -8517,7 +8522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -8547,7 +8552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -8607,7 +8612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
@@ -8637,7 +8642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>134</v>
       </c>
@@ -8697,7 +8702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>135</v>
       </c>
@@ -8727,7 +8732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>136</v>
       </c>
@@ -8757,7 +8762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>137</v>
       </c>
@@ -8787,7 +8792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>140</v>
       </c>
@@ -8817,7 +8822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -8847,7 +8852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>142</v>
       </c>
@@ -8877,7 +8882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>143</v>
       </c>
@@ -8907,7 +8912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>144</v>
       </c>
@@ -8937,7 +8942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>145</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>146</v>
       </c>
@@ -8997,7 +9002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>147</v>
       </c>
@@ -9027,7 +9032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>148</v>
       </c>
@@ -9057,7 +9062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>149</v>
       </c>
@@ -9087,7 +9092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>150</v>
       </c>
@@ -9113,7 +9118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>151</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>152</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>153</v>
       </c>
@@ -9203,7 +9208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>154</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>155</v>
       </c>
@@ -9263,7 +9268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>156</v>
       </c>
@@ -9293,7 +9298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>157</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>158</v>
       </c>
@@ -9353,7 +9358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>159</v>
       </c>
@@ -9379,7 +9384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>160</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>161</v>
       </c>
@@ -9439,7 +9444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>162</v>
       </c>
@@ -9453,7 +9458,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>163</v>
       </c>
@@ -9467,7 +9472,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>164</v>
       </c>
@@ -9481,7 +9486,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>165</v>
       </c>
@@ -9495,7 +9500,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>166</v>
       </c>
@@ -9509,7 +9514,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>167</v>
       </c>
@@ -9523,7 +9528,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>168</v>
       </c>
@@ -9537,7 +9542,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>169</v>
       </c>
@@ -9551,7 +9556,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>170</v>
       </c>
@@ -9565,7 +9570,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>171</v>
       </c>
@@ -9579,7 +9584,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>172</v>
       </c>
@@ -9593,7 +9598,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>173</v>
       </c>
@@ -9607,7 +9612,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>174</v>
       </c>
@@ -9621,7 +9626,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>175</v>
       </c>
@@ -9635,7 +9640,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>176</v>
       </c>
@@ -9649,7 +9654,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>177</v>
       </c>
@@ -9663,7 +9668,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>178</v>
       </c>
@@ -9677,7 +9682,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>179</v>
       </c>
@@ -9691,7 +9696,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>180</v>
       </c>
@@ -9910,14 +9915,14 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>226</v>
       </c>
@@ -9925,7 +9930,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>228</v>
       </c>
@@ -9945,7 +9950,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9966,7 +9971,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>234</v>
       </c>
@@ -9987,7 +9992,7 @@
         <v>45.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -10008,7 +10013,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -10029,7 +10034,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -10050,7 +10055,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -10071,7 +10076,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>238</v>
       </c>
@@ -10086,7 +10091,7 @@
         <v>-3272.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -10107,7 +10112,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>240</v>
       </c>
@@ -10128,7 +10133,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -10149,7 +10154,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -10168,7 +10173,7 @@
         <v>-819.88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10189,7 +10194,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>244</v>
       </c>
@@ -10223,17 +10228,17 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11136,18 +11141,18 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -12491,19 +12496,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12555,7 +12560,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F21" si="0">INT((G3-$K$3)/7)+1</f>
+        <f t="shared" ref="F3:F26" si="0">INT((G3-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G3" s="14">
@@ -13184,10 +13189,19 @@
       <c r="E22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G22" s="14">
+        <v>40974</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9</v>
+      </c>
       <c r="J22" s="4">
         <v>100</v>
       </c>
@@ -13208,10 +13222,19 @@
       <c r="E23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G23" s="14">
+        <v>40975</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6</v>
+      </c>
       <c r="J23" s="4">
         <v>100</v>
       </c>
@@ -13232,10 +13255,19 @@
       <c r="E24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="F24" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G24" s="14">
+        <v>40977</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6</v>
+      </c>
       <c r="J24" s="4">
         <v>100</v>
       </c>
@@ -13256,10 +13288,19 @@
       <c r="E25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40981</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>6</v>
+      </c>
       <c r="J25" s="4">
         <v>100</v>
       </c>
@@ -13280,10 +13321,19 @@
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="F26" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G26" s="14">
+        <v>41023</v>
+      </c>
+      <c r="H26" s="3">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6</v>
+      </c>
       <c r="J26" s="4">
         <v>50</v>
       </c>
@@ -13434,15 +13484,15 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14403,24 +14453,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -14920,7 +14970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -14953,7 +15003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -14986,7 +15036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -15019,7 +15069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -15052,7 +15102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -15085,7 +15135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -15118,7 +15168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -15151,7 +15201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -15184,7 +15234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -15217,36 +15267,28 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>118</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
       <c r="F26" s="18"/>
       <c r="G26" s="16"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -15265,12 +15307,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -15289,12 +15331,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -15313,18 +15355,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>118</v>
@@ -15334,142 +15376,166 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="18"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="22">
-        <v>2</v>
-      </c>
-      <c r="E32" s="22">
-        <v>3</v>
-      </c>
-      <c r="F32" s="22">
-        <v>4</v>
-      </c>
-      <c r="G32" s="22">
-        <v>5</v>
-      </c>
-      <c r="H32" s="22">
-        <v>6</v>
-      </c>
-      <c r="I32" s="22">
-        <v>7</v>
-      </c>
-      <c r="J32" s="22">
-        <v>9</v>
-      </c>
-      <c r="K32" s="22">
-        <v>10</v>
-      </c>
-      <c r="L32" s="22">
-        <v>11</v>
-      </c>
-      <c r="M32" s="22">
-        <v>12</v>
-      </c>
-      <c r="N32" s="22">
-        <v>13</v>
-      </c>
-      <c r="O32" s="22">
-        <v>17</v>
-      </c>
-      <c r="P32" s="22">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="22">
+        <v>2</v>
+      </c>
+      <c r="E33" s="22">
+        <v>3</v>
+      </c>
+      <c r="F33" s="22">
         <v>4</v>
       </c>
-      <c r="D33" s="4">
+      <c r="G33" s="22">
+        <v>5</v>
+      </c>
+      <c r="H33" s="22">
+        <v>6</v>
+      </c>
+      <c r="I33" s="22">
+        <v>7</v>
+      </c>
+      <c r="J33" s="22">
+        <v>9</v>
+      </c>
+      <c r="K33" s="22">
+        <v>10</v>
+      </c>
+      <c r="L33" s="22">
+        <v>11</v>
+      </c>
+      <c r="M33" s="22">
+        <v>12</v>
+      </c>
+      <c r="N33" s="22">
+        <v>13</v>
+      </c>
+      <c r="O33" s="22">
+        <v>17</v>
+      </c>
+      <c r="P33" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
         <f>SUM(H3:H7)</f>
         <v>14</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>5</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>11</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <f>SUM(H12:H15)</f>
         <v>22</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <v>10</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>2</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>1</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="4">
         <v>6</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L34" s="4">
         <v>3</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M34" s="4">
         <v>3</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="4">
         <v>2</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O34" s="4">
         <v>6</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P34" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="21" t="s">
+    <row r="35" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="4">
         <f>SUM(I3:I7)</f>
         <v>20</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>4.5</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>10</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <f>SUM(I12:I15)</f>
         <v>17</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <v>7</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J35" s="4">
         <v>2</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K35" s="4">
         <v>6</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M35" s="4">
         <v>4</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O35" s="4">
         <v>3</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P35" s="4">
         <v>5</v>
       </c>
     </row>
@@ -15492,7 +15558,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C30">
+  <conditionalFormatting sqref="C17:C31">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -15506,7 +15572,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J30">
+  <conditionalFormatting sqref="J17:J31">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15531,16 +15597,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D31">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E31">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15557,17 +15623,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -15899,7 +15965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -16438,16 +16504,16 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17493,20 +17559,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -18593,7 +18659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -18612,7 +18678,7 @@
       <c r="F36" s="4">
         <v>31</v>
       </c>
-      <c r="G36" s="48" t="s">
+      <c r="G36" s="47" t="s">
         <v>246</v>
       </c>
       <c r="H36" s="4">

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18192" windowHeight="8148" tabRatio="763" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1606" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="247">
   <si>
     <t>No.</t>
   </si>
@@ -780,9 +780,6 @@
   </si>
   <si>
     <t>26/04/2012</t>
-  </si>
-  <si>
-    <t>Programming""</t>
   </si>
 </sst>
 </file>
@@ -1927,11 +1924,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109363200"/>
-        <c:axId val="109365120"/>
+        <c:axId val="126180736"/>
+        <c:axId val="126272640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109363200"/>
+        <c:axId val="126180736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +1938,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109365120"/>
+        <c:crossAx val="126272640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1949,7 +1946,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109365120"/>
+        <c:axId val="126272640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +1957,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109363200"/>
+        <c:crossAx val="126180736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2133,11 +2130,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151506304"/>
-        <c:axId val="151508096"/>
+        <c:axId val="126527360"/>
+        <c:axId val="126528896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151506304"/>
+        <c:axId val="126527360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2144,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151508096"/>
+        <c:crossAx val="126528896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2152,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151508096"/>
+        <c:axId val="126528896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151506304"/>
+        <c:crossAx val="126527360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2375,11 +2372,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151406464"/>
-        <c:axId val="151408000"/>
+        <c:axId val="126878080"/>
+        <c:axId val="126879616"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151406464"/>
+        <c:axId val="126878080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2386,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151408000"/>
+        <c:crossAx val="126879616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +2394,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151408000"/>
+        <c:axId val="126879616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,14 +2405,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151406464"/>
+        <c:crossAx val="126878080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2618,11 +2614,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73216384"/>
-        <c:axId val="73217920"/>
+        <c:axId val="126927232"/>
+        <c:axId val="126928768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73216384"/>
+        <c:axId val="126927232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2632,7 +2628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73217920"/>
+        <c:crossAx val="126928768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2640,7 +2636,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73217920"/>
+        <c:axId val="126928768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2651,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73216384"/>
+        <c:crossAx val="126927232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2697,11 +2693,120 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>'Quyet Nguyen'!$C$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estimated hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="13"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>21</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quyet Nguyen'!$D$33:$P$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
               <c:f>'Quyet Nguyen'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Estimated hour</c:v>
+                  <c:v>Actual hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2758,115 +2863,6 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Quyet Nguyen'!$C$35</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual hour</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="13"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>21</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Quyet Nguyen'!$D$35:$P$35</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2920,11 +2916,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151786240"/>
-        <c:axId val="151787776"/>
+        <c:axId val="126753024"/>
+        <c:axId val="126754816"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151786240"/>
+        <c:axId val="126753024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +2930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151787776"/>
+        <c:crossAx val="126754816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2942,7 +2938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151787776"/>
+        <c:axId val="126754816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,14 +2949,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151786240"/>
+        <c:crossAx val="126753024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3187,11 +3182,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151833600"/>
-        <c:axId val="151360256"/>
+        <c:axId val="126770176"/>
+        <c:axId val="126796544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151833600"/>
+        <c:axId val="126770176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3201,7 +3196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151360256"/>
+        <c:crossAx val="126796544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3209,7 +3204,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151360256"/>
+        <c:axId val="126796544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3220,14 +3215,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151833600"/>
+        <c:crossAx val="126770176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3466,11 +3460,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151766144"/>
-        <c:axId val="151767680"/>
+        <c:axId val="127469056"/>
+        <c:axId val="127470592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151766144"/>
+        <c:axId val="127469056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151767680"/>
+        <c:crossAx val="127470592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3488,7 +3482,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151767680"/>
+        <c:axId val="127470592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,7 +3493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151766144"/>
+        <c:crossAx val="127469056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3786,11 +3780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151697280"/>
-        <c:axId val="151698816"/>
+        <c:axId val="127520768"/>
+        <c:axId val="127522304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151697280"/>
+        <c:axId val="127520768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3794,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151698816"/>
+        <c:crossAx val="127522304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3808,7 +3802,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151698816"/>
+        <c:axId val="127522304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,13 +3813,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151697280"/>
+        <c:crossAx val="127520768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4415,23 +4410,23 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.42578125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="2"/>
+    <col min="12" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
@@ -4445,7 +4440,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4513,7 +4508,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4546,7 +4541,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4579,7 +4574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4612,7 +4607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4645,7 +4640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4678,7 +4673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4711,7 +4706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4744,7 +4739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4810,7 +4805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4843,7 +4838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4876,7 +4871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4909,7 +4904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4942,7 +4937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4975,7 +4970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5008,7 +5003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5041,7 +5036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5074,7 +5069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5107,7 +5102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5140,7 +5135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5173,7 +5168,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5206,7 +5201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5239,7 +5234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5272,7 +5267,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5305,7 +5300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5338,7 +5333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5371,7 +5366,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5404,7 +5399,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5437,7 +5432,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5470,7 +5465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5503,7 +5498,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5536,7 +5531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5569,7 +5564,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5602,7 +5597,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5635,7 +5630,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5668,7 +5663,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5701,7 +5696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5734,7 +5729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5767,7 +5762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5800,7 +5795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5833,7 +5828,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5866,7 +5861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5899,7 +5894,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5930,7 +5925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5961,7 +5956,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5992,7 +5987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -6023,7 +6018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -6054,7 +6049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -6085,7 +6080,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -6116,7 +6111,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -6147,7 +6142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -6178,7 +6173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -6209,7 +6204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -6240,7 +6235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -6271,7 +6266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -6302,7 +6297,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -6333,7 +6328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -6364,7 +6359,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -6395,7 +6390,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -6426,7 +6421,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -6457,7 +6452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -6488,7 +6483,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6519,7 +6514,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6550,7 +6545,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6581,7 +6576,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6612,7 +6607,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6645,7 +6640,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6678,7 +6673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6744,7 +6739,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6777,7 +6772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6810,7 +6805,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6843,7 +6838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6876,7 +6871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6909,7 +6904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6942,7 +6937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6975,7 +6970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7008,7 +7003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7041,7 +7036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7074,7 +7069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -7107,7 +7102,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7140,7 +7135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -7173,7 +7168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7206,7 +7201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -7239,7 +7234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7270,7 +7265,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7301,7 +7296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7332,7 +7327,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7363,7 +7358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -7394,7 +7389,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -7425,7 +7420,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -7456,7 +7451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -7487,7 +7482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -7518,7 +7513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -7549,7 +7544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -7580,7 +7575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -7611,7 +7606,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -7642,7 +7637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -7673,7 +7668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7704,7 +7699,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7735,7 +7730,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7768,7 +7763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7801,7 +7796,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -7834,7 +7829,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -7867,7 +7862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -7900,7 +7895,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7933,7 +7928,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7966,7 +7961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7999,7 +7994,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8032,7 +8027,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8065,7 +8060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8098,7 +8093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8131,7 +8126,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8164,7 +8159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8230,7 +8225,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -8263,7 +8258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -8296,7 +8291,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -8329,7 +8324,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -8362,7 +8357,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -8426,7 +8421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -8459,7 +8454,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -8492,7 +8487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>127</v>
       </c>
@@ -8522,7 +8517,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -8552,7 +8547,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -8582,7 +8577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -8612,7 +8607,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
@@ -8642,7 +8637,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -8672,7 +8667,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>134</v>
       </c>
@@ -8702,7 +8697,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>135</v>
       </c>
@@ -8732,7 +8727,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>136</v>
       </c>
@@ -8762,7 +8757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>137</v>
       </c>
@@ -8792,7 +8787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>140</v>
       </c>
@@ -8822,7 +8817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -8852,7 +8847,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>142</v>
       </c>
@@ -8882,7 +8877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>143</v>
       </c>
@@ -8912,7 +8907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>144</v>
       </c>
@@ -8942,7 +8937,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>145</v>
       </c>
@@ -8972,7 +8967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>146</v>
       </c>
@@ -9002,7 +8997,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>147</v>
       </c>
@@ -9032,7 +9027,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>148</v>
       </c>
@@ -9062,7 +9057,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>149</v>
       </c>
@@ -9092,7 +9087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>150</v>
       </c>
@@ -9118,7 +9113,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>151</v>
       </c>
@@ -9148,7 +9143,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>152</v>
       </c>
@@ -9178,7 +9173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>153</v>
       </c>
@@ -9208,7 +9203,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>154</v>
       </c>
@@ -9238,7 +9233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>155</v>
       </c>
@@ -9268,7 +9263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>156</v>
       </c>
@@ -9298,7 +9293,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>157</v>
       </c>
@@ -9328,7 +9323,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>158</v>
       </c>
@@ -9358,7 +9353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>159</v>
       </c>
@@ -9384,7 +9379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>160</v>
       </c>
@@ -9414,7 +9409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>161</v>
       </c>
@@ -9444,7 +9439,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>162</v>
       </c>
@@ -9458,7 +9453,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>163</v>
       </c>
@@ -9472,7 +9467,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>164</v>
       </c>
@@ -9486,7 +9481,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>165</v>
       </c>
@@ -9500,7 +9495,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>166</v>
       </c>
@@ -9514,7 +9509,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>167</v>
       </c>
@@ -9528,7 +9523,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>168</v>
       </c>
@@ -9542,7 +9537,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>169</v>
       </c>
@@ -9556,7 +9551,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>170</v>
       </c>
@@ -9570,7 +9565,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>171</v>
       </c>
@@ -9584,7 +9579,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>172</v>
       </c>
@@ -9598,7 +9593,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>173</v>
       </c>
@@ -9612,7 +9607,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>174</v>
       </c>
@@ -9626,7 +9621,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>175</v>
       </c>
@@ -9640,7 +9635,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>176</v>
       </c>
@@ -9654,7 +9649,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>177</v>
       </c>
@@ -9668,7 +9663,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>178</v>
       </c>
@@ -9682,7 +9677,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>179</v>
       </c>
@@ -9696,7 +9691,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>180</v>
       </c>
@@ -9915,14 +9910,14 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="45" t="s">
         <v>226</v>
       </c>
@@ -9930,7 +9925,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>228</v>
       </c>
@@ -9950,7 +9945,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9971,7 +9966,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>234</v>
       </c>
@@ -9992,7 +9987,7 @@
         <v>45.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -10013,7 +10008,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -10034,7 +10029,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -10055,7 +10050,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -10076,7 +10071,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>238</v>
       </c>
@@ -10091,7 +10086,7 @@
         <v>-3272.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -10112,7 +10107,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>240</v>
       </c>
@@ -10133,7 +10128,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -10154,7 +10149,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -10173,7 +10168,7 @@
         <v>-819.88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10194,7 +10189,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>244</v>
       </c>
@@ -10228,17 +10223,17 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11141,18 +11136,18 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -12496,19 +12491,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12560,7 +12555,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F26" si="0">INT((G3-$K$3)/7)+1</f>
+        <f t="shared" ref="F3:F21" si="0">INT((G3-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G3" s="14">
@@ -13189,19 +13184,10 @@
       <c r="E22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="18">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G22" s="14">
-        <v>40974</v>
-      </c>
-      <c r="H22" s="3">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3">
-        <v>9</v>
-      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
       <c r="J22" s="4">
         <v>100</v>
       </c>
@@ -13222,19 +13208,10 @@
       <c r="E23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="18">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G23" s="14">
-        <v>40975</v>
-      </c>
-      <c r="H23" s="3">
-        <v>8</v>
-      </c>
-      <c r="I23" s="3">
-        <v>6</v>
-      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
       <c r="J23" s="4">
         <v>100</v>
       </c>
@@ -13255,19 +13232,10 @@
       <c r="E24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="18">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="G24" s="14">
-        <v>40977</v>
-      </c>
-      <c r="H24" s="3">
-        <v>8</v>
-      </c>
-      <c r="I24" s="3">
-        <v>6</v>
-      </c>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
       <c r="J24" s="4">
         <v>100</v>
       </c>
@@ -13288,19 +13256,10 @@
       <c r="E25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="18">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="G25" s="14">
-        <v>40981</v>
-      </c>
-      <c r="H25" s="3">
-        <v>8</v>
-      </c>
-      <c r="I25" s="3">
-        <v>6</v>
-      </c>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
       <c r="J25" s="4">
         <v>100</v>
       </c>
@@ -13321,19 +13280,10 @@
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="18">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G26" s="14">
-        <v>41023</v>
-      </c>
-      <c r="H26" s="3">
-        <v>16</v>
-      </c>
-      <c r="I26" s="3">
-        <v>6</v>
-      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="20"/>
+      <c r="H26" s="20"/>
+      <c r="I26" s="20"/>
       <c r="J26" s="4">
         <v>50</v>
       </c>
@@ -13484,15 +13434,15 @@
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14453,24 +14403,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P35"/>
+  <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -14970,7 +14920,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -15003,7 +14953,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -15036,7 +14986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -15069,7 +15019,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -15102,7 +15052,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -15135,7 +15085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -15168,7 +15118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -15201,7 +15151,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -15234,7 +15184,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -15267,28 +15217,36 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
+        <v>216</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="F26" s="18"/>
       <c r="G26" s="16"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -15307,12 +15265,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -15331,12 +15289,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -15355,18 +15313,18 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>219</v>
+        <v>30</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>118</v>
@@ -15376,103 +15334,125 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="22">
+        <v>2</v>
+      </c>
+      <c r="E32" s="22">
+        <v>3</v>
+      </c>
+      <c r="F32" s="22">
+        <v>4</v>
+      </c>
+      <c r="G32" s="22">
+        <v>5</v>
+      </c>
+      <c r="H32" s="22">
+        <v>6</v>
+      </c>
+      <c r="I32" s="22">
+        <v>7</v>
+      </c>
+      <c r="J32" s="22">
         <v>9</v>
       </c>
-      <c r="D31" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="18"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="4">
-        <v>50</v>
+      <c r="K32" s="22">
+        <v>10</v>
+      </c>
+      <c r="L32" s="22">
+        <v>11</v>
+      </c>
+      <c r="M32" s="22">
+        <v>12</v>
+      </c>
+      <c r="N32" s="22">
+        <v>13</v>
+      </c>
+      <c r="O32" s="22">
+        <v>17</v>
+      </c>
+      <c r="P32" s="22">
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="22">
+        <v>4</v>
+      </c>
+      <c r="D33" s="4">
+        <f>SUM(H3:H7)</f>
+        <v>14</v>
+      </c>
+      <c r="E33" s="4">
+        <v>5</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33" s="4">
+        <f>SUM(H12:H15)</f>
+        <v>22</v>
+      </c>
+      <c r="H33" s="4">
+        <v>10</v>
+      </c>
+      <c r="I33" s="4">
         <v>2</v>
       </c>
-      <c r="E33" s="22">
+      <c r="J33" s="4">
+        <v>1</v>
+      </c>
+      <c r="K33" s="4">
+        <v>6</v>
+      </c>
+      <c r="L33" s="4">
         <v>3</v>
       </c>
-      <c r="F33" s="22">
-        <v>4</v>
-      </c>
-      <c r="G33" s="22">
-        <v>5</v>
-      </c>
-      <c r="H33" s="22">
+      <c r="M33" s="4">
+        <v>3</v>
+      </c>
+      <c r="N33" s="4">
+        <v>2</v>
+      </c>
+      <c r="O33" s="4">
         <v>6</v>
       </c>
-      <c r="I33" s="22">
-        <v>7</v>
-      </c>
-      <c r="J33" s="22">
-        <v>9</v>
-      </c>
-      <c r="K33" s="22">
-        <v>10</v>
-      </c>
-      <c r="L33" s="22">
-        <v>11</v>
-      </c>
-      <c r="M33" s="22">
-        <v>12</v>
-      </c>
-      <c r="N33" s="22">
-        <v>13</v>
-      </c>
-      <c r="O33" s="22">
-        <v>17</v>
-      </c>
-      <c r="P33" s="22">
-        <v>21</v>
+      <c r="P33" s="4">
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="21" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" s="4">
-        <f>SUM(H3:H7)</f>
-        <v>14</v>
+        <f>SUM(I3:I7)</f>
+        <v>20</v>
       </c>
       <c r="E34" s="4">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="F34" s="4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G34" s="4">
-        <f>SUM(H12:H15)</f>
-        <v>22</v>
+        <f>SUM(I12:I15)</f>
+        <v>17</v>
       </c>
       <c r="H34" s="4">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I34" s="4">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4">
         <v>2</v>
-      </c>
-      <c r="J34" s="4">
-        <v>1</v>
       </c>
       <c r="K34" s="4">
         <v>6</v>
@@ -15481,61 +15461,15 @@
         <v>3</v>
       </c>
       <c r="M34" s="4">
+        <v>4</v>
+      </c>
+      <c r="N34" s="4">
+        <v>1</v>
+      </c>
+      <c r="O34" s="4">
         <v>3</v>
       </c>
-      <c r="N34" s="4">
-        <v>2</v>
-      </c>
-      <c r="O34" s="4">
-        <v>6</v>
-      </c>
       <c r="P34" s="4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="35" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="4">
-        <f>SUM(I3:I7)</f>
-        <v>20</v>
-      </c>
-      <c r="E35" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="F35" s="4">
-        <v>10</v>
-      </c>
-      <c r="G35" s="4">
-        <f>SUM(I12:I15)</f>
-        <v>17</v>
-      </c>
-      <c r="H35" s="4">
-        <v>7</v>
-      </c>
-      <c r="I35" s="4">
-        <v>3</v>
-      </c>
-      <c r="J35" s="4">
-        <v>2</v>
-      </c>
-      <c r="K35" s="4">
-        <v>6</v>
-      </c>
-      <c r="L35" s="4">
-        <v>3</v>
-      </c>
-      <c r="M35" s="4">
-        <v>4</v>
-      </c>
-      <c r="N35" s="4">
-        <v>1</v>
-      </c>
-      <c r="O35" s="4">
-        <v>3</v>
-      </c>
-      <c r="P35" s="4">
         <v>5</v>
       </c>
     </row>
@@ -15558,7 +15492,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C31">
+  <conditionalFormatting sqref="C17:C30">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -15572,7 +15506,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J31">
+  <conditionalFormatting sqref="J17:J30">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15597,16 +15531,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E30">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15623,17 +15557,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="47.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -15965,7 +15899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -16504,16 +16438,16 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17559,20 +17493,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -18596,7 +18530,7 @@
         <v>14</v>
       </c>
       <c r="J33" s="4">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -18615,16 +18549,20 @@
       <c r="E34" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="14"/>
+      <c r="F34" s="4">
+        <v>35</v>
+      </c>
+      <c r="G34" s="14">
+        <v>41037</v>
+      </c>
       <c r="H34" s="4">
         <v>10</v>
       </c>
       <c r="I34" s="4">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="J34" s="4">
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -18659,7 +18597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>34</v>
       </c>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18192" windowHeight="8148" tabRatio="763" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,12 +29,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="248">
   <si>
     <t>No.</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>26/04/2012</t>
+  </si>
+  <si>
+    <t>Programming"Training Result Information"</t>
   </si>
 </sst>
 </file>
@@ -1924,11 +1927,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126180736"/>
-        <c:axId val="126272640"/>
+        <c:axId val="150463232"/>
+        <c:axId val="150464768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126180736"/>
+        <c:axId val="150463232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1938,7 +1941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126272640"/>
+        <c:crossAx val="150464768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1946,7 +1949,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126272640"/>
+        <c:axId val="150464768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1957,7 +1960,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126180736"/>
+        <c:crossAx val="150463232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2130,11 +2133,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126527360"/>
-        <c:axId val="126528896"/>
+        <c:axId val="150813696"/>
+        <c:axId val="150835968"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126527360"/>
+        <c:axId val="150813696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2144,7 +2147,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126528896"/>
+        <c:crossAx val="150835968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2152,7 +2155,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126528896"/>
+        <c:axId val="150835968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2163,7 +2166,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126527360"/>
+        <c:crossAx val="150813696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2372,11 +2375,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126878080"/>
-        <c:axId val="126879616"/>
+        <c:axId val="150722048"/>
+        <c:axId val="150723584"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126878080"/>
+        <c:axId val="150722048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2386,7 +2389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126879616"/>
+        <c:crossAx val="150723584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2394,7 +2397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126879616"/>
+        <c:axId val="150723584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2405,7 +2408,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126878080"/>
+        <c:crossAx val="150722048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2614,11 +2617,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126927232"/>
-        <c:axId val="126928768"/>
+        <c:axId val="151154688"/>
+        <c:axId val="151156224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126927232"/>
+        <c:axId val="151154688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,7 +2631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126928768"/>
+        <c:crossAx val="151156224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2636,7 +2639,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126928768"/>
+        <c:axId val="151156224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2647,13 +2650,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126927232"/>
+        <c:crossAx val="151154688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2693,120 +2697,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Quyet Nguyen'!$C$33</c:f>
+              <c:f>'Quyet Nguyen'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Estimated hour</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="13"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>9</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="11">
-                <c:v>17</c:v>
-              </c:pt>
-              <c:pt idx="12">
-                <c:v>21</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Quyet Nguyen'!$D$33:$P$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Quyet Nguyen'!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2863,6 +2758,115 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Quyet Nguyen'!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="13"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>9</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="11">
+                <c:v>17</c:v>
+              </c:pt>
+              <c:pt idx="12">
+                <c:v>21</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Quyet Nguyen'!$D$35:$P$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2916,11 +2920,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126753024"/>
-        <c:axId val="126754816"/>
+        <c:axId val="150767488"/>
+        <c:axId val="150769024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126753024"/>
+        <c:axId val="150767488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2930,7 +2934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126754816"/>
+        <c:crossAx val="150769024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2938,7 +2942,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126754816"/>
+        <c:axId val="150769024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,13 +2953,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126753024"/>
+        <c:crossAx val="150767488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3182,11 +3187,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="126770176"/>
-        <c:axId val="126796544"/>
+        <c:axId val="150966656"/>
+        <c:axId val="150968192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="126770176"/>
+        <c:axId val="150966656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3196,7 +3201,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126796544"/>
+        <c:crossAx val="150968192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3204,7 +3209,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="126796544"/>
+        <c:axId val="150968192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3215,13 +3220,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="126770176"/>
+        <c:crossAx val="150966656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3460,11 +3466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127469056"/>
-        <c:axId val="127470592"/>
+        <c:axId val="151059072"/>
+        <c:axId val="151273856"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127469056"/>
+        <c:axId val="151059072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3474,7 +3480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127470592"/>
+        <c:crossAx val="151273856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3482,7 +3488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127470592"/>
+        <c:axId val="151273856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3493,7 +3499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127469056"/>
+        <c:crossAx val="151059072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3780,11 +3786,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="127520768"/>
-        <c:axId val="127522304"/>
+        <c:axId val="151307392"/>
+        <c:axId val="151308928"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="127520768"/>
+        <c:axId val="151307392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3794,7 +3800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127522304"/>
+        <c:crossAx val="151308928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3802,7 +3808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="127522304"/>
+        <c:axId val="151308928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3813,14 +3819,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="127520768"/>
+        <c:crossAx val="151307392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4410,23 +4415,23 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:J158"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="73.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.44140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="15" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="17" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="2"/>
+    <col min="12" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="48" t="s">
         <v>8</v>
       </c>
@@ -4440,7 +4445,7 @@
       <c r="I1" s="48"/>
       <c r="J1" s="48"/>
     </row>
-    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4472,7 +4477,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4508,7 +4513,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4541,7 +4546,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4574,7 +4579,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4607,7 +4612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4640,7 +4645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4673,7 +4678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4706,7 +4711,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4739,7 +4744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4772,7 +4777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4805,7 +4810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -4838,7 +4843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -4871,7 +4876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -4904,7 +4909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -4937,7 +4942,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -4970,7 +4975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5003,7 +5008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5036,7 +5041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5069,7 +5074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5102,7 +5107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5135,7 +5140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5168,7 +5173,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5201,7 +5206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5234,7 +5239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5267,7 +5272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5300,7 +5305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5333,7 +5338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5366,7 +5371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5399,7 +5404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5432,7 +5437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5465,7 +5470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5498,7 +5503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5531,7 +5536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5564,7 +5569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5597,7 +5602,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5630,7 +5635,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5663,7 +5668,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5696,7 +5701,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5729,7 +5734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5762,7 +5767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5795,7 +5800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -5828,7 +5833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -5861,7 +5866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -5894,7 +5899,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -5925,7 +5930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -5987,7 +5992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -6018,7 +6023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -6049,7 +6054,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -6080,7 +6085,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -6111,7 +6116,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -6142,7 +6147,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -6173,7 +6178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -6204,7 +6209,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -6235,7 +6240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -6266,7 +6271,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -6297,7 +6302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -6328,7 +6333,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -6359,7 +6364,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -6390,7 +6395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -6421,7 +6426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -6452,7 +6457,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -6483,7 +6488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6514,7 +6519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6545,7 +6550,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6576,7 +6581,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6607,7 +6612,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6640,7 +6645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6673,7 +6678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6739,7 +6744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6772,7 +6777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6805,7 +6810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -6838,7 +6843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -6871,7 +6876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -6904,7 +6909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -6937,7 +6942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -6970,7 +6975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7003,7 +7008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7036,7 +7041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7069,7 +7074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -7102,7 +7107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7135,7 +7140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -7168,7 +7173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7201,7 +7206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -7234,7 +7239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7265,7 +7270,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7296,7 +7301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7327,7 +7332,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7358,7 +7363,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -7389,7 +7394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -7420,7 +7425,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -7482,7 +7487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -7513,7 +7518,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -7544,7 +7549,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -7575,7 +7580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -7606,7 +7611,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -7668,7 +7673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7730,7 +7735,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7763,7 +7768,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7796,7 +7801,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -7829,7 +7834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -7862,7 +7867,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -7928,7 +7933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -7961,7 +7966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -7994,7 +7999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8027,7 +8032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8060,7 +8065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8093,7 +8098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8126,7 +8131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8159,7 +8164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8225,7 +8230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -8258,7 +8263,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -8291,7 +8296,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -8324,7 +8329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -8357,7 +8362,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -8421,7 +8426,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -8454,7 +8459,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -8487,7 +8492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>127</v>
       </c>
@@ -8517,7 +8522,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>128</v>
       </c>
@@ -8547,7 +8552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>129</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>130</v>
       </c>
@@ -8607,7 +8612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>131</v>
       </c>
@@ -8637,7 +8642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>132</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>134</v>
       </c>
@@ -8697,7 +8702,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>135</v>
       </c>
@@ -8727,7 +8732,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>136</v>
       </c>
@@ -8757,7 +8762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>137</v>
       </c>
@@ -8787,7 +8792,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>140</v>
       </c>
@@ -8817,7 +8822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>141</v>
       </c>
@@ -8847,7 +8852,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>142</v>
       </c>
@@ -8877,7 +8882,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>143</v>
       </c>
@@ -8907,7 +8912,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>144</v>
       </c>
@@ -8937,7 +8942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>145</v>
       </c>
@@ -8967,7 +8972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>146</v>
       </c>
@@ -8997,7 +9002,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>147</v>
       </c>
@@ -9027,7 +9032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>148</v>
       </c>
@@ -9057,7 +9062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>149</v>
       </c>
@@ -9087,7 +9092,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>150</v>
       </c>
@@ -9113,7 +9118,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>151</v>
       </c>
@@ -9143,7 +9148,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>152</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>153</v>
       </c>
@@ -9203,7 +9208,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>154</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>155</v>
       </c>
@@ -9263,7 +9268,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>156</v>
       </c>
@@ -9293,7 +9298,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>157</v>
       </c>
@@ -9323,7 +9328,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>158</v>
       </c>
@@ -9353,7 +9358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>159</v>
       </c>
@@ -9379,7 +9384,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>160</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>161</v>
       </c>
@@ -9439,7 +9444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>162</v>
       </c>
@@ -9453,7 +9458,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>163</v>
       </c>
@@ -9467,7 +9472,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>164</v>
       </c>
@@ -9481,7 +9486,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>165</v>
       </c>
@@ -9495,7 +9500,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>166</v>
       </c>
@@ -9509,7 +9514,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>167</v>
       </c>
@@ -9523,7 +9528,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>168</v>
       </c>
@@ -9537,7 +9542,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>169</v>
       </c>
@@ -9551,7 +9556,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>170</v>
       </c>
@@ -9565,7 +9570,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>171</v>
       </c>
@@ -9579,7 +9584,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>172</v>
       </c>
@@ -9593,7 +9598,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>173</v>
       </c>
@@ -9607,7 +9612,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>174</v>
       </c>
@@ -9621,7 +9626,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>175</v>
       </c>
@@ -9635,7 +9640,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>176</v>
       </c>
@@ -9649,7 +9654,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>177</v>
       </c>
@@ -9663,7 +9668,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>178</v>
       </c>
@@ -9677,7 +9682,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>179</v>
       </c>
@@ -9691,7 +9696,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>180</v>
       </c>
@@ -9910,14 +9915,14 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>226</v>
       </c>
@@ -9925,7 +9930,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="46" t="s">
         <v>228</v>
       </c>
@@ -9945,7 +9950,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -9966,7 +9971,7 @@
         <v>80.64</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>234</v>
       </c>
@@ -9987,7 +9992,7 @@
         <v>45.24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>235</v>
       </c>
@@ -10008,7 +10013,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>236</v>
       </c>
@@ -10029,7 +10034,7 @@
         <v>28.8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>60</v>
       </c>
@@ -10050,7 +10055,7 @@
         <v>35.28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -10071,7 +10076,7 @@
         <v>205.7</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>238</v>
       </c>
@@ -10086,7 +10091,7 @@
         <v>-3272.8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -10107,7 +10112,7 @@
         <v>4.16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>240</v>
       </c>
@@ -10128,7 +10133,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>241</v>
       </c>
@@ -10149,7 +10154,7 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>242</v>
       </c>
@@ -10168,7 +10173,7 @@
         <v>-819.88</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -10189,7 +10194,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>244</v>
       </c>
@@ -10223,17 +10228,17 @@
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -11136,18 +11141,18 @@
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -12491,19 +12496,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="48.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -12555,7 +12560,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F21" si="0">INT((G3-$K$3)/7)+1</f>
+        <f t="shared" ref="F3:F26" si="0">INT((G3-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G3" s="14">
@@ -13184,10 +13189,19 @@
       <c r="E22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="F22" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G22" s="14">
+        <v>40974</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
+        <v>9</v>
+      </c>
       <c r="J22" s="4">
         <v>100</v>
       </c>
@@ -13208,10 +13222,19 @@
       <c r="E23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="F23" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G23" s="14">
+        <v>40975</v>
+      </c>
+      <c r="H23" s="3">
+        <v>8</v>
+      </c>
+      <c r="I23" s="3">
+        <v>6</v>
+      </c>
       <c r="J23" s="4">
         <v>100</v>
       </c>
@@ -13232,10 +13255,19 @@
       <c r="E24" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
+      <c r="F24" s="18">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G24" s="14">
+        <v>40977</v>
+      </c>
+      <c r="H24" s="3">
+        <v>8</v>
+      </c>
+      <c r="I24" s="3">
+        <v>6</v>
+      </c>
       <c r="J24" s="4">
         <v>100</v>
       </c>
@@ -13256,10 +13288,19 @@
       <c r="E25" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
+      <c r="F25" s="18">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40981</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
+        <v>6</v>
+      </c>
       <c r="J25" s="4">
         <v>100</v>
       </c>
@@ -13280,10 +13321,19 @@
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
+      <c r="F26" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G26" s="14">
+        <v>41023</v>
+      </c>
+      <c r="H26" s="3">
+        <v>16</v>
+      </c>
+      <c r="I26" s="3">
+        <v>6</v>
+      </c>
       <c r="J26" s="4">
         <v>50</v>
       </c>
@@ -13430,19 +13480,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="65.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="65.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -14403,24 +14453,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -14920,7 +14970,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -14953,7 +15003,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -14986,7 +15036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -15019,7 +15069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -15052,7 +15102,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -15085,7 +15135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -15118,7 +15168,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -15151,7 +15201,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -15184,7 +15234,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -15217,12 +15267,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>216</v>
+        <v>247</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -15233,20 +15283,28 @@
       <c r="E26" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="F26" s="18">
+        <v>25</v>
+      </c>
+      <c r="G26" s="16">
+        <v>40986</v>
+      </c>
+      <c r="H26" s="3">
+        <v>10</v>
+      </c>
+      <c r="I26" s="3">
+        <v>23</v>
+      </c>
       <c r="J26" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>9</v>
@@ -15257,20 +15315,28 @@
       <c r="E27" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="F27" s="18">
+        <v>25</v>
+      </c>
+      <c r="G27" s="16">
+        <v>40985</v>
+      </c>
+      <c r="H27" s="3">
+        <v>12</v>
+      </c>
+      <c r="I27" s="3">
+        <v>10</v>
+      </c>
       <c r="J27" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>9</v>
@@ -15281,20 +15347,28 @@
       <c r="E28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="F28" s="18">
+        <v>26</v>
+      </c>
+      <c r="G28" s="16">
+        <v>40992</v>
+      </c>
+      <c r="H28" s="3">
+        <v>5</v>
+      </c>
+      <c r="I28" s="3">
+        <v>12</v>
+      </c>
       <c r="J28" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -15305,171 +15379,219 @@
       <c r="E29" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="F29" s="18">
+        <v>26</v>
+      </c>
+      <c r="G29" s="16">
+        <v>40978</v>
+      </c>
+      <c r="H29" s="3">
+        <v>12</v>
+      </c>
+      <c r="I29" s="3">
+        <v>21</v>
+      </c>
       <c r="J29" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>30</v>
+        <v>219</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="18"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="F30" s="18">
+        <v>26</v>
+      </c>
+      <c r="G30" s="16">
+        <v>40990</v>
+      </c>
+      <c r="H30" s="3">
+        <v>4</v>
+      </c>
+      <c r="I30" s="3">
+        <v>6</v>
+      </c>
       <c r="J30" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="18">
+        <v>33</v>
+      </c>
+      <c r="G31" s="16">
+        <v>41037</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="3">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C32" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D32" s="22">
-        <v>2</v>
-      </c>
-      <c r="E32" s="22">
-        <v>3</v>
-      </c>
-      <c r="F32" s="22">
-        <v>4</v>
-      </c>
-      <c r="G32" s="22">
-        <v>5</v>
-      </c>
-      <c r="H32" s="22">
-        <v>6</v>
-      </c>
-      <c r="I32" s="22">
-        <v>7</v>
-      </c>
-      <c r="J32" s="22">
-        <v>9</v>
-      </c>
-      <c r="K32" s="22">
-        <v>10</v>
-      </c>
-      <c r="L32" s="22">
-        <v>11</v>
-      </c>
-      <c r="M32" s="22">
-        <v>12</v>
-      </c>
-      <c r="N32" s="22">
-        <v>13</v>
-      </c>
-      <c r="O32" s="22">
-        <v>17</v>
-      </c>
-      <c r="P32" s="22">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D33" s="22">
+        <v>2</v>
+      </c>
+      <c r="E33" s="22">
+        <v>3</v>
+      </c>
+      <c r="F33" s="22">
         <v>4</v>
       </c>
-      <c r="D33" s="4">
+      <c r="G33" s="22">
+        <v>5</v>
+      </c>
+      <c r="H33" s="22">
+        <v>6</v>
+      </c>
+      <c r="I33" s="22">
+        <v>7</v>
+      </c>
+      <c r="J33" s="22">
+        <v>9</v>
+      </c>
+      <c r="K33" s="22">
+        <v>10</v>
+      </c>
+      <c r="L33" s="22">
+        <v>11</v>
+      </c>
+      <c r="M33" s="22">
+        <v>12</v>
+      </c>
+      <c r="N33" s="22">
+        <v>13</v>
+      </c>
+      <c r="O33" s="22">
+        <v>17</v>
+      </c>
+      <c r="P33" s="22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="4">
         <f>SUM(H3:H7)</f>
         <v>14</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E34" s="4">
         <v>5</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F34" s="4">
         <v>11</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G34" s="4">
         <f>SUM(H12:H15)</f>
         <v>22</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H34" s="4">
         <v>10</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I34" s="4">
         <v>2</v>
       </c>
-      <c r="J33" s="4">
+      <c r="J34" s="4">
         <v>1</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K34" s="4">
         <v>6</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L34" s="4">
         <v>3</v>
       </c>
-      <c r="M33" s="4">
+      <c r="M34" s="4">
         <v>3</v>
       </c>
-      <c r="N33" s="4">
+      <c r="N34" s="4">
         <v>2</v>
       </c>
-      <c r="O33" s="4">
+      <c r="O34" s="4">
         <v>6</v>
       </c>
-      <c r="P33" s="4">
+      <c r="P34" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="21" t="s">
+    <row r="35" spans="3:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="4">
         <f>SUM(I3:I7)</f>
         <v>20</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="4">
         <v>4.5</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="4">
         <v>10</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="4">
         <f>SUM(I12:I15)</f>
         <v>17</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="4">
         <v>7</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="4">
         <v>3</v>
       </c>
-      <c r="J34" s="4">
+      <c r="J35" s="4">
         <v>2</v>
       </c>
-      <c r="K34" s="4">
+      <c r="K35" s="4">
         <v>6</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L35" s="4">
         <v>3</v>
       </c>
-      <c r="M34" s="4">
+      <c r="M35" s="4">
         <v>4</v>
       </c>
-      <c r="N34" s="4">
+      <c r="N35" s="4">
         <v>1</v>
       </c>
-      <c r="O34" s="4">
+      <c r="O35" s="4">
         <v>3</v>
       </c>
-      <c r="P34" s="4">
+      <c r="P35" s="4">
         <v>5</v>
       </c>
     </row>
@@ -15492,7 +15614,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C17:C30">
+  <conditionalFormatting sqref="C17:C31">
     <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -15506,7 +15628,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J17:J30">
+  <conditionalFormatting sqref="J17:J31">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -15531,16 +15653,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D31">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C31">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E16">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E17:E31">
       <formula1>"Tan Tran, Nhung Huyng, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -15557,17 +15679,17 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="47.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -15899,7 +16021,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -16438,16 +16560,16 @@
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="57.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -17493,20 +17615,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="76.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
@@ -18530,7 +18652,7 @@
         <v>14</v>
       </c>
       <c r="J33" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -18549,20 +18671,16 @@
       <c r="E34" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F34" s="4">
-        <v>35</v>
-      </c>
-      <c r="G34" s="14">
-        <v>41037</v>
-      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="14"/>
       <c r="H34" s="4">
         <v>10</v>
       </c>
       <c r="I34" s="4">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="J34" s="4">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
@@ -18597,7 +18715,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="PercentActualComplete" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Dang Nguyen'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Dang Nguyen'!$A$1:$J$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Loc Phan'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Nguyen Dinh'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Nhung Huynh'!$A$2:$J$2</definedName>
@@ -29,12 +29,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1609" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="249">
   <si>
     <t>No.</t>
   </si>
@@ -783,6 +783,9 @@
   </si>
   <si>
     <t>Programming"Training Result Information"</t>
+  </si>
+  <si>
+    <t>Programming "Salaryconcient Management"</t>
   </si>
 </sst>
 </file>
@@ -864,7 +867,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -939,6 +942,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -947,7 +961,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1037,13 +1051,90 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1927,11 +2018,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150463232"/>
-        <c:axId val="150464768"/>
+        <c:axId val="118885760"/>
+        <c:axId val="118916224"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150463232"/>
+        <c:axId val="118885760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1941,7 +2032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150464768"/>
+        <c:crossAx val="118916224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -1949,7 +2040,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150464768"/>
+        <c:axId val="118916224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,7 +2051,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150463232"/>
+        <c:crossAx val="118885760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2133,11 +2224,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150813696"/>
-        <c:axId val="150835968"/>
+        <c:axId val="119367552"/>
+        <c:axId val="119369088"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150813696"/>
+        <c:axId val="119367552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2147,7 +2238,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150835968"/>
+        <c:crossAx val="119369088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2155,7 +2246,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150835968"/>
+        <c:axId val="119369088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,7 +2257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150813696"/>
+        <c:crossAx val="119367552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2375,11 +2466,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150722048"/>
-        <c:axId val="150723584"/>
+        <c:axId val="119447936"/>
+        <c:axId val="119449472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150722048"/>
+        <c:axId val="119447936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2480,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150723584"/>
+        <c:crossAx val="119449472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2397,7 +2488,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150723584"/>
+        <c:axId val="119449472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2408,7 +2499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150722048"/>
+        <c:crossAx val="119447936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2617,11 +2708,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151154688"/>
-        <c:axId val="151156224"/>
+        <c:axId val="119868032"/>
+        <c:axId val="119898496"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151154688"/>
+        <c:axId val="119868032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,7 +2722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151156224"/>
+        <c:crossAx val="119898496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2639,7 +2730,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151156224"/>
+        <c:axId val="119898496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2650,7 +2741,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151154688"/>
+        <c:crossAx val="119868032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2920,11 +3011,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150767488"/>
-        <c:axId val="150769024"/>
+        <c:axId val="119125120"/>
+        <c:axId val="119126656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150767488"/>
+        <c:axId val="119125120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2934,7 +3025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150769024"/>
+        <c:crossAx val="119126656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2942,7 +3033,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150769024"/>
+        <c:axId val="119126656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2953,7 +3044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150767488"/>
+        <c:crossAx val="119125120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3187,11 +3278,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="150966656"/>
-        <c:axId val="150968192"/>
+        <c:axId val="119163904"/>
+        <c:axId val="119169792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="150966656"/>
+        <c:axId val="119163904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3201,7 +3292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150968192"/>
+        <c:crossAx val="119169792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3209,7 +3300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="150968192"/>
+        <c:axId val="119169792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3220,14 +3311,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150966656"/>
+        <c:crossAx val="119163904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3267,108 +3357,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dang Nguyen'!$C$33</c:f>
+              <c:f>'Dang Nguyen'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Estimated hour</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="11"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>17</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Dang Nguyen'!$D$33:$N$33</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>46</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Dang Nguyen'!$C$34</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3419,6 +3412,103 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Dang Nguyen'!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="11"/>
+              <c:pt idx="0">
+                <c:v>2</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>3</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>4</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>12</c:v>
+              </c:pt>
+              <c:pt idx="8">
+                <c:v>13</c:v>
+              </c:pt>
+              <c:pt idx="9">
+                <c:v>15</c:v>
+              </c:pt>
+              <c:pt idx="10">
+                <c:v>17</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Dang Nguyen'!$D$35:$N$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -3449,7 +3539,7 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>64</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3466,11 +3556,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151059072"/>
-        <c:axId val="151273856"/>
+        <c:axId val="119248384"/>
+        <c:axId val="119249920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151059072"/>
+        <c:axId val="119248384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3480,7 +3570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151273856"/>
+        <c:crossAx val="119249920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3488,7 +3578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151273856"/>
+        <c:axId val="119249920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3499,13 +3589,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151059072"/>
+        <c:crossAx val="119248384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3786,11 +3877,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="151307392"/>
-        <c:axId val="151308928"/>
+        <c:axId val="120422400"/>
+        <c:axId val="120423936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="151307392"/>
+        <c:axId val="120422400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3800,7 +3891,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151308928"/>
+        <c:crossAx val="120423936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3808,7 +3899,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="151308928"/>
+        <c:axId val="120423936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3819,7 +3910,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151307392"/>
+        <c:crossAx val="120422400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4056,13 +4147,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -9723,58 +9814,58 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C46:C117 C127:C1048576">
-    <cfRule type="cellIs" dxfId="67" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="63" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="59" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="55" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9815,16 +9906,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="51" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11091,16 +11182,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="47" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12450,16 +12541,16 @@
     <sortCondition ref="F36"/>
   </sortState>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13435,16 +13526,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="39" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13480,8 +13571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14356,58 +14447,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="35" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C25">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14455,7 +14546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -15601,30 +15692,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C31">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16511,16 +16602,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16554,10 +16645,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N34"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16572,47 +16664,79 @@
     <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="18">
+        <v>2</v>
+      </c>
+      <c r="G2" s="14">
+        <v>40819</v>
+      </c>
+      <c r="H2" s="3">
+        <v>2</v>
+      </c>
+      <c r="I2" s="3">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
+      <c r="J2" s="4">
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>60</v>
@@ -16624,13 +16748,13 @@
         <v>2</v>
       </c>
       <c r="G3" s="14">
-        <v>40819</v>
+        <v>40824</v>
       </c>
       <c r="H3" s="3">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="I3" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J3" s="4">
         <v>100</v>
@@ -16638,31 +16762,31 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F4" s="18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="14">
-        <v>40824</v>
+        <v>40826</v>
       </c>
       <c r="H4" s="3">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="I4" s="3">
-        <v>1</v>
+        <v>11.5</v>
       </c>
       <c r="J4" s="4">
         <v>100</v>
@@ -16670,13 +16794,13 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
@@ -16685,16 +16809,16 @@
         <v>61</v>
       </c>
       <c r="F5" s="18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="14">
-        <v>40826</v>
+        <v>40834</v>
       </c>
       <c r="H5" s="3">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="I5" s="3">
-        <v>11.5</v>
+        <v>5</v>
       </c>
       <c r="J5" s="4">
         <v>100</v>
@@ -16702,15 +16826,15 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>64</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>65</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -16720,13 +16844,13 @@
         <v>4</v>
       </c>
       <c r="G6" s="14">
-        <v>40834</v>
+        <v>40839</v>
       </c>
       <c r="H6" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J6" s="4">
         <v>100</v>
@@ -16734,15 +16858,15 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
@@ -16755,10 +16879,10 @@
         <v>40839</v>
       </c>
       <c r="H7" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I7" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J7" s="4">
         <v>100</v>
@@ -16766,31 +16890,31 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F8" s="18">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G8" s="14">
-        <v>40839</v>
+        <v>40851</v>
       </c>
       <c r="H8" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="J8" s="4">
         <v>100</v>
@@ -16798,16 +16922,16 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>61</v>
@@ -16816,13 +16940,13 @@
         <v>6</v>
       </c>
       <c r="G9" s="14">
-        <v>40851</v>
+        <v>40852</v>
       </c>
       <c r="H9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J9" s="4">
         <v>100</v>
@@ -16830,16 +16954,16 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>61</v>
@@ -16848,13 +16972,13 @@
         <v>6</v>
       </c>
       <c r="G10" s="14">
-        <v>40852</v>
+        <v>40848</v>
       </c>
       <c r="H10" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I10" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J10" s="4">
         <v>100</v>
@@ -16862,13 +16986,13 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>26</v>
@@ -16877,16 +17001,16 @@
         <v>61</v>
       </c>
       <c r="F11" s="18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G11" s="14">
-        <v>40848</v>
+        <v>40859</v>
       </c>
       <c r="H11" s="3">
-        <v>6</v>
+        <v>1.5</v>
       </c>
       <c r="I11" s="3">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="J11" s="4">
         <v>100</v>
@@ -16894,10 +17018,10 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>70</v>
+        <v>11</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>71</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -16912,13 +17036,13 @@
         <v>7</v>
       </c>
       <c r="G12" s="14">
-        <v>40859</v>
+        <v>40854</v>
       </c>
       <c r="H12" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J12" s="4">
         <v>100</v>
@@ -16926,13 +17050,13 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>71</v>
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
@@ -16941,16 +17065,16 @@
         <v>61</v>
       </c>
       <c r="F13" s="18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="14">
-        <v>40854</v>
+        <v>40879</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" s="4">
         <v>100</v>
@@ -16958,16 +17082,16 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>61</v>
@@ -16976,13 +17100,13 @@
         <v>10</v>
       </c>
       <c r="G14" s="14">
-        <v>40879</v>
+        <v>40878</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J14" s="4">
         <v>100</v>
@@ -16990,31 +17114,31 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>76</v>
+        <v>14</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>72</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F15" s="18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G15" s="14">
-        <v>40878</v>
+        <v>40886</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I15" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J15" s="4">
         <v>100</v>
@@ -17022,10 +17146,10 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>20</v>
@@ -17037,13 +17161,13 @@
         <v>61</v>
       </c>
       <c r="F16" s="18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G16" s="14">
-        <v>40886</v>
+        <v>40890</v>
       </c>
       <c r="H16" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="3">
         <v>7</v>
@@ -17052,15 +17176,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
@@ -17075,27 +17199,27 @@
         <v>40890</v>
       </c>
       <c r="H17" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I17" s="3">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="J17" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>75</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>61</v>
@@ -17104,30 +17228,30 @@
         <v>12</v>
       </c>
       <c r="G18" s="14">
-        <v>40890</v>
+        <v>40889</v>
       </c>
       <c r="H18" s="3">
         <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J18" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>61</v>
@@ -17136,30 +17260,30 @@
         <v>12</v>
       </c>
       <c r="G19" s="14">
-        <v>40889</v>
+        <v>40890</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>61</v>
@@ -17171,59 +17295,59 @@
         <v>40890</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J20" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="14">
-        <v>40890</v>
+        <v>40896</v>
       </c>
       <c r="H21" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I21" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J21" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E22" s="4" t="s">
         <v>61</v>
@@ -17235,85 +17359,85 @@
         <v>40896</v>
       </c>
       <c r="H22" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I22" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F23" s="18">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G23" s="14">
-        <v>40896</v>
+        <v>40916</v>
       </c>
       <c r="H23" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>61</v>
       </c>
       <c r="F24" s="18">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" s="14">
-        <v>40916</v>
+        <v>40954</v>
       </c>
       <c r="H24" s="3">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="I24" s="3">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="J24" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>9</v>
@@ -17324,28 +17448,24 @@
       <c r="E25" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="18">
-        <v>17</v>
-      </c>
+      <c r="F25" s="18"/>
       <c r="G25" s="14">
-        <v>40954</v>
+        <v>41005</v>
       </c>
       <c r="H25" s="3">
-        <v>46</v>
-      </c>
-      <c r="I25" s="3">
-        <v>64</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -17358,13 +17478,17 @@
       </c>
       <c r="F26" s="18"/>
       <c r="G26" s="14"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
+      <c r="H26" s="3">
+        <v>8</v>
+      </c>
+      <c r="I26" s="3">
+        <v>9</v>
+      </c>
       <c r="J26" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -17382,13 +17506,17 @@
       </c>
       <c r="F27" s="18"/>
       <c r="G27" s="14"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
+      <c r="H27" s="3">
+        <v>8</v>
+      </c>
+      <c r="I27" s="3">
+        <v>12</v>
+      </c>
       <c r="J27" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -17406,18 +17534,22 @@
       </c>
       <c r="F28" s="18"/>
       <c r="G28" s="14"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
+      <c r="H28" s="3">
+        <v>8</v>
+      </c>
+      <c r="I28" s="49">
+        <v>12</v>
+      </c>
       <c r="J28" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -17430,146 +17562,176 @@
       </c>
       <c r="F29" s="18"/>
       <c r="G29" s="14"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="H29" s="3">
+        <v>8</v>
+      </c>
+      <c r="I29" s="3">
+        <v>6</v>
+      </c>
       <c r="J29" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="26"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="27"/>
-    </row>
-    <row r="32" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C32" s="21" t="s">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="28"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+    </row>
+    <row r="33" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C33" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D33" s="22">
         <v>2</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E33" s="22">
         <v>3</v>
       </c>
-      <c r="F32" s="22">
+      <c r="F33" s="22">
         <v>4</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G33" s="22">
         <v>6</v>
       </c>
-      <c r="H32" s="22">
+      <c r="H33" s="22">
         <v>7</v>
       </c>
-      <c r="I32" s="22">
+      <c r="I33" s="22">
         <v>10</v>
       </c>
-      <c r="J32" s="22">
+      <c r="J33" s="22">
         <v>11</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K33" s="22">
         <v>12</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L33" s="22">
         <v>13</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M33" s="22">
         <v>15</v>
       </c>
-      <c r="N32" s="22">
+      <c r="N33" s="22">
         <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C33" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D33" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E33" s="3">
-        <v>10</v>
-      </c>
-      <c r="F33" s="3">
-        <v>13</v>
-      </c>
-      <c r="G33" s="3">
-        <v>9</v>
-      </c>
-      <c r="H33" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I33" s="3">
-        <v>5</v>
-      </c>
-      <c r="J33" s="3">
-        <v>6</v>
-      </c>
-      <c r="K33" s="3">
-        <f>SUM(H17:H21)</f>
-        <v>15</v>
-      </c>
-      <c r="L33" s="3">
-        <v>9</v>
-      </c>
-      <c r="M33" s="3">
-        <v>1</v>
-      </c>
-      <c r="N33" s="25">
-        <v>46</v>
       </c>
     </row>
     <row r="34" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C34" s="21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" s="3">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="E34" s="3">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G34" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H34" s="3">
         <v>2.5</v>
       </c>
       <c r="I34" s="3">
+        <v>5</v>
+      </c>
+      <c r="J34" s="3">
         <v>6</v>
       </c>
-      <c r="J34" s="3">
-        <v>7</v>
-      </c>
       <c r="K34" s="3">
-        <f>SUM(I17:I21)</f>
-        <v>16.5</v>
+        <f>SUM(H16:H20)</f>
+        <v>15</v>
       </c>
       <c r="L34" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M34" s="3">
         <v>1</v>
       </c>
       <c r="N34" s="25">
-        <v>64</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="3">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="F35" s="3">
+        <v>15</v>
+      </c>
+      <c r="G35" s="3">
+        <v>12</v>
+      </c>
+      <c r="H35" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I35" s="3">
+        <v>6</v>
+      </c>
+      <c r="J35" s="3">
+        <v>7</v>
+      </c>
+      <c r="K35" s="3">
+        <f>SUM(I16:I20)</f>
+        <v>16.5</v>
+      </c>
+      <c r="L35" s="3">
+        <v>10</v>
+      </c>
+      <c r="M35" s="3">
+        <v>1</v>
+      </c>
+      <c r="N35" s="25">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J2"/>
+  <autoFilter ref="A1:J1"/>
   <sortState ref="A3:J25">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C30">
+  <conditionalFormatting sqref="C1:C25 C31 C27:C29">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+      <formula>"Very High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
     <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -17583,7 +17745,7 @@
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J30">
+  <conditionalFormatting sqref="J26">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -17595,14 +17757,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="J2:J25 J31 J27:J29">
+    <cfRule type="colorScale" priority="375">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29 D31">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C29 C31">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29 E31">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -17615,8 +17789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -847,7 +847,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -863,6 +863,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,7 +967,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1048,56 +1054,21 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2018,11 +1989,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118885760"/>
-        <c:axId val="118916224"/>
+        <c:axId val="118558080"/>
+        <c:axId val="118588544"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118885760"/>
+        <c:axId val="118558080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2032,7 +2003,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118916224"/>
+        <c:crossAx val="118588544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2040,7 +2011,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118916224"/>
+        <c:axId val="118588544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2051,7 +2022,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118885760"/>
+        <c:crossAx val="118558080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2224,11 +2195,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119367552"/>
-        <c:axId val="119369088"/>
+        <c:axId val="109078400"/>
+        <c:axId val="109079936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119367552"/>
+        <c:axId val="109078400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2238,7 +2209,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119369088"/>
+        <c:crossAx val="109079936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2246,7 +2217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119369088"/>
+        <c:axId val="109079936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2257,7 +2228,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119367552"/>
+        <c:crossAx val="109078400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2466,11 +2437,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119447936"/>
-        <c:axId val="119449472"/>
+        <c:axId val="109158784"/>
+        <c:axId val="109160320"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119447936"/>
+        <c:axId val="109158784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2480,7 +2451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119449472"/>
+        <c:crossAx val="109160320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2488,7 +2459,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119449472"/>
+        <c:axId val="109160320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119447936"/>
+        <c:crossAx val="109158784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2708,11 +2679,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119868032"/>
-        <c:axId val="119898496"/>
+        <c:axId val="109316736"/>
+        <c:axId val="109347200"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119868032"/>
+        <c:axId val="109316736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2722,7 +2693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119898496"/>
+        <c:crossAx val="109347200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2730,7 +2701,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119898496"/>
+        <c:axId val="109347200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2741,14 +2712,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119868032"/>
+        <c:crossAx val="109316736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3011,11 +2981,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119125120"/>
-        <c:axId val="119126656"/>
+        <c:axId val="108837120"/>
+        <c:axId val="108838912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119125120"/>
+        <c:axId val="108837120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3025,7 +2995,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119126656"/>
+        <c:crossAx val="108838912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3033,7 +3003,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119126656"/>
+        <c:axId val="108838912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3044,14 +3014,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119125120"/>
+        <c:crossAx val="108837120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3278,11 +3247,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119163904"/>
-        <c:axId val="119169792"/>
+        <c:axId val="108881024"/>
+        <c:axId val="108882560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119163904"/>
+        <c:axId val="108881024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3292,7 +3261,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119169792"/>
+        <c:crossAx val="108882560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3300,7 +3269,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119169792"/>
+        <c:axId val="108882560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3311,7 +3280,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119163904"/>
+        <c:crossAx val="108881024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3357,7 +3326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dang Nguyen'!$C$34</c:f>
+              <c:f>'Dang Nguyen'!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3367,50 +3336,68 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="11"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>17</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Dang Nguyen'!$D$32:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dang Nguyen'!$D$34:$N$34</c:f>
+              <c:f>'Dang Nguyen'!$D$33:$S$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2.5</c:v>
                 </c:pt>
@@ -3443,6 +3430,21 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3454,7 +3456,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Dang Nguyen'!$C$35</c:f>
+              <c:f>'Dang Nguyen'!$C$34</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3464,50 +3466,68 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="11"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>13</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>15</c:v>
-              </c:pt>
-              <c:pt idx="10">
-                <c:v>17</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Dang Nguyen'!$D$32:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Dang Nguyen'!$D$35:$N$35</c:f>
+              <c:f>'Dang Nguyen'!$D$34:$S$34</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -3540,6 +3560,21 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3556,11 +3591,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="119248384"/>
-        <c:axId val="119249920"/>
+        <c:axId val="108951040"/>
+        <c:axId val="108952576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="119248384"/>
+        <c:axId val="108951040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3570,7 +3605,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119249920"/>
+        <c:crossAx val="108952576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3578,7 +3613,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="119249920"/>
+        <c:axId val="108952576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3589,7 +3624,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119248384"/>
+        <c:crossAx val="108951040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3877,11 +3912,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="120422400"/>
-        <c:axId val="120423936"/>
+        <c:axId val="109871104"/>
+        <c:axId val="109872640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120422400"/>
+        <c:axId val="109871104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3891,7 +3926,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120423936"/>
+        <c:crossAx val="109872640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3899,7 +3934,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120423936"/>
+        <c:axId val="109872640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3910,13 +3945,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="120422400"/>
+        <c:crossAx val="109871104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4523,18 +4559,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -16645,11 +16681,11 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N35"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q20" sqref="Q20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17176,7 +17212,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -17208,7 +17244,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -17240,7 +17276,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -17272,7 +17308,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -17304,7 +17340,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -17336,7 +17372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -17368,7 +17404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -17400,7 +17436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -17432,7 +17468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -17450,17 +17486,19 @@
       </c>
       <c r="F25" s="18"/>
       <c r="G25" s="14">
-        <v>41005</v>
+        <v>41016</v>
       </c>
       <c r="H25" s="3">
-        <v>8</v>
-      </c>
-      <c r="I25" s="3"/>
+        <v>60</v>
+      </c>
+      <c r="I25" s="3">
+        <v>56</v>
+      </c>
       <c r="J25" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -17476,8 +17514,12 @@
       <c r="E26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="14"/>
+      <c r="F26" s="18">
+        <v>18</v>
+      </c>
+      <c r="G26" s="14">
+        <v>40993</v>
+      </c>
       <c r="H26" s="3">
         <v>8</v>
       </c>
@@ -17488,7 +17530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -17504,8 +17546,12 @@
       <c r="E27" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F27" s="18"/>
-      <c r="G27" s="14"/>
+      <c r="F27" s="18">
+        <v>19</v>
+      </c>
+      <c r="G27" s="14">
+        <v>40997</v>
+      </c>
       <c r="H27" s="3">
         <v>8</v>
       </c>
@@ -17516,7 +17562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -17532,19 +17578,23 @@
       <c r="E28" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="14"/>
+      <c r="F28" s="18">
+        <v>20</v>
+      </c>
+      <c r="G28" s="14">
+        <v>41004</v>
+      </c>
       <c r="H28" s="3">
         <v>8</v>
       </c>
-      <c r="I28" s="49">
+      <c r="I28" s="48">
         <v>12</v>
       </c>
       <c r="J28" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -17560,8 +17610,12 @@
       <c r="E29" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="18"/>
-      <c r="G29" s="14"/>
+      <c r="F29" s="18">
+        <v>21</v>
+      </c>
+      <c r="G29" s="14">
+        <v>41009</v>
+      </c>
       <c r="H29" s="3">
         <v>8</v>
       </c>
@@ -17572,152 +17626,188 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="44"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-    </row>
-    <row r="33" spans="3:14" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+    </row>
+    <row r="32" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C32" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D32" s="22">
+        <v>2</v>
+      </c>
+      <c r="E32" s="22">
+        <v>3</v>
+      </c>
+      <c r="F32" s="22">
+        <v>4</v>
+      </c>
+      <c r="G32" s="22">
+        <v>6</v>
+      </c>
+      <c r="H32" s="22">
+        <v>7</v>
+      </c>
+      <c r="I32" s="22">
+        <v>10</v>
+      </c>
+      <c r="J32" s="22">
+        <v>11</v>
+      </c>
+      <c r="K32" s="22">
+        <v>12</v>
+      </c>
+      <c r="L32" s="22">
+        <v>13</v>
+      </c>
+      <c r="M32" s="22">
+        <v>15</v>
+      </c>
+      <c r="N32" s="22">
+        <v>17</v>
+      </c>
+      <c r="O32" s="51">
+        <v>18</v>
+      </c>
+      <c r="P32" s="51">
+        <v>19</v>
+      </c>
+      <c r="Q32" s="51">
+        <v>20</v>
+      </c>
+      <c r="R32" s="51">
+        <v>21</v>
+      </c>
+      <c r="S32" s="51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C33" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D33" s="22">
-        <v>2</v>
-      </c>
-      <c r="E33" s="22">
-        <v>3</v>
-      </c>
-      <c r="F33" s="22">
         <v>4</v>
       </c>
-      <c r="G33" s="22">
+      <c r="D33" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="E33" s="3">
+        <v>10</v>
+      </c>
+      <c r="F33" s="3">
+        <v>13</v>
+      </c>
+      <c r="G33" s="3">
+        <v>9</v>
+      </c>
+      <c r="H33" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="I33" s="3">
+        <v>5</v>
+      </c>
+      <c r="J33" s="3">
         <v>6</v>
       </c>
-      <c r="H33" s="22">
-        <v>7</v>
-      </c>
-      <c r="I33" s="22">
-        <v>10</v>
-      </c>
-      <c r="J33" s="22">
-        <v>11</v>
-      </c>
-      <c r="K33" s="22">
+      <c r="K33" s="3">
+        <f>SUM(H16:H20)</f>
+        <v>15</v>
+      </c>
+      <c r="L33" s="3">
+        <v>9</v>
+      </c>
+      <c r="M33" s="3">
+        <v>1</v>
+      </c>
+      <c r="N33" s="25">
+        <v>46</v>
+      </c>
+      <c r="O33" s="20">
+        <v>18</v>
+      </c>
+      <c r="P33" s="20">
+        <v>8</v>
+      </c>
+      <c r="Q33" s="20">
+        <v>30</v>
+      </c>
+      <c r="R33" s="20">
+        <v>8</v>
+      </c>
+      <c r="S33" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="3:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C34" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="3">
+        <v>4</v>
+      </c>
+      <c r="E34" s="3">
+        <v>11.5</v>
+      </c>
+      <c r="F34" s="3">
+        <v>15</v>
+      </c>
+      <c r="G34" s="3">
         <v>12</v>
-      </c>
-      <c r="L33" s="22">
-        <v>13</v>
-      </c>
-      <c r="M33" s="22">
-        <v>15</v>
-      </c>
-      <c r="N33" s="22">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C34" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D34" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="E34" s="3">
-        <v>10</v>
-      </c>
-      <c r="F34" s="3">
-        <v>13</v>
-      </c>
-      <c r="G34" s="3">
-        <v>9</v>
       </c>
       <c r="H34" s="3">
         <v>2.5</v>
       </c>
       <c r="I34" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K34" s="3">
-        <f>SUM(H16:H20)</f>
-        <v>15</v>
+        <f>SUM(I16:I20)</f>
+        <v>16.5</v>
       </c>
       <c r="L34" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M34" s="3">
         <v>1</v>
       </c>
       <c r="N34" s="25">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C35" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="3">
-        <v>4</v>
-      </c>
-      <c r="E35" s="3">
-        <v>11.5</v>
-      </c>
-      <c r="F35" s="3">
-        <v>15</v>
-      </c>
-      <c r="G35" s="3">
+        <v>88</v>
+      </c>
+      <c r="O34" s="20">
+        <v>17</v>
+      </c>
+      <c r="P34" s="20">
         <v>12</v>
       </c>
-      <c r="H35" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="Q34" s="20">
+        <v>36</v>
+      </c>
+      <c r="R34" s="20">
         <v>6</v>
       </c>
-      <c r="J35" s="3">
-        <v>7</v>
-      </c>
-      <c r="K35" s="3">
-        <f>SUM(I16:I20)</f>
-        <v>16.5</v>
-      </c>
-      <c r="L35" s="3">
-        <v>10</v>
-      </c>
-      <c r="M35" s="3">
-        <v>1</v>
-      </c>
-      <c r="N35" s="25">
-        <v>88</v>
-      </c>
+      <c r="S34" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="3:19" x14ac:dyDescent="0.25">
+      <c r="D41" s="50"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
   <sortState ref="A3:J25">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C1:C25 C31 C27:C29">
+  <conditionalFormatting sqref="C1:C25 C27:C30">
     <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -17757,7 +17847,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J25 J31 J27:J29">
+  <conditionalFormatting sqref="J2:J25 J27:J30">
     <cfRule type="colorScale" priority="375">
       <colorScale>
         <cfvo type="min"/>
@@ -17770,18 +17860,19 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D29 D31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D30">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C29 C31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C30">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29 E31">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E30">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -17790,7 +17881,7 @@
   <dimension ref="A2:R40"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1613" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="250">
   <si>
     <t>No.</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t>Programming "Salaryconcient Management"</t>
+  </si>
+  <si>
+    <t>Fix code</t>
   </si>
 </sst>
 </file>
@@ -1057,18 +1060,55 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="72">
+  <dxfs count="76">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1989,11 +2029,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="118558080"/>
-        <c:axId val="118588544"/>
+        <c:axId val="144756736"/>
+        <c:axId val="144759040"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="118558080"/>
+        <c:axId val="144756736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2003,7 +2043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118588544"/>
+        <c:crossAx val="144759040"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2011,7 +2051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="118588544"/>
+        <c:axId val="144759040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2022,7 +2062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="118558080"/>
+        <c:crossAx val="144756736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2195,11 +2235,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109078400"/>
-        <c:axId val="109079936"/>
+        <c:axId val="82541952"/>
+        <c:axId val="82543744"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109078400"/>
+        <c:axId val="82541952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2209,7 +2249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109079936"/>
+        <c:crossAx val="82543744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2217,7 +2257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109079936"/>
+        <c:axId val="82543744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2228,7 +2268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109078400"/>
+        <c:crossAx val="82541952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2274,90 +2314,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Loc Phan'!$C$29</c:f>
+              <c:f>'Loc Phan'!$C$30</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>Estimated hour</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="8"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>11</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>12</c:v>
-              </c:pt>
-            </c:numLit>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Loc Phan'!$D$29:$K$29</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Loc Phan'!$C$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual hour</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2399,6 +2360,85 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Loc Phan'!$C$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual hour</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="8"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>5</c:v>
+              </c:pt>
+              <c:pt idx="2">
+                <c:v>6</c:v>
+              </c:pt>
+              <c:pt idx="3">
+                <c:v>7</c:v>
+              </c:pt>
+              <c:pt idx="4">
+                <c:v>8</c:v>
+              </c:pt>
+              <c:pt idx="5">
+                <c:v>10</c:v>
+              </c:pt>
+              <c:pt idx="6">
+                <c:v>11</c:v>
+              </c:pt>
+              <c:pt idx="7">
+                <c:v>12</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Loc Phan'!$D$31:$K$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -2437,11 +2477,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109158784"/>
-        <c:axId val="109160320"/>
+        <c:axId val="82560896"/>
+        <c:axId val="82562432"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109158784"/>
+        <c:axId val="82560896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2491,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109160320"/>
+        <c:crossAx val="82562432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2459,7 +2499,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109160320"/>
+        <c:axId val="82562432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,13 +2510,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109158784"/>
+        <c:crossAx val="82560896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2679,11 +2720,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109316736"/>
-        <c:axId val="109347200"/>
+        <c:axId val="82616704"/>
+        <c:axId val="82618240"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109316736"/>
+        <c:axId val="82616704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,7 +2734,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109347200"/>
+        <c:crossAx val="82618240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2701,7 +2742,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109347200"/>
+        <c:axId val="82618240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2712,7 +2753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109316736"/>
+        <c:crossAx val="82616704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2981,11 +3022,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108837120"/>
-        <c:axId val="108838912"/>
+        <c:axId val="82631296"/>
+        <c:axId val="82637184"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108837120"/>
+        <c:axId val="82631296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2995,7 +3036,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108838912"/>
+        <c:crossAx val="82637184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3003,7 +3044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108838912"/>
+        <c:axId val="82637184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,7 +3055,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108837120"/>
+        <c:crossAx val="82631296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3247,11 +3288,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108881024"/>
-        <c:axId val="108882560"/>
+        <c:axId val="124236928"/>
+        <c:axId val="124238464"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108881024"/>
+        <c:axId val="124236928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3261,7 +3302,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108882560"/>
+        <c:crossAx val="124238464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3269,7 +3310,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108882560"/>
+        <c:axId val="124238464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,7 +3321,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108881024"/>
+        <c:crossAx val="124236928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3591,11 +3632,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108951040"/>
-        <c:axId val="108952576"/>
+        <c:axId val="82447744"/>
+        <c:axId val="82461824"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108951040"/>
+        <c:axId val="82447744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3605,7 +3646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108952576"/>
+        <c:crossAx val="82461824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3613,7 +3654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108952576"/>
+        <c:axId val="82461824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3624,7 +3665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="108951040"/>
+        <c:crossAx val="82447744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3912,11 +3953,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="109871104"/>
-        <c:axId val="109872640"/>
+        <c:axId val="124265984"/>
+        <c:axId val="124267520"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="109871104"/>
+        <c:axId val="124265984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3926,7 +3967,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109872640"/>
+        <c:crossAx val="124267520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3934,7 +3975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109872640"/>
+        <c:axId val="124267520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3945,14 +3986,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="109871104"/>
+        <c:crossAx val="124265984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4559,18 +4599,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -9850,58 +9890,58 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C46:C117 C127:C1048576">
-    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="37" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="39" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="30" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="18" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="19" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9942,16 +9982,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11218,16 +11258,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12577,16 +12617,16 @@
     <sortCondition ref="F36"/>
   </sortState>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12621,10 +12661,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K30"/>
+  <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12687,7 +12727,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F26" si="0">INT((G3-$K$3)/7)+1</f>
+        <f t="shared" ref="F3:F28" si="0">INT((G3-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G3" s="14">
@@ -13318,16 +13358,16 @@
       </c>
       <c r="F22" s="18">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G22" s="14">
-        <v>40974</v>
+        <v>40998</v>
       </c>
       <c r="H22" s="3">
         <v>8</v>
       </c>
       <c r="I22" s="3">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J22" s="4">
         <v>100</v>
@@ -13351,10 +13391,10 @@
       </c>
       <c r="F23" s="18">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G23" s="14">
-        <v>40975</v>
+        <v>40999</v>
       </c>
       <c r="H23" s="3">
         <v>8</v>
@@ -13384,10 +13424,10 @@
       </c>
       <c r="F24" s="18">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="G24" s="14">
-        <v>40977</v>
+        <v>41000</v>
       </c>
       <c r="H24" s="3">
         <v>8</v>
@@ -13417,10 +13457,10 @@
       </c>
       <c r="F25" s="18">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G25" s="14">
-        <v>40981</v>
+        <v>41002</v>
       </c>
       <c r="H25" s="3">
         <v>8</v>
@@ -13433,126 +13473,157 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
+      <c r="A26" s="3"/>
       <c r="B26" s="37" t="s">
-        <v>30</v>
+        <v>249</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E26" s="4" t="s">
         <v>103</v>
       </c>
       <c r="F26" s="18">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" s="14">
-        <v>41023</v>
+        <v>41011</v>
       </c>
       <c r="H26" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I26" s="3">
         <v>6</v>
       </c>
       <c r="J26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>24</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" s="18">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G27" s="14">
+        <v>41023</v>
+      </c>
+      <c r="H27" s="3">
+        <v>16</v>
+      </c>
+      <c r="I27" s="3">
+        <v>6</v>
+      </c>
+      <c r="J27" s="4">
         <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C28" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="D28" s="22">
-        <v>1</v>
-      </c>
-      <c r="E28" s="22">
-        <v>5</v>
-      </c>
-      <c r="F28" s="22">
-        <v>6</v>
-      </c>
-      <c r="G28" s="22">
-        <v>7</v>
-      </c>
-      <c r="H28" s="22">
-        <v>8</v>
-      </c>
-      <c r="I28" s="22">
-        <v>10</v>
-      </c>
-      <c r="J28" s="22">
-        <v>11</v>
-      </c>
-      <c r="K28" s="22">
-        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C29" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D29" s="22">
+        <v>1</v>
+      </c>
+      <c r="E29" s="22">
+        <v>5</v>
+      </c>
+      <c r="F29" s="22">
+        <v>6</v>
+      </c>
+      <c r="G29" s="22">
+        <v>7</v>
+      </c>
+      <c r="H29" s="22">
+        <v>8</v>
+      </c>
+      <c r="I29" s="22">
+        <v>10</v>
+      </c>
+      <c r="J29" s="22">
+        <v>11</v>
+      </c>
+      <c r="K29" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C30" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D30" s="4">
         <f>SUM(H3:H8)</f>
         <v>22</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E30" s="4">
         <f>SUM(H5:H8)</f>
         <v>12</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F30" s="4">
         <v>5</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G30" s="4">
         <v>6</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H30" s="4">
         <v>8</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I30" s="4">
         <v>6</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J30" s="4">
         <v>8</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K30" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C30" s="21" t="s">
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C31" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D31" s="4">
         <f>SUM(I3:I8)</f>
         <v>20</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E31" s="4">
         <f>SUM(I5:I8)</f>
         <v>13</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F31" s="4">
         <v>3</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G31" s="4">
         <v>5.5</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H31" s="4">
         <v>8</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I31" s="4">
         <v>7</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J31" s="4">
         <v>8</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K31" s="4">
         <v>3</v>
       </c>
     </row>
@@ -13561,21 +13632,33 @@
   <sortState ref="A3:K21">
     <sortCondition ref="F3"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C26">
-    <cfRule type="cellIs" dxfId="43" priority="2" operator="equal">
+  <conditionalFormatting sqref="C2:C27">
+    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J26">
+  <conditionalFormatting sqref="J3:J21">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22:J27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -13588,13 +13671,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D27">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C27">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E27">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14483,58 +14566,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C25">
-    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15728,30 +15811,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C31">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16638,16 +16721,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16683,8 +16766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
@@ -17675,19 +17758,19 @@
       <c r="N32" s="22">
         <v>17</v>
       </c>
-      <c r="O32" s="51">
+      <c r="O32" s="50">
         <v>18</v>
       </c>
-      <c r="P32" s="51">
+      <c r="P32" s="50">
         <v>19</v>
       </c>
-      <c r="Q32" s="51">
+      <c r="Q32" s="50">
         <v>20</v>
       </c>
-      <c r="R32" s="51">
+      <c r="R32" s="50">
         <v>21</v>
       </c>
-      <c r="S32" s="51">
+      <c r="S32" s="50">
         <v>22</v>
       </c>
     </row>
@@ -17800,7 +17883,7 @@
       </c>
     </row>
     <row r="41" spans="3:19" x14ac:dyDescent="0.25">
-      <c r="D41" s="50"/>
+      <c r="D41" s="49"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:J1"/>
@@ -17808,30 +17891,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C1:C25 C27:C30">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -19162,16 +19245,16 @@
     <sortCondition ref="F1"/>
   </sortState>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="18195" windowHeight="8145" tabRatio="763" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="8085" tabRatio="763" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1071,44 +1071,7 @@
     <cellStyle name="Normal 2" xfId="1"/>
     <cellStyle name="Normal 3" xfId="2"/>
   </cellStyles>
-  <dxfs count="76">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="72">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2029,11 +1992,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144756736"/>
-        <c:axId val="144759040"/>
+        <c:axId val="137366144"/>
+        <c:axId val="140824960"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144756736"/>
+        <c:axId val="137366144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144759040"/>
+        <c:crossAx val="140824960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,7 +2014,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="144759040"/>
+        <c:axId val="140824960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2062,7 +2025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144756736"/>
+        <c:crossAx val="137366144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2235,11 +2198,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82541952"/>
-        <c:axId val="82543744"/>
+        <c:axId val="144943744"/>
+        <c:axId val="88846720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82541952"/>
+        <c:axId val="144943744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,7 +2212,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82543744"/>
+        <c:crossAx val="88846720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2257,7 +2220,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82543744"/>
+        <c:axId val="88846720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2268,13 +2231,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82541952"/>
+        <c:crossAx val="144943744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2477,11 +2441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82560896"/>
-        <c:axId val="82562432"/>
+        <c:axId val="88863872"/>
+        <c:axId val="88865408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82560896"/>
+        <c:axId val="88863872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2491,7 +2455,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82562432"/>
+        <c:crossAx val="88865408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2499,7 +2463,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82562432"/>
+        <c:axId val="88865408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2510,7 +2474,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82560896"/>
+        <c:crossAx val="88863872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2720,11 +2684,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82616704"/>
-        <c:axId val="82618240"/>
+        <c:axId val="83996032"/>
+        <c:axId val="84006016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82616704"/>
+        <c:axId val="83996032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2734,7 +2698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82618240"/>
+        <c:crossAx val="84006016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2742,7 +2706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82618240"/>
+        <c:axId val="84006016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2753,7 +2717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82616704"/>
+        <c:crossAx val="83996032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3022,11 +2986,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82631296"/>
-        <c:axId val="82637184"/>
+        <c:axId val="84023168"/>
+        <c:axId val="84024704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82631296"/>
+        <c:axId val="84023168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3036,7 +3000,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82637184"/>
+        <c:crossAx val="84024704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3044,7 +3008,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82637184"/>
+        <c:axId val="84024704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3055,13 +3019,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82631296"/>
+        <c:crossAx val="84023168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3288,11 +3253,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124236928"/>
-        <c:axId val="124238464"/>
+        <c:axId val="84078976"/>
+        <c:axId val="84080512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124236928"/>
+        <c:axId val="84078976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,7 +3267,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124238464"/>
+        <c:crossAx val="84080512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3310,7 +3275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124238464"/>
+        <c:axId val="84080512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3321,13 +3286,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124236928"/>
+        <c:crossAx val="84078976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3632,11 +3598,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="82447744"/>
-        <c:axId val="82461824"/>
+        <c:axId val="84163200"/>
+        <c:axId val="84164992"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="82447744"/>
+        <c:axId val="84163200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,7 +3612,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82461824"/>
+        <c:crossAx val="84164992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3654,7 +3620,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82461824"/>
+        <c:axId val="84164992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3631,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82447744"/>
+        <c:crossAx val="84163200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3953,11 +3919,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124265984"/>
-        <c:axId val="124267520"/>
+        <c:axId val="88876160"/>
+        <c:axId val="88877696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124265984"/>
+        <c:axId val="88876160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,7 +3933,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124267520"/>
+        <c:crossAx val="88877696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3975,7 +3941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124267520"/>
+        <c:axId val="88877696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3986,7 +3952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124265984"/>
+        <c:crossAx val="88876160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9890,58 +9856,58 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="C1:C27 C46:C117 C127:C1048576">
-    <cfRule type="cellIs" dxfId="75" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="37" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="38" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="39" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="40" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36:C45">
-    <cfRule type="cellIs" dxfId="71" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="27" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="28" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="29" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="30" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C34">
-    <cfRule type="cellIs" dxfId="67" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="23" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="24" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="25" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="26" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="cellIs" dxfId="63" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="18" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="19" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="20" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="21" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9982,16 +9948,16 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C118:C126">
-    <cfRule type="cellIs" dxfId="59" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="8" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="9" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="10" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="11" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11258,16 +11224,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="55" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11304,8 +11270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12617,16 +12583,16 @@
     <sortCondition ref="F36"/>
   </sortState>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="51" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12663,8 +12629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12727,7 +12693,7 @@
         <v>103</v>
       </c>
       <c r="F3" s="18">
-        <f t="shared" ref="F3:F28" si="0">INT((G3-$K$3)/7)+1</f>
+        <f t="shared" ref="F3:F27" si="0">INT((G3-$K$3)/7)+1</f>
         <v>1</v>
       </c>
       <c r="G3" s="14">
@@ -13633,16 +13599,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C27">
-    <cfRule type="cellIs" dxfId="47" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="3" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="4" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="5" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="6" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13690,8 +13656,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14333,7 +14299,7 @@
         <v>25</v>
       </c>
       <c r="G21" s="14">
-        <v>40983</v>
+        <v>40985</v>
       </c>
       <c r="H21" s="20">
         <v>8</v>
@@ -14566,58 +14532,58 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2">
-    <cfRule type="cellIs" dxfId="43" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="15" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="16" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="17" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="18" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C25">
-    <cfRule type="cellIs" dxfId="39" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="10" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="11" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="12" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="13" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C9">
-    <cfRule type="cellIs" dxfId="35" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="6" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="8" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="9" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14665,8 +14631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P35"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15811,30 +15777,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C16">
-    <cfRule type="cellIs" dxfId="27" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:C31">
-    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15886,7 +15852,7 @@
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16721,16 +16687,16 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C2:C23">
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16766,9 +16732,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17891,30 +17857,30 @@
     <sortCondition ref="F3"/>
   </sortState>
   <conditionalFormatting sqref="C1:C25 C27:C30">
-    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26">
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17963,8 +17929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19245,16 +19211,16 @@
     <sortCondition ref="F1"/>
   </sortState>
   <conditionalFormatting sqref="C2:C36">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Medium"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"High"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Very High"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="18195" windowHeight="8085" tabRatio="763" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="8025" tabRatio="763" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -970,7 +970,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1063,6 +1063,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1992,11 +1995,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="137366144"/>
-        <c:axId val="140824960"/>
+        <c:axId val="155251840"/>
+        <c:axId val="155253376"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="137366144"/>
+        <c:axId val="155251840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2006,7 +2009,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="140824960"/>
+        <c:crossAx val="155253376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2014,7 +2017,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="140824960"/>
+        <c:axId val="155253376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2025,7 +2028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137366144"/>
+        <c:crossAx val="155251840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2198,11 +2201,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="144943744"/>
-        <c:axId val="88846720"/>
+        <c:axId val="155454848"/>
+        <c:axId val="155460736"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="144943744"/>
+        <c:axId val="155454848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2212,7 +2215,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88846720"/>
+        <c:crossAx val="155460736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2220,7 +2223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88846720"/>
+        <c:axId val="155460736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2231,14 +2234,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144943744"/>
+        <c:crossAx val="155454848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2441,11 +2443,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88863872"/>
-        <c:axId val="88865408"/>
+        <c:axId val="155527040"/>
+        <c:axId val="155528576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88863872"/>
+        <c:axId val="155527040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2455,7 +2457,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88865408"/>
+        <c:crossAx val="155528576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2463,7 +2465,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88865408"/>
+        <c:axId val="155528576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2474,7 +2476,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88863872"/>
+        <c:crossAx val="155527040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2684,11 +2686,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="83996032"/>
-        <c:axId val="84006016"/>
+        <c:axId val="155604864"/>
+        <c:axId val="155606400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="83996032"/>
+        <c:axId val="155604864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2698,7 +2700,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84006016"/>
+        <c:crossAx val="155606400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2706,7 +2708,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84006016"/>
+        <c:axId val="155606400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2717,7 +2719,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83996032"/>
+        <c:crossAx val="155604864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2986,11 +2988,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84023168"/>
-        <c:axId val="84024704"/>
+        <c:axId val="155638400"/>
+        <c:axId val="155656576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84023168"/>
+        <c:axId val="155638400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +3002,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84024704"/>
+        <c:crossAx val="155656576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3008,7 +3010,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84024704"/>
+        <c:axId val="155656576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,14 +3021,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84023168"/>
+        <c:crossAx val="155638400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3076,47 +3077,59 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="10"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>13</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Tung Nguyen'!$D$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tung Nguyen'!$D$26:$M$26</c:f>
+              <c:f>'Tung Nguyen'!$D$26:$P$26</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>11</c:v>
                 </c:pt>
@@ -3146,6 +3159,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>60</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3167,47 +3189,59 @@
             </c:strRef>
           </c:tx>
           <c:cat>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="10"/>
-              <c:pt idx="0">
-                <c:v>2</c:v>
-              </c:pt>
-              <c:pt idx="1">
-                <c:v>3</c:v>
-              </c:pt>
-              <c:pt idx="2">
-                <c:v>4</c:v>
-              </c:pt>
-              <c:pt idx="3">
-                <c:v>5</c:v>
-              </c:pt>
-              <c:pt idx="4">
-                <c:v>6</c:v>
-              </c:pt>
-              <c:pt idx="5">
-                <c:v>7</c:v>
-              </c:pt>
-              <c:pt idx="6">
-                <c:v>8</c:v>
-              </c:pt>
-              <c:pt idx="7">
-                <c:v>10</c:v>
-              </c:pt>
-              <c:pt idx="8">
-                <c:v>12</c:v>
-              </c:pt>
-              <c:pt idx="9">
-                <c:v>13</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>'Tung Nguyen'!$D$25:$P$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Tung Nguyen'!$D$27:$M$27</c:f>
+              <c:f>'Tung Nguyen'!$D$27:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -3237,6 +3271,15 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3253,11 +3296,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84078976"/>
-        <c:axId val="84080512"/>
+        <c:axId val="155870336"/>
+        <c:axId val="155871872"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84078976"/>
+        <c:axId val="155870336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3267,7 +3310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84080512"/>
+        <c:crossAx val="155871872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3275,7 +3318,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84080512"/>
+        <c:axId val="155871872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3286,7 +3329,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84078976"/>
+        <c:crossAx val="155870336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3598,11 +3641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="84163200"/>
-        <c:axId val="84164992"/>
+        <c:axId val="155909504"/>
+        <c:axId val="156001408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="84163200"/>
+        <c:axId val="155909504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3612,7 +3655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84164992"/>
+        <c:crossAx val="156001408"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3620,7 +3663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84164992"/>
+        <c:axId val="156001408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3631,14 +3674,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84163200"/>
+        <c:crossAx val="155909504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3919,11 +3961,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="88876160"/>
-        <c:axId val="88877696"/>
+        <c:axId val="156149248"/>
+        <c:axId val="156150784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="88876160"/>
+        <c:axId val="156149248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3933,7 +3975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88877696"/>
+        <c:crossAx val="156150784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3941,7 +3983,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="88877696"/>
+        <c:axId val="156150784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +3994,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="88876160"/>
+        <c:crossAx val="156149248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -12629,7 +12671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -15849,10 +15891,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M27"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16362,7 +16404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -16395,7 +16437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -16428,7 +16470,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -16461,7 +16503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -16497,7 +16539,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -16513,16 +16555,24 @@
       <c r="E21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
+      <c r="F21" s="18">
+        <v>22</v>
+      </c>
+      <c r="G21" s="14">
+        <v>40972</v>
+      </c>
+      <c r="H21" s="3">
+        <v>8</v>
+      </c>
+      <c r="I21" s="3">
+        <v>13</v>
+      </c>
       <c r="J21" s="4">
         <v>100</v>
       </c>
       <c r="K21" s="32"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -16538,15 +16588,23 @@
       <c r="E22" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
+      <c r="F22" s="3">
+        <v>23</v>
+      </c>
+      <c r="G22" s="14">
+        <v>40977</v>
+      </c>
+      <c r="H22" s="3">
+        <v>8</v>
+      </c>
+      <c r="I22" s="52">
+        <v>14</v>
+      </c>
       <c r="J22" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -16562,19 +16620,27 @@
       <c r="E23" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
+      <c r="F23" s="3">
+        <v>32</v>
+      </c>
+      <c r="G23" s="14">
+        <v>41033</v>
+      </c>
+      <c r="H23" s="3">
+        <v>60</v>
+      </c>
+      <c r="I23" s="52">
+        <v>15</v>
+      </c>
       <c r="J23" s="4">
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="42"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C25" s="21" t="s">
         <v>134</v>
       </c>
@@ -16608,8 +16674,17 @@
       <c r="M25" s="22">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N25" s="22">
+        <v>22</v>
+      </c>
+      <c r="O25" s="22">
+        <v>23</v>
+      </c>
+      <c r="P25" s="22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C26" s="21" t="s">
         <v>4</v>
       </c>
@@ -16644,8 +16719,17 @@
       <c r="M26" s="4">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N26" s="37">
+        <v>8</v>
+      </c>
+      <c r="O26" s="37">
+        <v>8</v>
+      </c>
+      <c r="P26" s="37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C27" s="21" t="s">
         <v>5</v>
       </c>
@@ -16679,6 +16763,15 @@
       </c>
       <c r="M27" s="4">
         <v>4</v>
+      </c>
+      <c r="N27" s="37">
+        <v>13</v>
+      </c>
+      <c r="O27" s="37">
+        <v>14</v>
+      </c>
+      <c r="P27" s="37">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -16724,7 +16817,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="540" windowWidth="18195" windowHeight="8025" tabRatio="763" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="18195" windowHeight="7965" tabRatio="763" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="253">
   <si>
     <t>No.</t>
   </si>
@@ -776,9 +776,6 @@
     <t>Programming</t>
   </si>
   <si>
-    <t>Programming "Staff History", "Family Relationship", "Emulation", "Internal Trainning"</t>
-  </si>
-  <si>
     <t>26/04/2012</t>
   </si>
   <si>
@@ -789,6 +786,18 @@
   </si>
   <si>
     <t>Fix code</t>
+  </si>
+  <si>
+    <t>Programming "Staff History"</t>
+  </si>
+  <si>
+    <t>Programming "Supported Pepeole"</t>
+  </si>
+  <si>
+    <t>Programming  "Emulation"</t>
+  </si>
+  <si>
+    <t>Programming  "Internal Trainning"</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1071,10 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1995,11 +2004,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155251840"/>
-        <c:axId val="155253376"/>
+        <c:axId val="98752384"/>
+        <c:axId val="98753920"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155251840"/>
+        <c:axId val="98752384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2009,7 +2018,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155253376"/>
+        <c:crossAx val="98753920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2017,7 +2026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155253376"/>
+        <c:axId val="98753920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2028,7 +2037,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155251840"/>
+        <c:crossAx val="98752384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2201,11 +2210,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155454848"/>
-        <c:axId val="155460736"/>
+        <c:axId val="106881792"/>
+        <c:axId val="106883328"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155454848"/>
+        <c:axId val="106881792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2215,7 +2224,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155460736"/>
+        <c:crossAx val="106883328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2223,7 +2232,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155460736"/>
+        <c:axId val="106883328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,13 +2243,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155454848"/>
+        <c:crossAx val="106881792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2443,11 +2453,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155527040"/>
-        <c:axId val="155528576"/>
+        <c:axId val="106937344"/>
+        <c:axId val="106939136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155527040"/>
+        <c:axId val="106937344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2457,7 +2467,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155528576"/>
+        <c:crossAx val="106939136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2465,7 +2475,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155528576"/>
+        <c:axId val="106939136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2476,14 +2486,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155527040"/>
+        <c:crossAx val="106937344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2686,11 +2695,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155604864"/>
-        <c:axId val="155606400"/>
+        <c:axId val="106976768"/>
+        <c:axId val="106978304"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155604864"/>
+        <c:axId val="106976768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2700,7 +2709,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155606400"/>
+        <c:crossAx val="106978304"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2708,7 +2717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155606400"/>
+        <c:axId val="106978304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2719,13 +2728,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155604864"/>
+        <c:crossAx val="106976768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2988,11 +2998,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155638400"/>
-        <c:axId val="155656576"/>
+        <c:axId val="107040128"/>
+        <c:axId val="107046016"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155638400"/>
+        <c:axId val="107040128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3002,7 +3012,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155656576"/>
+        <c:crossAx val="107046016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3010,7 +3020,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155656576"/>
+        <c:axId val="107046016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3021,7 +3031,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155638400"/>
+        <c:crossAx val="107040128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3296,11 +3306,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155870336"/>
-        <c:axId val="155871872"/>
+        <c:axId val="40310656"/>
+        <c:axId val="40312192"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155870336"/>
+        <c:axId val="40310656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3310,7 +3320,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155871872"/>
+        <c:crossAx val="40312192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3318,7 +3328,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="155871872"/>
+        <c:axId val="40312192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3329,7 +3339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155870336"/>
+        <c:crossAx val="40310656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3641,11 +3651,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="155909504"/>
-        <c:axId val="156001408"/>
+        <c:axId val="2244992"/>
+        <c:axId val="2246528"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="155909504"/>
+        <c:axId val="2244992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3655,7 +3665,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156001408"/>
+        <c:crossAx val="2246528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3663,7 +3673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156001408"/>
+        <c:axId val="2246528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3674,13 +3684,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="155909504"/>
+        <c:crossAx val="2244992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3720,7 +3731,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nguyen Dinh'!$D$39</c:f>
+              <c:f>'Nguyen Dinh'!$D$42</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3782,7 +3793,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nguyen Dinh'!$E$39:$R$39</c:f>
+              <c:f>'Nguyen Dinh'!$E$42:$R$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3838,7 +3849,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Nguyen Dinh'!$D$40</c:f>
+              <c:f>'Nguyen Dinh'!$D$43</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3900,7 +3911,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Nguyen Dinh'!$E$40:$R$40</c:f>
+              <c:f>'Nguyen Dinh'!$E$43:$R$43</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -3961,11 +3972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="156149248"/>
-        <c:axId val="156150784"/>
+        <c:axId val="40368768"/>
+        <c:axId val="40370560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="156149248"/>
+        <c:axId val="40368768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3975,7 +3986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156150784"/>
+        <c:crossAx val="40370560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3983,7 +3994,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156150784"/>
+        <c:axId val="40370560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,13 +4005,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="156149248"/>
+        <c:crossAx val="40368768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4607,18 +4619,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -11312,8 +11324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13483,7 +13495,7 @@
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="37" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -15490,7 +15502,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>9</v>
@@ -15893,8 +15905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+    <sheetView topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16597,7 +16609,7 @@
       <c r="H22" s="3">
         <v>8</v>
       </c>
-      <c r="I22" s="52">
+      <c r="I22" s="51">
         <v>14</v>
       </c>
       <c r="J22" s="4">
@@ -16629,7 +16641,7 @@
       <c r="H23" s="3">
         <v>60</v>
       </c>
-      <c r="I23" s="52">
+      <c r="I23" s="51">
         <v>15</v>
       </c>
       <c r="J23" s="4">
@@ -16826,9 +16838,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17742,7 +17754,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>9</v>
@@ -18021,10 +18033,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R40"/>
+  <dimension ref="A2:R43"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19080,7 +19092,9 @@
         <v>169</v>
       </c>
       <c r="F34" s="4"/>
-      <c r="G34" s="14"/>
+      <c r="G34" s="14">
+        <v>40993</v>
+      </c>
       <c r="H34" s="4">
         <v>10</v>
       </c>
@@ -19091,211 +19105,285 @@
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B35" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F35" s="4">
-        <v>28</v>
-      </c>
-      <c r="G35" s="16">
-        <v>41064</v>
+      <c r="F35" s="4"/>
+      <c r="G35" s="14">
+        <v>40997</v>
       </c>
       <c r="H35" s="4">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="I35" s="4">
-        <v>123</v>
-      </c>
-      <c r="J35" s="4">
-        <v>100</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="J35" s="4"/>
     </row>
     <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
-      <c r="B36" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="B36" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="4"/>
+      <c r="G36" s="14">
+        <v>40995</v>
+      </c>
+      <c r="H36" s="4">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4">
+        <v>16</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="14">
+        <v>40996</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="4">
+        <v>28</v>
+      </c>
+      <c r="G38" s="16">
+        <v>41064</v>
+      </c>
+      <c r="H38" s="4">
+        <v>24</v>
+      </c>
+      <c r="I38" s="4">
+        <v>123</v>
+      </c>
+      <c r="J38" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="4">
         <v>31</v>
       </c>
-      <c r="G36" s="47" t="s">
-        <v>246</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G39" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="4">
         <v>24</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I39" s="4">
         <v>3</v>
       </c>
-      <c r="J36" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="26"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D38" s="21" t="s">
+      <c r="J39" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E41" s="22">
         <v>2</v>
       </c>
-      <c r="F38" s="22">
+      <c r="F41" s="22">
         <v>3</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G41" s="22">
         <v>5</v>
       </c>
-      <c r="H38" s="22">
+      <c r="H41" s="22">
         <v>6</v>
       </c>
-      <c r="I38" s="22">
+      <c r="I41" s="22">
         <v>7</v>
       </c>
-      <c r="J38" s="22">
+      <c r="J41" s="22">
         <v>8</v>
       </c>
-      <c r="K38" s="22">
+      <c r="K41" s="22">
         <v>9</v>
       </c>
-      <c r="L38" s="22">
+      <c r="L41" s="22">
         <v>10</v>
       </c>
-      <c r="M38" s="22">
+      <c r="M41" s="22">
         <v>11</v>
       </c>
-      <c r="N38" s="22">
+      <c r="N41" s="22">
         <v>12</v>
       </c>
-      <c r="O38" s="22">
+      <c r="O41" s="22">
         <v>15</v>
       </c>
-      <c r="P38" s="22">
+      <c r="P41" s="22">
         <v>16</v>
       </c>
-      <c r="Q38" s="22">
+      <c r="Q41" s="22">
         <v>22</v>
       </c>
-      <c r="R38" s="22">
+      <c r="R41" s="22">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D39" s="21" t="s">
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="E39" s="3">
+      <c r="E42" s="3">
         <v>18</v>
       </c>
-      <c r="F39" s="3">
+      <c r="F42" s="3">
         <v>6</v>
       </c>
-      <c r="G39" s="3">
+      <c r="G42" s="3">
         <v>3</v>
       </c>
-      <c r="H39" s="3">
+      <c r="H42" s="3">
         <v>6</v>
       </c>
-      <c r="I39" s="3">
+      <c r="I42" s="3">
         <v>5</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J42" s="3">
         <v>7</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K42" s="3">
         <v>12</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L42" s="3">
         <v>1</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M42" s="3">
         <v>8</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N42" s="3">
         <v>2</v>
       </c>
-      <c r="O39" s="25">
+      <c r="O42" s="25">
         <v>1</v>
       </c>
-      <c r="P39" s="4">
+      <c r="P42" s="4">
         <v>2</v>
       </c>
-      <c r="Q39" s="4">
+      <c r="Q42" s="4">
         <v>2</v>
       </c>
-      <c r="R39" s="4">
+      <c r="R42" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D40" s="21" t="s">
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="3">
+      <c r="E43" s="3">
         <v>12</v>
       </c>
-      <c r="F40" s="3">
+      <c r="F43" s="3">
         <v>5</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G43" s="3">
         <v>3</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H43" s="3">
         <v>4.5</v>
       </c>
-      <c r="I40" s="3">
+      <c r="I43" s="3">
         <v>4</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J43" s="3">
         <v>5.5</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K43" s="3">
         <v>9</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L43" s="3">
         <v>1</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M43" s="3">
         <v>5.5</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N43" s="3">
         <v>2</v>
       </c>
-      <c r="O40" s="25">
+      <c r="O43" s="25">
         <v>0.5</v>
       </c>
-      <c r="P40" s="4">
+      <c r="P43" s="4">
         <v>1</v>
       </c>
-      <c r="Q40" s="4">
+      <c r="Q43" s="4">
         <v>1</v>
       </c>
-      <c r="R40" s="4">
+      <c r="R43" s="4">
         <v>1</v>
       </c>
     </row>
@@ -19304,7 +19392,7 @@
   <sortState ref="A3:J34">
     <sortCondition ref="F1"/>
   </sortState>
-  <conditionalFormatting sqref="C2:C36">
+  <conditionalFormatting sqref="C2:C39">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
@@ -19330,7 +19418,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J36">
+  <conditionalFormatting sqref="J26:J39">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -19355,13 +19443,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D39">
       <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C39">
       <formula1>"Very High,High, Medium, Low"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E39">
       <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
     </dataValidation>
   </dataValidations>

--- a/trunk/Project Plan/HRM_Mesurement.xlsx
+++ b/trunk/Project Plan/HRM_Mesurement.xlsx
@@ -4,37 +4,38 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="600" windowWidth="18195" windowHeight="7965" tabRatio="763" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="480" yWindow="600" windowWidth="18195" windowHeight="7965" tabRatio="763" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Tan Tran" sheetId="2" r:id="rId2"/>
-    <sheet name="Tuong Nguyen" sheetId="3" r:id="rId3"/>
-    <sheet name="Loc Phan" sheetId="4" r:id="rId4"/>
-    <sheet name="Nhung Huynh" sheetId="5" r:id="rId5"/>
-    <sheet name="Quyet Nguyen" sheetId="6" r:id="rId6"/>
-    <sheet name="Tung Nguyen" sheetId="7" r:id="rId7"/>
-    <sheet name="Dang Nguyen" sheetId="8" r:id="rId8"/>
-    <sheet name="Nguyen Dinh" sheetId="9" r:id="rId9"/>
-    <sheet name="PercentActualComplete" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet2" sheetId="11" r:id="rId2"/>
+    <sheet name="Tan Tran" sheetId="2" r:id="rId3"/>
+    <sheet name="Tuong Nguyen" sheetId="3" r:id="rId4"/>
+    <sheet name="Loc Phan" sheetId="4" r:id="rId5"/>
+    <sheet name="Nhung Huynh" sheetId="5" r:id="rId6"/>
+    <sheet name="Quyet Nguyen" sheetId="6" r:id="rId7"/>
+    <sheet name="Tung Nguyen" sheetId="7" r:id="rId8"/>
+    <sheet name="Dang Nguyen" sheetId="8" r:id="rId9"/>
+    <sheet name="Nguyen Dinh" sheetId="9" r:id="rId10"/>
+    <sheet name="PercentActualComplete" sheetId="10" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Dang Nguyen'!$A$1:$J$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Loc Phan'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Nguyen Dinh'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Nhung Huynh'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Quyet Nguyen'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'Dang Nguyen'!$A$1:$J$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Loc Phan'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'Nguyen Dinh'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Nhung Huynh'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Quyet Nguyen'!$A$2:$J$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$J$177</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Tan Tran'!$A$2:$J$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Tan Tran'!$A$2:$J$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'Tung Nguyen'!$A$2:$J$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Tuong Nguyen'!$A$2:$J$12</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="256">
   <si>
     <t>No.</t>
   </si>
@@ -798,6 +799,15 @@
   </si>
   <si>
     <t>Programming  "Internal Trainning"</t>
+  </si>
+  <si>
+    <t>Total task</t>
+  </si>
+  <si>
+    <t>Plan</t>
+  </si>
+  <si>
+    <t>Actual</t>
   </si>
 </sst>
 </file>
@@ -2004,11 +2014,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="98752384"/>
-        <c:axId val="98753920"/>
+        <c:axId val="93416448"/>
+        <c:axId val="93520640"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98752384"/>
+        <c:axId val="93416448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2018,7 +2028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98753920"/>
+        <c:crossAx val="93520640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -2026,7 +2036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="98753920"/>
+        <c:axId val="93520640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,13 +2047,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98752384"/>
+        <c:crossAx val="93416448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2210,11 +2221,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106881792"/>
-        <c:axId val="106883328"/>
+        <c:axId val="93562368"/>
+        <c:axId val="93563904"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106881792"/>
+        <c:axId val="93562368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2224,7 +2235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106883328"/>
+        <c:crossAx val="93563904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2232,7 +2243,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106883328"/>
+        <c:axId val="93563904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2243,7 +2254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106881792"/>
+        <c:crossAx val="93562368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2453,11 +2464,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106937344"/>
-        <c:axId val="106939136"/>
+        <c:axId val="94044160"/>
+        <c:axId val="94045696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106937344"/>
+        <c:axId val="94044160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2467,7 +2478,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106939136"/>
+        <c:crossAx val="94045696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2475,7 +2486,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106939136"/>
+        <c:axId val="94045696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2486,13 +2497,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106937344"/>
+        <c:crossAx val="94044160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2695,11 +2707,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="106976768"/>
-        <c:axId val="106978304"/>
+        <c:axId val="94075136"/>
+        <c:axId val="94105600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="106976768"/>
+        <c:axId val="94075136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2709,7 +2721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106978304"/>
+        <c:crossAx val="94105600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2717,7 +2729,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="106978304"/>
+        <c:axId val="94105600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2728,7 +2740,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="106976768"/>
+        <c:crossAx val="94075136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2998,11 +3010,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107040128"/>
-        <c:axId val="107046016"/>
+        <c:axId val="85604608"/>
+        <c:axId val="85606400"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107040128"/>
+        <c:axId val="85604608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3012,7 +3024,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107046016"/>
+        <c:crossAx val="85606400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3020,7 +3032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107046016"/>
+        <c:axId val="85606400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3031,13 +3043,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="107040128"/>
+        <c:crossAx val="85604608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3306,11 +3319,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40310656"/>
-        <c:axId val="40312192"/>
+        <c:axId val="85652224"/>
+        <c:axId val="85653760"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40310656"/>
+        <c:axId val="85652224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3320,7 +3333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40312192"/>
+        <c:crossAx val="85653760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3328,7 +3341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40312192"/>
+        <c:axId val="85653760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3339,7 +3352,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40310656"/>
+        <c:crossAx val="85652224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3651,11 +3664,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2244992"/>
-        <c:axId val="2246528"/>
+        <c:axId val="98831360"/>
+        <c:axId val="98841344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2244992"/>
+        <c:axId val="98831360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3665,7 +3678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2246528"/>
+        <c:crossAx val="98841344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3673,7 +3686,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2246528"/>
+        <c:axId val="98841344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3684,7 +3697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2244992"/>
+        <c:crossAx val="98831360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3972,11 +3985,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="40368768"/>
-        <c:axId val="40370560"/>
+        <c:axId val="98887168"/>
+        <c:axId val="98888704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="40368768"/>
+        <c:axId val="98887168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3986,7 +3999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40370560"/>
+        <c:crossAx val="98888704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3994,7 +4007,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="40370560"/>
+        <c:axId val="98888704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4005,14 +4018,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="40368768"/>
+        <c:crossAx val="98887168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4594,12 +4606,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K177"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:J158"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A111" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4664,7 +4675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4700,7 +4711,7 @@
         <v>40812</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4733,7 +4744,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4766,7 +4777,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4799,7 +4810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4832,7 +4843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4865,7 +4876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4898,7 +4909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -4931,7 +4942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -4964,7 +4975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -4997,7 +5008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5030,7 +5041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5063,7 +5074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5096,7 +5107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5129,7 +5140,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5162,7 +5173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5195,7 +5206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5228,7 +5239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5261,7 +5272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5294,7 +5305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5327,7 +5338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5360,7 +5371,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5393,7 +5404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5426,7 +5437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5459,7 +5470,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5492,7 +5503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5525,7 +5536,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5558,7 +5569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5591,7 +5602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5624,7 +5635,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5657,7 +5668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5690,7 +5701,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5723,7 +5734,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -5756,7 +5767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -5789,7 +5800,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -5822,7 +5833,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -5855,7 +5866,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -5888,7 +5899,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -5921,7 +5932,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -5954,7 +5965,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -5987,7 +5998,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6020,7 +6031,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6053,7 +6064,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6086,7 +6097,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6117,7 +6128,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6148,7 +6159,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -6179,7 +6190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -6210,7 +6221,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -6241,7 +6252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -6272,7 +6283,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -6303,7 +6314,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -6334,7 +6345,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -6365,7 +6376,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -6396,7 +6407,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -6427,7 +6438,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -6458,7 +6469,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -6489,7 +6500,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -6520,7 +6531,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -6551,7 +6562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -6582,7 +6593,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -6613,7 +6624,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -6644,7 +6655,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -6675,7 +6686,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -6706,7 +6717,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -6737,7 +6748,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -6768,7 +6779,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -6799,7 +6810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -6832,7 +6843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -6865,7 +6876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -6898,7 +6909,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="15.6" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -6931,7 +6942,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -6964,7 +6975,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -6997,7 +7008,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -7030,7 +7041,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -7063,7 +7074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -7096,7 +7107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -7129,7 +7140,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -7162,7 +7173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7195,7 +7206,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="81" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7228,7 +7239,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7261,7 +7272,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -7294,7 +7305,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="84" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -7327,7 +7338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="85" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -7360,7 +7371,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -7393,7 +7404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -7426,7 +7437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -7457,7 +7468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="89" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -7488,7 +7499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -7519,7 +7530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="91" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -7550,7 +7561,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -7581,7 +7592,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="93" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -7612,7 +7623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="94" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -7643,7 +7654,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -7674,7 +7685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -7705,7 +7716,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="97" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -7736,7 +7747,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -7767,7 +7778,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="99" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -7798,7 +7809,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="100" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -7829,7 +7840,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -7860,7 +7871,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -7891,7 +7902,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -7922,7 +7933,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -7955,7 +7966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -7988,7 +7999,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -8021,7 +8032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -8054,7 +8065,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -8087,7 +8098,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -8120,7 +8131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -8153,7 +8164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -8186,7 +8197,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -8219,7 +8230,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="113" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -8252,7 +8263,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="114" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -8285,7 +8296,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="115" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -8318,7 +8329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="116" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -8351,7 +8362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="117" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -8384,7 +8395,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:10" ht="31.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>118</v>
       </c>
@@ -8417,7 +8428,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>119</v>
       </c>
@@ -8450,7 +8461,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="120" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>120</v>
       </c>
@@ -8483,7 +8494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="121" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>121</v>
       </c>
@@ -8516,7 +8527,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="122" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>122</v>
       </c>
@@ -8549,7 +8560,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="123" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>123</v>
       </c>
@@ -8580,7 +8591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="124" spans="1:10" ht="47.25" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>124</v>
       </c>
@@ -8613,7 +8624,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="125" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>125</v>
       </c>
@@ -8646,7 +8657,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="126" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>126</v>
       </c>
@@ -9631,7 +9642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>162</v>
       </c>
@@ -9645,7 +9656,7 @@
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
     </row>
-    <row r="160" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>163</v>
       </c>
@@ -9659,7 +9670,7 @@
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
     </row>
-    <row r="161" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>164</v>
       </c>
@@ -9673,7 +9684,7 @@
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
     </row>
-    <row r="162" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>165</v>
       </c>
@@ -9687,7 +9698,7 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
     </row>
-    <row r="163" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>166</v>
       </c>
@@ -9701,7 +9712,7 @@
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
     </row>
-    <row r="164" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>167</v>
       </c>
@@ -9715,7 +9726,7 @@
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
     </row>
-    <row r="165" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>168</v>
       </c>
@@ -9729,7 +9740,7 @@
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
     </row>
-    <row r="166" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>169</v>
       </c>
@@ -9743,7 +9754,7 @@
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
     </row>
-    <row r="167" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>170</v>
       </c>
@@ -9757,7 +9768,7 @@
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
     </row>
-    <row r="168" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>171</v>
       </c>
@@ -9771,7 +9782,7 @@
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
     </row>
-    <row r="169" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>172</v>
       </c>
@@ -9785,7 +9796,7 @@
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
     </row>
-    <row r="170" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>173</v>
       </c>
@@ -9799,7 +9810,7 @@
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
     </row>
-    <row r="171" spans="1:10" ht="15.6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>174</v>
       </c>
@@ -9813,7 +9824,7 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
     </row>
-    <row r="172" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>175</v>
       </c>
@@ -9827,7 +9838,7 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
     </row>
-    <row r="173" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>176</v>
       </c>
@@ -9841,7 +9852,7 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
     </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>177</v>
       </c>
@@ -9855,7 +9866,7 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
     </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>178</v>
       </c>
@@ -9869,7 +9880,7 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
     </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>179</v>
       </c>
@@ -9883,7 +9894,7 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
     </row>
-    <row r="177" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>180</v>
       </c>
@@ -9898,13 +9909,7 @@
       <c r="J177" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J177">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Nguyen Dinh"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:J177"/>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
@@ -10096,6 +10101,1434 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:R43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F3" s="4">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>40819</v>
+      </c>
+      <c r="H3" s="4">
+        <v>7</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="14">
+        <v>40821</v>
+      </c>
+      <c r="H4" s="4">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F5" s="4">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>40822</v>
+      </c>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2</v>
+      </c>
+      <c r="G6" s="14">
+        <v>40823</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2</v>
+      </c>
+      <c r="J6" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="4">
+        <v>3</v>
+      </c>
+      <c r="G7" s="14">
+        <v>40826</v>
+      </c>
+      <c r="H7" s="4">
+        <v>2</v>
+      </c>
+      <c r="I7" s="4">
+        <v>2</v>
+      </c>
+      <c r="J7" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+      <c r="G8" s="14">
+        <v>40829</v>
+      </c>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>3</v>
+      </c>
+      <c r="J8" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="4">
+        <v>5</v>
+      </c>
+      <c r="G9" s="14">
+        <v>40843</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="4">
+        <v>5</v>
+      </c>
+      <c r="G10" s="14">
+        <v>40846</v>
+      </c>
+      <c r="H10" s="4">
+        <v>2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>2</v>
+      </c>
+      <c r="J10" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F11" s="4">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14">
+        <v>40847</v>
+      </c>
+      <c r="H11" s="4">
+        <v>4</v>
+      </c>
+      <c r="I11" s="4">
+        <v>3.5</v>
+      </c>
+      <c r="J11" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F12" s="4">
+        <v>6</v>
+      </c>
+      <c r="G12" s="14">
+        <v>40852</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="4">
+        <v>7</v>
+      </c>
+      <c r="G13" s="14">
+        <v>40857</v>
+      </c>
+      <c r="H13" s="4">
+        <v>3</v>
+      </c>
+      <c r="I13" s="4">
+        <v>3</v>
+      </c>
+      <c r="J13" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" s="4">
+        <v>7</v>
+      </c>
+      <c r="G14" s="14">
+        <v>40857</v>
+      </c>
+      <c r="H14" s="4">
+        <v>2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="4">
+        <v>8</v>
+      </c>
+      <c r="G15" s="14">
+        <v>40864</v>
+      </c>
+      <c r="H15" s="4">
+        <v>2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>2</v>
+      </c>
+      <c r="J15" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F16" s="4">
+        <v>8</v>
+      </c>
+      <c r="G16" s="14">
+        <v>40864</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J16" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8</v>
+      </c>
+      <c r="G17" s="14">
+        <v>40867</v>
+      </c>
+      <c r="H17" s="4">
+        <v>4</v>
+      </c>
+      <c r="I17" s="4">
+        <v>3</v>
+      </c>
+      <c r="J17" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F18" s="4">
+        <v>9</v>
+      </c>
+      <c r="G18" s="14">
+        <v>40868</v>
+      </c>
+      <c r="H18" s="4">
+        <v>2</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F19" s="4">
+        <v>9</v>
+      </c>
+      <c r="G19" s="14">
+        <v>40869</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>1</v>
+      </c>
+      <c r="J19" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F20" s="4">
+        <v>9</v>
+      </c>
+      <c r="G20" s="14">
+        <v>40871</v>
+      </c>
+      <c r="H20" s="4">
+        <v>6</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5</v>
+      </c>
+      <c r="J20" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="4">
+        <v>9</v>
+      </c>
+      <c r="G21" s="14">
+        <v>40874</v>
+      </c>
+      <c r="H21" s="4">
+        <v>2</v>
+      </c>
+      <c r="I21" s="4">
+        <v>2</v>
+      </c>
+      <c r="J21" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F22" s="4">
+        <v>10</v>
+      </c>
+      <c r="G22" s="14">
+        <v>40876</v>
+      </c>
+      <c r="H22" s="4">
+        <v>1</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="4">
+        <v>11</v>
+      </c>
+      <c r="G23" s="14">
+        <v>40883</v>
+      </c>
+      <c r="H23" s="4">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>2</v>
+      </c>
+      <c r="J23" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>22</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F24" s="4">
+        <v>11</v>
+      </c>
+      <c r="G24" s="14">
+        <v>40884</v>
+      </c>
+      <c r="H24" s="4">
+        <v>1</v>
+      </c>
+      <c r="I24" s="4">
+        <v>1</v>
+      </c>
+      <c r="J24" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="4">
+        <v>11</v>
+      </c>
+      <c r="G25" s="14">
+        <v>40884</v>
+      </c>
+      <c r="H25" s="4">
+        <v>2</v>
+      </c>
+      <c r="I25" s="4">
+        <v>1</v>
+      </c>
+      <c r="J25" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="4">
+        <v>11</v>
+      </c>
+      <c r="G26" s="14">
+        <v>40885</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F27" s="4">
+        <v>11</v>
+      </c>
+      <c r="G27" s="14">
+        <v>40886</v>
+      </c>
+      <c r="H27" s="4">
+        <v>2</v>
+      </c>
+      <c r="I27" s="4">
+        <v>1</v>
+      </c>
+      <c r="J27" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="4">
+        <v>12</v>
+      </c>
+      <c r="G28" s="14">
+        <v>40888</v>
+      </c>
+      <c r="H28" s="4">
+        <v>2</v>
+      </c>
+      <c r="I28" s="4">
+        <v>2</v>
+      </c>
+      <c r="J28" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F29" s="4">
+        <v>15</v>
+      </c>
+      <c r="G29" s="14">
+        <v>40916</v>
+      </c>
+      <c r="H29" s="4">
+        <v>1</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>28</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F30" s="4">
+        <v>16</v>
+      </c>
+      <c r="G30" s="14">
+        <v>40920</v>
+      </c>
+      <c r="H30" s="4">
+        <v>2</v>
+      </c>
+      <c r="I30" s="4">
+        <v>1</v>
+      </c>
+      <c r="J30" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>29</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F31" s="4">
+        <v>22</v>
+      </c>
+      <c r="G31" s="14">
+        <v>40959</v>
+      </c>
+      <c r="H31" s="4">
+        <v>2</v>
+      </c>
+      <c r="I31" s="4">
+        <v>1</v>
+      </c>
+      <c r="J31" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="4">
+        <v>23</v>
+      </c>
+      <c r="G32" s="14">
+        <v>40967</v>
+      </c>
+      <c r="H32" s="4">
+        <v>2</v>
+      </c>
+      <c r="I32" s="4">
+        <v>1</v>
+      </c>
+      <c r="J32" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F33" s="4">
+        <v>11</v>
+      </c>
+      <c r="G33" s="14">
+        <v>41164</v>
+      </c>
+      <c r="H33" s="4">
+        <v>20</v>
+      </c>
+      <c r="I33" s="4">
+        <v>14</v>
+      </c>
+      <c r="J33" s="4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>32</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="14">
+        <v>40993</v>
+      </c>
+      <c r="H34" s="4">
+        <v>10</v>
+      </c>
+      <c r="I34" s="4">
+        <v>4</v>
+      </c>
+      <c r="J34" s="4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>33</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="4"/>
+      <c r="G35" s="14">
+        <v>40997</v>
+      </c>
+      <c r="H35" s="4">
+        <v>8</v>
+      </c>
+      <c r="I35" s="4">
+        <v>16</v>
+      </c>
+      <c r="J35" s="4"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="14">
+        <v>40995</v>
+      </c>
+      <c r="H36" s="4">
+        <v>8</v>
+      </c>
+      <c r="I36" s="4">
+        <v>16</v>
+      </c>
+      <c r="J36" s="4"/>
+    </row>
+    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F37" s="4"/>
+      <c r="G37" s="14">
+        <v>40996</v>
+      </c>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+    </row>
+    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>36</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F38" s="4">
+        <v>28</v>
+      </c>
+      <c r="G38" s="16">
+        <v>41064</v>
+      </c>
+      <c r="H38" s="4">
+        <v>24</v>
+      </c>
+      <c r="I38" s="4">
+        <v>123</v>
+      </c>
+      <c r="J38" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <v>37</v>
+      </c>
+      <c r="B39" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F39" s="4">
+        <v>31</v>
+      </c>
+      <c r="G39" s="47" t="s">
+        <v>245</v>
+      </c>
+      <c r="H39" s="4">
+        <v>24</v>
+      </c>
+      <c r="I39" s="4">
+        <v>3</v>
+      </c>
+      <c r="J39" s="4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+    </row>
+    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D41" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E41" s="22">
+        <v>2</v>
+      </c>
+      <c r="F41" s="22">
+        <v>3</v>
+      </c>
+      <c r="G41" s="22">
+        <v>5</v>
+      </c>
+      <c r="H41" s="22">
+        <v>6</v>
+      </c>
+      <c r="I41" s="22">
+        <v>7</v>
+      </c>
+      <c r="J41" s="22">
+        <v>8</v>
+      </c>
+      <c r="K41" s="22">
+        <v>9</v>
+      </c>
+      <c r="L41" s="22">
+        <v>10</v>
+      </c>
+      <c r="M41" s="22">
+        <v>11</v>
+      </c>
+      <c r="N41" s="22">
+        <v>12</v>
+      </c>
+      <c r="O41" s="22">
+        <v>15</v>
+      </c>
+      <c r="P41" s="22">
+        <v>16</v>
+      </c>
+      <c r="Q41" s="22">
+        <v>22</v>
+      </c>
+      <c r="R41" s="22">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D42" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3">
+        <v>18</v>
+      </c>
+      <c r="F42" s="3">
+        <v>6</v>
+      </c>
+      <c r="G42" s="3">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
+        <v>6</v>
+      </c>
+      <c r="I42" s="3">
+        <v>5</v>
+      </c>
+      <c r="J42" s="3">
+        <v>7</v>
+      </c>
+      <c r="K42" s="3">
+        <v>12</v>
+      </c>
+      <c r="L42" s="3">
+        <v>1</v>
+      </c>
+      <c r="M42" s="3">
+        <v>8</v>
+      </c>
+      <c r="N42" s="3">
+        <v>2</v>
+      </c>
+      <c r="O42" s="25">
+        <v>1</v>
+      </c>
+      <c r="P42" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q42" s="4">
+        <v>2</v>
+      </c>
+      <c r="R42" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D43" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="E43" s="3">
+        <v>12</v>
+      </c>
+      <c r="F43" s="3">
+        <v>5</v>
+      </c>
+      <c r="G43" s="3">
+        <v>3</v>
+      </c>
+      <c r="H43" s="3">
+        <v>4.5</v>
+      </c>
+      <c r="I43" s="3">
+        <v>4</v>
+      </c>
+      <c r="J43" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="K43" s="3">
+        <v>9</v>
+      </c>
+      <c r="L43" s="3">
+        <v>1</v>
+      </c>
+      <c r="M43" s="3">
+        <v>5.5</v>
+      </c>
+      <c r="N43" s="3">
+        <v>2</v>
+      </c>
+      <c r="O43" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="P43" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="4">
+        <v>1</v>
+      </c>
+      <c r="R43" s="4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:J2"/>
+  <sortState ref="A3:J34">
+    <sortCondition ref="F1"/>
+  </sortState>
+  <conditionalFormatting sqref="C2:C39">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"Low"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"Medium"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"High"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"Very High"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26:J39">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3:J24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D39">
+      <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C39">
+      <formula1>"Very High,High, Medium, Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E39">
+      <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10409,10 +11842,199 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11320,12 +12942,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:XFD33"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12679,11 +14301,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
@@ -13706,12 +15328,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14681,7 +16303,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P35"/>
   <sheetViews>
@@ -15901,7 +17523,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P27"/>
   <sheetViews>
@@ -16834,13 +18456,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18029,1432 +19651,4 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:R43"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="76.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2</v>
-      </c>
-      <c r="G3" s="14">
-        <v>40819</v>
-      </c>
-      <c r="H3" s="4">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4">
-        <v>4</v>
-      </c>
-      <c r="J3" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="14">
-        <v>40821</v>
-      </c>
-      <c r="H4" s="4">
-        <v>5</v>
-      </c>
-      <c r="I4" s="4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" s="4">
-        <v>2</v>
-      </c>
-      <c r="G5" s="14">
-        <v>40822</v>
-      </c>
-      <c r="H5" s="4">
-        <v>4</v>
-      </c>
-      <c r="I5" s="4">
-        <v>3</v>
-      </c>
-      <c r="J5" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F6" s="4">
-        <v>2</v>
-      </c>
-      <c r="G6" s="14">
-        <v>40823</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F7" s="4">
-        <v>3</v>
-      </c>
-      <c r="G7" s="14">
-        <v>40826</v>
-      </c>
-      <c r="H7" s="4">
-        <v>2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>2</v>
-      </c>
-      <c r="J7" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="4">
-        <v>3</v>
-      </c>
-      <c r="G8" s="14">
-        <v>40829</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4</v>
-      </c>
-      <c r="I8" s="4">
-        <v>3</v>
-      </c>
-      <c r="J8" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="4">
-        <v>5</v>
-      </c>
-      <c r="G9" s="14">
-        <v>40843</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F10" s="4">
-        <v>5</v>
-      </c>
-      <c r="G10" s="14">
-        <v>40846</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F11" s="4">
-        <v>6</v>
-      </c>
-      <c r="G11" s="14">
-        <v>40847</v>
-      </c>
-      <c r="H11" s="4">
-        <v>4</v>
-      </c>
-      <c r="I11" s="4">
-        <v>3.5</v>
-      </c>
-      <c r="J11" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F12" s="4">
-        <v>6</v>
-      </c>
-      <c r="G12" s="14">
-        <v>40852</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
-      <c r="J12" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="4">
-        <v>7</v>
-      </c>
-      <c r="G13" s="14">
-        <v>40857</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
-        <v>3</v>
-      </c>
-      <c r="J13" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="4">
-        <v>7</v>
-      </c>
-      <c r="G14" s="14">
-        <v>40857</v>
-      </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
-      <c r="J14" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="4">
-        <v>8</v>
-      </c>
-      <c r="G15" s="14">
-        <v>40864</v>
-      </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2</v>
-      </c>
-      <c r="J15" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F16" s="4">
-        <v>8</v>
-      </c>
-      <c r="G16" s="14">
-        <v>40864</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J16" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>15</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F17" s="4">
-        <v>8</v>
-      </c>
-      <c r="G17" s="14">
-        <v>40867</v>
-      </c>
-      <c r="H17" s="4">
-        <v>4</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
-      </c>
-      <c r="J17" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <v>16</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F18" s="4">
-        <v>9</v>
-      </c>
-      <c r="G18" s="14">
-        <v>40868</v>
-      </c>
-      <c r="H18" s="4">
-        <v>2</v>
-      </c>
-      <c r="I18" s="4">
-        <v>1</v>
-      </c>
-      <c r="J18" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <v>17</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="4">
-        <v>9</v>
-      </c>
-      <c r="G19" s="14">
-        <v>40869</v>
-      </c>
-      <c r="H19" s="4">
-        <v>2</v>
-      </c>
-      <c r="I19" s="4">
-        <v>1</v>
-      </c>
-      <c r="J19" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
-        <v>18</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F20" s="4">
-        <v>9</v>
-      </c>
-      <c r="G20" s="14">
-        <v>40871</v>
-      </c>
-      <c r="H20" s="4">
-        <v>6</v>
-      </c>
-      <c r="I20" s="4">
-        <v>5</v>
-      </c>
-      <c r="J20" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <v>19</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F21" s="4">
-        <v>9</v>
-      </c>
-      <c r="G21" s="14">
-        <v>40874</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2</v>
-      </c>
-      <c r="I21" s="4">
-        <v>2</v>
-      </c>
-      <c r="J21" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>20</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="4">
-        <v>10</v>
-      </c>
-      <c r="G22" s="14">
-        <v>40876</v>
-      </c>
-      <c r="H22" s="4">
-        <v>1</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
-        <v>21</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="4">
-        <v>11</v>
-      </c>
-      <c r="G23" s="14">
-        <v>40883</v>
-      </c>
-      <c r="H23" s="4">
-        <v>2</v>
-      </c>
-      <c r="I23" s="4">
-        <v>2</v>
-      </c>
-      <c r="J23" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
-        <v>22</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F24" s="4">
-        <v>11</v>
-      </c>
-      <c r="G24" s="14">
-        <v>40884</v>
-      </c>
-      <c r="H24" s="4">
-        <v>1</v>
-      </c>
-      <c r="I24" s="4">
-        <v>1</v>
-      </c>
-      <c r="J24" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
-        <v>23</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F25" s="4">
-        <v>11</v>
-      </c>
-      <c r="G25" s="14">
-        <v>40884</v>
-      </c>
-      <c r="H25" s="4">
-        <v>2</v>
-      </c>
-      <c r="I25" s="4">
-        <v>1</v>
-      </c>
-      <c r="J25" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
-        <v>24</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="4">
-        <v>11</v>
-      </c>
-      <c r="G26" s="14">
-        <v>40885</v>
-      </c>
-      <c r="H26" s="4">
-        <v>1</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J26" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <v>25</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F27" s="4">
-        <v>11</v>
-      </c>
-      <c r="G27" s="14">
-        <v>40886</v>
-      </c>
-      <c r="H27" s="4">
-        <v>2</v>
-      </c>
-      <c r="I27" s="4">
-        <v>1</v>
-      </c>
-      <c r="J27" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <v>26</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F28" s="4">
-        <v>12</v>
-      </c>
-      <c r="G28" s="14">
-        <v>40888</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2</v>
-      </c>
-      <c r="I28" s="4">
-        <v>2</v>
-      </c>
-      <c r="J28" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <v>27</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F29" s="4">
-        <v>15</v>
-      </c>
-      <c r="G29" s="14">
-        <v>40916</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1</v>
-      </c>
-      <c r="I29" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="J29" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F30" s="4">
-        <v>16</v>
-      </c>
-      <c r="G30" s="14">
-        <v>40920</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>1</v>
-      </c>
-      <c r="J30" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <v>29</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F31" s="4">
-        <v>22</v>
-      </c>
-      <c r="G31" s="14">
-        <v>40959</v>
-      </c>
-      <c r="H31" s="4">
-        <v>2</v>
-      </c>
-      <c r="I31" s="4">
-        <v>1</v>
-      </c>
-      <c r="J31" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="4">
-        <v>23</v>
-      </c>
-      <c r="G32" s="14">
-        <v>40967</v>
-      </c>
-      <c r="H32" s="4">
-        <v>2</v>
-      </c>
-      <c r="I32" s="4">
-        <v>1</v>
-      </c>
-      <c r="J32" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <v>31</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F33" s="4">
-        <v>11</v>
-      </c>
-      <c r="G33" s="14">
-        <v>41164</v>
-      </c>
-      <c r="H33" s="4">
-        <v>20</v>
-      </c>
-      <c r="I33" s="4">
-        <v>14</v>
-      </c>
-      <c r="J33" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>32</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="14">
-        <v>40993</v>
-      </c>
-      <c r="H34" s="4">
-        <v>10</v>
-      </c>
-      <c r="I34" s="4">
-        <v>4</v>
-      </c>
-      <c r="J34" s="4">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <v>33</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="14">
-        <v>40997</v>
-      </c>
-      <c r="H35" s="4">
-        <v>8</v>
-      </c>
-      <c r="I35" s="4">
-        <v>16</v>
-      </c>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="3">
-        <v>34</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="14">
-        <v>40995</v>
-      </c>
-      <c r="H36" s="4">
-        <v>8</v>
-      </c>
-      <c r="I36" s="4">
-        <v>16</v>
-      </c>
-      <c r="J36" s="4"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="3">
-        <v>35</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F37" s="4"/>
-      <c r="G37" s="14">
-        <v>40996</v>
-      </c>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-    </row>
-    <row r="38" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>36</v>
-      </c>
-      <c r="B38" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F38" s="4">
-        <v>28</v>
-      </c>
-      <c r="G38" s="16">
-        <v>41064</v>
-      </c>
-      <c r="H38" s="4">
-        <v>24</v>
-      </c>
-      <c r="I38" s="4">
-        <v>123</v>
-      </c>
-      <c r="J38" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="3">
-        <v>37</v>
-      </c>
-      <c r="B39" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="4">
-        <v>31</v>
-      </c>
-      <c r="G39" s="47" t="s">
-        <v>245</v>
-      </c>
-      <c r="H39" s="4">
-        <v>24</v>
-      </c>
-      <c r="I39" s="4">
-        <v>3</v>
-      </c>
-      <c r="J39" s="4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="26"/>
-    </row>
-    <row r="41" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D41" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E41" s="22">
-        <v>2</v>
-      </c>
-      <c r="F41" s="22">
-        <v>3</v>
-      </c>
-      <c r="G41" s="22">
-        <v>5</v>
-      </c>
-      <c r="H41" s="22">
-        <v>6</v>
-      </c>
-      <c r="I41" s="22">
-        <v>7</v>
-      </c>
-      <c r="J41" s="22">
-        <v>8</v>
-      </c>
-      <c r="K41" s="22">
-        <v>9</v>
-      </c>
-      <c r="L41" s="22">
-        <v>10</v>
-      </c>
-      <c r="M41" s="22">
-        <v>11</v>
-      </c>
-      <c r="N41" s="22">
-        <v>12</v>
-      </c>
-      <c r="O41" s="22">
-        <v>15</v>
-      </c>
-      <c r="P41" s="22">
-        <v>16</v>
-      </c>
-      <c r="Q41" s="22">
-        <v>22</v>
-      </c>
-      <c r="R41" s="22">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D42" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3">
-        <v>18</v>
-      </c>
-      <c r="F42" s="3">
-        <v>6</v>
-      </c>
-      <c r="G42" s="3">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3">
-        <v>6</v>
-      </c>
-      <c r="I42" s="3">
-        <v>5</v>
-      </c>
-      <c r="J42" s="3">
-        <v>7</v>
-      </c>
-      <c r="K42" s="3">
-        <v>12</v>
-      </c>
-      <c r="L42" s="3">
-        <v>1</v>
-      </c>
-      <c r="M42" s="3">
-        <v>8</v>
-      </c>
-      <c r="N42" s="3">
-        <v>2</v>
-      </c>
-      <c r="O42" s="25">
-        <v>1</v>
-      </c>
-      <c r="P42" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="4">
-        <v>2</v>
-      </c>
-      <c r="R42" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D43" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="3">
-        <v>12</v>
-      </c>
-      <c r="F43" s="3">
-        <v>5</v>
-      </c>
-      <c r="G43" s="3">
-        <v>3</v>
-      </c>
-      <c r="H43" s="3">
-        <v>4.5</v>
-      </c>
-      <c r="I43" s="3">
-        <v>4</v>
-      </c>
-      <c r="J43" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="K43" s="3">
-        <v>9</v>
-      </c>
-      <c r="L43" s="3">
-        <v>1</v>
-      </c>
-      <c r="M43" s="3">
-        <v>5.5</v>
-      </c>
-      <c r="N43" s="3">
-        <v>2</v>
-      </c>
-      <c r="O43" s="25">
-        <v>0.5</v>
-      </c>
-      <c r="P43" s="4">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="4">
-        <v>1</v>
-      </c>
-      <c r="R43" s="4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A2:J2"/>
-  <sortState ref="A3:J34">
-    <sortCondition ref="F1"/>
-  </sortState>
-  <conditionalFormatting sqref="C2:C39">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>"Low"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>"Medium"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
-      <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
-      <formula>"Very High"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J26:J39">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J3:J24">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D39">
-      <formula1>"RE, Architecture, Detail Design, Implementation, Testing, Management"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C39">
-      <formula1>"Very High,High, Medium, Low"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E39">
-      <formula1>"Tan Tran, Nhung Huynh, Tuong Nguyen, Nguyen Dinh, Quyet Nguyen, Dang Nguyen, Tung Nguyen, Loc Phan"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>